--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -1,118 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BI_Report\scripy_market_valume\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22848" windowHeight="8856"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22848" windowHeight="8856" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>交易日期</t>
-  </si>
-  <si>
-    <t>上交所（股票）</t>
-  </si>
-  <si>
-    <t>上交所（基金）</t>
-  </si>
-  <si>
-    <t>深交所（股票）</t>
-  </si>
-  <si>
-    <t>深交所（基金）</t>
-  </si>
-  <si>
-    <t>北交所（股票）</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -143,90 +112,173 @@
     </border>
   </borders>
   <cellStyleXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="千位分隔 2" xfId="4"/>
     <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="千位分隔 3" xfId="7"/>
+    <cellStyle name="常规 5" xfId="8"/>
     <cellStyle name="常规 4 2 2 17" xfId="9"/>
-    <cellStyle name="常规 5" xfId="8"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="千位分隔 2" xfId="4"/>
-    <cellStyle name="千位分隔 3" xfId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -514,4971 +566,5011 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J211" sqref="J211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="5" customWidth="1"/>
-    <col min="2" max="6" width="16.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="6" customWidth="1"/>
-    <col min="8" max="24" width="8.88671875" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2"/>
+    <col width="16.77734375" customWidth="1" style="13" min="1" max="1"/>
+    <col width="16.77734375" customWidth="1" style="2" min="2" max="6"/>
+    <col width="16.77734375" customWidth="1" style="14" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="2" min="8" max="24"/>
+    <col width="8.88671875" customWidth="1" style="2" min="25" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>交易日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>上交所（股票）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>上交所（基金）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>深交所（股票）</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>深交所（基金）</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>北交所（股票）</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="n">
         <v>44929</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="n">
         <v>33247700</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="n">
         <v>9087600</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3" t="n">
         <v>45816300</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="3" t="n">
         <v>3266400</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="n">
         <v>39630.22</v>
       </c>
-      <c r="G2" s="10">
-        <v>91457630.219999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="G2" s="18" t="n">
+        <v>91457630.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="n">
         <v>44930</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="3" t="n">
         <v>31739400</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>8946100</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>46989600</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>2546500</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>35688.83</v>
       </c>
-      <c r="G3" s="10">
-        <v>90257288.829999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="G3" s="18" t="n">
+        <v>90257288.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="n">
         <v>44931</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="n">
         <v>33725900</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>9593500</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>50872600</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>3315800</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>35382.75</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="18" t="n">
         <v>97543182.75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5">
+      <c r="A5" s="17" t="n">
         <v>44932</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="n">
         <v>33966500</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>9139800</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>50092400</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>2762000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>34854.46</v>
       </c>
-      <c r="G5" s="10">
-        <v>95995554.459999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="G5" s="18" t="n">
+        <v>95995554.45999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="n">
         <v>44935</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>34470800</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>8448400</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>46737600</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>2455400</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>32031.88</v>
       </c>
-      <c r="G6" s="10">
-        <v>92144231.879999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="G6" s="18" t="n">
+        <v>92144231.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="n">
         <v>44936</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>31281100</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>7795000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="n">
         <v>43808100</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="n">
         <v>2213600</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>28034.86</v>
       </c>
-      <c r="G7" s="10">
-        <v>85125834.859999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="G7" s="18" t="n">
+        <v>85125834.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="n">
         <v>44937</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="n">
         <v>31162900</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="n">
         <v>8520400</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="n">
         <v>43383100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="n">
         <v>2285900</v>
       </c>
-      <c r="F8" s="3">
-        <v>33621.519999999997</v>
-      </c>
-      <c r="G8" s="10">
-        <v>85385921.519999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="F8" s="3" t="n">
+        <v>33621.52</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>85385921.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="n">
         <v>44938</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="n">
         <v>27643000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="n">
         <v>7954600</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="n">
         <v>40721100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="n">
         <v>2994300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="n">
         <v>27405.26</v>
       </c>
-      <c r="G9" s="10">
-        <v>79340405.260000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="G9" s="18" t="n">
+        <v>79340405.26000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="n">
         <v>44939</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="3" t="n">
         <v>29124300</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="3" t="n">
         <v>8114300</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="n">
         <v>41523200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="n">
         <v>2534200</v>
       </c>
-      <c r="F10" s="3">
-        <v>27849.919999999998</v>
-      </c>
-      <c r="G10" s="10">
-        <v>81323849.920000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="F10" s="3" t="n">
+        <v>27849.92</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>81323849.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="n">
         <v>44942</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="n">
         <v>41596700</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="3" t="n">
         <v>10919800</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="3" t="n">
         <v>50512800</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="3" t="n">
         <v>3024200</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="n">
         <v>36491.33</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="18" t="n">
         <v>106089991.33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12">
+      <c r="A12" s="17" t="n">
         <v>44943</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="3" t="n">
         <v>30443900</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="3" t="n">
         <v>8257900</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="n">
         <v>40577600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="n">
         <v>2604000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="n">
         <v>29528.34</v>
       </c>
-      <c r="G12" s="10">
-        <v>81912928.340000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="G12" s="18" t="n">
+        <v>81912928.34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="n">
         <v>44944</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="3" t="n">
         <v>26877800</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="3" t="n">
         <v>7273800</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="3" t="n">
         <v>37119400</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="n">
         <v>1953900</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="n">
         <v>55061.54</v>
       </c>
-      <c r="G13" s="10">
-        <v>73279961.540000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="G13" s="18" t="n">
+        <v>73279961.54000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="n">
         <v>44945</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="3" t="n">
         <v>29819300</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="3" t="n">
         <v>8658900</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="n">
         <v>39111100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="n">
         <v>2117200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="n">
         <v>47324.27</v>
       </c>
-      <c r="G14" s="10">
-        <v>79753824.269999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="G14" s="18" t="n">
+        <v>79753824.27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="n">
         <v>44946</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="3" t="n">
         <v>32950400</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3" t="n">
         <v>10075600</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="n">
         <v>42080500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="n">
         <v>2955900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="n">
         <v>48795.87</v>
       </c>
-      <c r="G15" s="10">
-        <v>88111195.870000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="G15" s="18" t="n">
+        <v>88111195.87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="n">
         <v>44956</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="3" t="n">
         <v>45434700</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="3" t="n">
         <v>11801700</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3" t="n">
         <v>61046300</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="3" t="n">
         <v>2859000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="3" t="n">
         <v>78060.52</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="18" t="n">
         <v>121219760.52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17">
+      <c r="A17" s="17" t="n">
         <v>44957</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="3" t="n">
         <v>37667000</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="3" t="n">
         <v>8804700</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="n">
         <v>52666300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="n">
         <v>2427400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="n">
         <v>239527.27</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="18" t="n">
         <v>101804927.27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18">
+      <c r="A18" s="17" t="n">
         <v>44958</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="3" t="n">
         <v>41502300</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="3" t="n">
         <v>8902600</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="n">
         <v>59264500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="n">
         <v>2767700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="n">
         <v>217055.69</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="18" t="n">
         <v>112654155.69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+    <row r="19">
+      <c r="A19" s="17" t="n">
         <v>44959</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="3" t="n">
         <v>43144800</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="3" t="n">
         <v>8995500</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="3" t="n">
         <v>59694600</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="3" t="n">
         <v>2596400</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="3" t="n">
         <v>161987.49</v>
       </c>
-      <c r="G19" s="10">
-        <v>114593287.48999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="G19" s="18" t="n">
+        <v>114593287.49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="17" t="n">
         <v>44960</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="3" t="n">
         <v>37972300</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="3" t="n">
         <v>9082900</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="n">
         <v>53680400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="n">
         <v>2825000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="n">
         <v>109366.97</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="18" t="n">
         <v>103669966.97</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21">
+      <c r="A21" s="17" t="n">
         <v>44963</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="3" t="n">
         <v>34966800</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="3" t="n">
         <v>8262400</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="n">
         <v>52668800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="n">
         <v>2463600</v>
       </c>
-      <c r="F21" s="3">
-        <v>92464.04</v>
-      </c>
-      <c r="G21" s="10">
-        <v>98454064.040000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="F21" s="3" t="n">
+        <v>92464.03999999999</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>98454064.04000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="n">
         <v>44964</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="3" t="n">
         <v>32226500</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="3" t="n">
         <v>8442400</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="n">
         <v>52564500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="n">
         <v>2672700</v>
       </c>
-      <c r="F22" s="3">
-        <v>75532.960000000006</v>
-      </c>
-      <c r="G22" s="10">
-        <v>95981632.959999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="F22" s="3" t="n">
+        <v>75532.96000000001</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>95981632.95999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="17" t="n">
         <v>44965</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="3" t="n">
         <v>29451800</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="3" t="n">
         <v>7198000</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="n">
         <v>51239000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="n">
         <v>2360700</v>
       </c>
-      <c r="F23" s="3">
-        <v>75681.039999999994</v>
-      </c>
-      <c r="G23" s="10">
-        <v>90325181.040000007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="F23" s="3" t="n">
+        <v>75681.03999999999</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <v>90325181.04000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="17" t="n">
         <v>44966</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="3" t="n">
         <v>35353300</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="3" t="n">
         <v>9689900</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="n">
         <v>55174600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="n">
         <v>2688900</v>
       </c>
-      <c r="F24" s="3">
-        <v>97412.07</v>
-      </c>
-      <c r="G24" s="10">
-        <v>103004112.06999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="F24" s="3" t="n">
+        <v>97412.07000000001</v>
+      </c>
+      <c r="G24" s="18" t="n">
+        <v>103004112.07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="17" t="n">
         <v>44967</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="3" t="n">
         <v>34322700</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="3" t="n">
         <v>8932600</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="3" t="n">
         <v>55210600</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="3" t="n">
         <v>2782200</v>
       </c>
-      <c r="F25" s="3">
-        <v>69673.399999999994</v>
-      </c>
-      <c r="G25" s="10">
-        <v>101317773.40000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="F25" s="3" t="n">
+        <v>69673.39999999999</v>
+      </c>
+      <c r="G25" s="18" t="n">
+        <v>101317773.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="17" t="n">
         <v>44970</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="3" t="n">
         <v>39900800</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="3" t="n">
         <v>8173300</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="n">
         <v>58350300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="n">
         <v>2745400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="n">
         <v>112003.74</v>
       </c>
-      <c r="G26" s="10">
-        <v>109281803.73999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="G26" s="18" t="n">
+        <v>109281803.74</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="17" t="n">
         <v>44971</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="3" t="n">
         <v>35716200</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="3" t="n">
         <v>6503100</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="n">
         <v>56004400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="n">
         <v>2013800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="n">
         <v>7792705</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="18" t="n">
         <v>108030205</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+    <row r="28">
+      <c r="A28" s="17" t="n">
         <v>44972</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="3" t="n">
         <v>35858600</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="3" t="n">
         <v>6841300</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="3" t="n">
         <v>58116800</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="3" t="n">
         <v>2272300</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="3" t="n">
         <v>85374.78</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="18" t="n">
         <v>103174374.78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="29">
+      <c r="A29" s="17" t="n">
         <v>44973</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="3" t="n">
         <v>46929500</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="3" t="n">
         <v>11003500</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="n">
         <v>72579400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="n">
         <v>2902900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="n">
         <v>115270.94</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="18" t="n">
         <v>133530570.94</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="30">
+      <c r="A30" s="17" t="n">
         <v>44974</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="3" t="n">
         <v>35609400</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="3" t="n">
         <v>8828800</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="3" t="n">
         <v>55944200</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="3" t="n">
         <v>2748500</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="3" t="n">
         <v>105310.48</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="18" t="n">
         <v>103236210.48</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+    <row r="31">
+      <c r="A31" s="17" t="n">
         <v>44977</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="3" t="n">
         <v>39891300</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="3" t="n">
         <v>9224500</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="3" t="n">
         <v>55440200</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="3" t="n">
         <v>2874800</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="3" t="n">
         <v>85853.63</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="18" t="n">
         <v>107516653.63</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+    <row r="32">
+      <c r="A32" s="17" t="n">
         <v>44978</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="3" t="n">
         <v>39158000</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="3" t="n">
         <v>7907000</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="n">
         <v>53148600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="n">
         <v>2208100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="n">
         <v>84903.45</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="18" t="n">
         <v>102506603.45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+    <row r="33">
+      <c r="A33" s="17" t="n">
         <v>44979</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="3" t="n">
         <v>32138900</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="3" t="n">
         <v>6767400</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="n">
         <v>46426400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="n">
         <v>2186300</v>
       </c>
-      <c r="F33" s="3">
-        <v>78382.789999999994</v>
-      </c>
-      <c r="G33" s="10">
-        <v>87597382.790000007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="F33" s="3" t="n">
+        <v>78382.78999999999</v>
+      </c>
+      <c r="G33" s="18" t="n">
+        <v>87597382.79000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="17" t="n">
         <v>44980</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="3" t="n">
         <v>33528400</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="3" t="n">
         <v>7310300</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="3" t="n">
         <v>47432600</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="3" t="n">
         <v>2000700</v>
       </c>
-      <c r="F34" s="3">
-        <v>85071.93</v>
-      </c>
-      <c r="G34" s="10">
-        <v>90357071.930000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="F34" s="3" t="n">
+        <v>85071.92999999999</v>
+      </c>
+      <c r="G34" s="18" t="n">
+        <v>90357071.93000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="17" t="n">
         <v>44981</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="3" t="n">
         <v>30873600</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="3" t="n">
         <v>7207700</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="n">
         <v>41874800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="n">
         <v>2032700</v>
       </c>
-      <c r="F35" s="3">
-        <v>69609.490000000005</v>
-      </c>
-      <c r="G35" s="10">
-        <v>82058409.489999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="F35" s="3" t="n">
+        <v>69609.49000000001</v>
+      </c>
+      <c r="G35" s="18" t="n">
+        <v>82058409.48999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="17" t="n">
         <v>44984</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="3" t="n">
         <v>32537700</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="3" t="n">
         <v>7660500</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="3" t="n">
         <v>43084400</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="3" t="n">
         <v>2444500</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="3" t="n">
         <v>65562.27</v>
       </c>
-      <c r="G36" s="10">
-        <v>85792662.269999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="G36" s="18" t="n">
+        <v>85792662.27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="17" t="n">
         <v>44985</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="3" t="n">
         <v>31955400</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="3" t="n">
         <v>7817900</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="3" t="n">
         <v>44041200</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="3" t="n">
         <v>2090000</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="3" t="n">
         <v>90971.61</v>
       </c>
-      <c r="G37" s="10">
-        <v>85995471.609999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="G37" s="18" t="n">
+        <v>85995471.61</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="17" t="n">
         <v>44986</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="3" t="n">
         <v>38632500</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="3" t="n">
         <v>9767500</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="3" t="n">
         <v>53709100</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="3" t="n">
         <v>2524700</v>
       </c>
-      <c r="F38" s="3">
-        <v>89553.919999999998</v>
-      </c>
-      <c r="G38" s="10">
+      <c r="F38" s="3" t="n">
+        <v>89553.92</v>
+      </c>
+      <c r="G38" s="18" t="n">
         <v>104723353.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+    <row r="39">
+      <c r="A39" s="17" t="n">
         <v>44987</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="3" t="n">
         <v>39134300</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="3" t="n">
         <v>7884500</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="3" t="n">
         <v>54613300</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="3" t="n">
         <v>2207000</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="3" t="n">
         <v>73701.45</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="18" t="n">
         <v>103912801.45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+    <row r="40">
+      <c r="A40" s="17" t="n">
         <v>44988</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="3" t="n">
         <v>38961500</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="3" t="n">
         <v>8475400</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="3" t="n">
         <v>48141100</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="3" t="n">
         <v>2486000</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="3" t="n">
         <v>61732.75</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="18" t="n">
         <v>98125732.75</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+    <row r="41">
+      <c r="A41" s="17" t="n">
         <v>44991</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="3" t="n">
         <v>43322900</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="3" t="n">
         <v>8060000</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="n">
         <v>52017600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="3" t="n">
         <v>2411500</v>
       </c>
-      <c r="F41" s="3">
-        <v>52797.120000000003</v>
-      </c>
-      <c r="G41" s="10">
+      <c r="F41" s="3" t="n">
+        <v>52797.12</v>
+      </c>
+      <c r="G41" s="18" t="n">
         <v>105864797.12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+    <row r="42">
+      <c r="A42" s="17" t="n">
         <v>44992</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="3" t="n">
         <v>43086600</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="3" t="n">
         <v>8341300</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="n">
         <v>50367900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="n">
         <v>2805500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="n">
         <v>54126.8</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="18" t="n">
         <v>104655426.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+    <row r="43">
+      <c r="A43" s="17" t="n">
         <v>44993</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="3" t="n">
         <v>31367100</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="3" t="n">
         <v>7134400</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="n">
         <v>40686700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="n">
         <v>2216500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="n">
         <v>51300.95</v>
       </c>
-      <c r="G43" s="10">
-        <v>81456000.950000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="G43" s="18" t="n">
+        <v>81456000.95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="17" t="n">
         <v>44994</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="3" t="n">
         <v>32987000</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="3" t="n">
         <v>6741800</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="n">
         <v>42900300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="n">
         <v>2079700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="n">
         <v>42901.19</v>
       </c>
-      <c r="G44" s="10">
-        <v>84751701.189999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="G44" s="18" t="n">
+        <v>84751701.19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="17" t="n">
         <v>44995</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="3" t="n">
         <v>34306300</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="3" t="n">
         <v>8374600</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="n">
         <v>46810600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="n">
         <v>2476800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="n">
         <v>63165.73</v>
       </c>
-      <c r="G45" s="10">
-        <v>92031465.730000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="G45" s="18" t="n">
+        <v>92031465.73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="17" t="n">
         <v>44998</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="3" t="n">
         <v>36664800</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="3" t="n">
         <v>8209600</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="n">
         <v>47587200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="3" t="n">
         <v>2532600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="3" t="n">
         <v>56328.75</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="18" t="n">
         <v>95050528.75</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+    <row r="47">
+      <c r="A47" s="17" t="n">
         <v>44999</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="3" t="n">
         <v>41067800</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="3" t="n">
         <v>7848500</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="n">
         <v>52312700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="n">
         <v>2704000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="n">
         <v>62370.43</v>
       </c>
-      <c r="G47" s="10">
-        <v>103995370.43000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="G47" s="18" t="n">
+        <v>103995370.43</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="17" t="n">
         <v>45000</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="3" t="n">
         <v>37485700</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="3" t="n">
         <v>8266500</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="n">
         <v>44649800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="n">
         <v>2531400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="n">
         <v>75618.63</v>
       </c>
-      <c r="G48" s="10">
-        <v>93009018.629999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="G48" s="18" t="n">
+        <v>93009018.63</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="17" t="n">
         <v>45001</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="3" t="n">
         <v>39368100</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="3" t="n">
         <v>7843500</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="n">
         <v>45393000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="n">
         <v>2948100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="n">
         <v>56989.48</v>
       </c>
-      <c r="G49" s="10">
-        <v>95609689.480000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="G49" s="18" t="n">
+        <v>95609689.48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="17" t="n">
         <v>45002</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="3" t="n">
         <v>43389100</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="3" t="n">
         <v>10678800</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="3" t="n">
         <v>54284900</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="3" t="n">
         <v>3005700</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="3" t="n">
         <v>54401.69</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="18" t="n">
         <v>111412901.69</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+    <row r="51">
+      <c r="A51" s="17" t="n">
         <v>45005</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="3" t="n">
         <v>48171000</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="3" t="n">
         <v>8673100</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="3" t="n">
         <v>57810800</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="3" t="n">
         <v>2698400</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="3" t="n">
         <v>49016.88</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="18" t="n">
         <v>117402316.88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+    <row r="52">
+      <c r="A52" s="17" t="n">
         <v>45006</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="3" t="n">
         <v>39092400</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="3" t="n">
         <v>7855500</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="n">
         <v>50660300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="n">
         <v>2775400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="n">
         <v>52452.4</v>
       </c>
-      <c r="G52" s="10">
-        <v>100436052.40000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="G52" s="18" t="n">
+        <v>100436052.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="17" t="n">
         <v>45007</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="3" t="n">
         <v>38362400</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="3" t="n">
         <v>7306500</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="3" t="n">
         <v>57654000</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="3" t="n">
         <v>2456300</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="3" t="n">
         <v>62263.33</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="18" t="n">
         <v>105841463.33</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+    <row r="54">
+      <c r="A54" s="17" t="n">
         <v>45008</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="3" t="n">
         <v>42833700</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="3" t="n">
         <v>9177900</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="n">
         <v>59535800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="3" t="n">
         <v>2824500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="n">
         <v>88372.06</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="18" t="n">
         <v>114460272.06</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+    <row r="55">
+      <c r="A55" s="17" t="n">
         <v>45009</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="3" t="n">
         <v>43187100</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="3" t="n">
         <v>8117000</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="3" t="n">
         <v>64505700</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="3" t="n">
         <v>2613800</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="3" t="n">
         <v>104735.23</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="18" t="n">
         <v>118528335.23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+    <row r="56">
+      <c r="A56" s="17" t="n">
         <v>45012</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="3" t="n">
         <v>45653000</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="3" t="n">
         <v>8621400</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="3" t="n">
         <v>68831700</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="3" t="n">
         <v>3242200</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="3" t="n">
         <v>86091.44</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="18" t="n">
         <v>126434391.44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+    <row r="57">
+      <c r="A57" s="17" t="n">
         <v>45013</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="3" t="n">
         <v>39812400</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="3" t="n">
         <v>7889100</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="n">
         <v>60875500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="n">
         <v>2879300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="n">
         <v>68089.98</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="18" t="n">
         <v>111524389.98</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+    <row r="58">
+      <c r="A58" s="17" t="n">
         <v>45014</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="3" t="n">
         <v>40680400</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="3" t="n">
         <v>9314500</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="n">
         <v>57650800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="n">
         <v>2983600</v>
       </c>
-      <c r="F58" s="3">
-        <v>70892.350000000006</v>
-      </c>
-      <c r="G58" s="10">
-        <v>110700192.34999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="F58" s="3" t="n">
+        <v>70892.35000000001</v>
+      </c>
+      <c r="G58" s="18" t="n">
+        <v>110700192.35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="17" t="n">
         <v>45015</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="3" t="n">
         <v>40274200</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="3" t="n">
         <v>8545800</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="n">
         <v>54392700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="n">
         <v>2635900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="n">
         <v>58148.28</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="18" t="n">
         <v>105906748.28</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="60">
+      <c r="A60" s="17" t="n">
         <v>45016</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="3" t="n">
         <v>39758700</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="3" t="n">
         <v>8910100</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="n">
         <v>55826700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="3" t="n">
         <v>2562900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="n">
         <v>50455.85</v>
       </c>
-      <c r="G60" s="10">
-        <v>107108855.84999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="G60" s="18" t="n">
+        <v>107108855.85</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="17" t="n">
         <v>45019</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="3" t="n">
         <v>51453000</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="3" t="n">
         <v>12706000</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="3" t="n">
         <v>74056400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="3" t="n">
         <v>3078000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="3" t="n">
         <v>70155.41</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="18" t="n">
         <v>141363555.41</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+    <row r="62">
+      <c r="A62" s="17" t="n">
         <v>45020</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="3" t="n">
         <v>55643400</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="3" t="n">
         <v>9936000</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="n">
         <v>76969400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="n">
         <v>3091800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="n">
         <v>65641.95</v>
       </c>
-      <c r="G62" s="10">
-        <v>145706241.94999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="G62" s="18" t="n">
+        <v>145706241.95</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="17" t="n">
         <v>45022</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="3" t="n">
         <v>50778000</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="3" t="n">
         <v>9625500</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="3" t="n">
         <v>68781100</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="3" t="n">
         <v>2829900</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="3" t="n">
         <v>58892.98</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="18" t="n">
         <v>132073392.98</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+    <row r="64">
+      <c r="A64" s="17" t="n">
         <v>45023</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="3" t="n">
         <v>43739000</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="3" t="n">
         <v>8827600</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="3" t="n">
         <v>61870200</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="3" t="n">
         <v>2762700</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="3" t="n">
         <v>42873.27</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="18" t="n">
         <v>117242373.27</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+    <row r="65">
+      <c r="A65" s="17" t="n">
         <v>45026</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="3" t="n">
         <v>51777100</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="3" t="n">
         <v>12346700</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="3" t="n">
         <v>70993000</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="3" t="n">
         <v>2528100</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="3" t="n">
         <v>52538.29</v>
       </c>
-      <c r="G65" s="10">
-        <v>137697438.28999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="G65" s="18" t="n">
+        <v>137697438.29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="17" t="n">
         <v>45027</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="3" t="n">
         <v>46800400</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="3" t="n">
         <v>9335400</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="n">
         <v>61715400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="n">
         <v>2726100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="n">
         <v>42228.5</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="18" t="n">
         <v>120619528.5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+    <row r="67">
+      <c r="A67" s="17" t="n">
         <v>45028</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="3" t="n">
         <v>48342700</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="3" t="n">
         <v>8575900</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="3" t="n">
         <v>65090800</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="3" t="n">
         <v>2868900</v>
       </c>
-      <c r="F67" s="3">
-        <v>43343.199999999997</v>
-      </c>
-      <c r="G67" s="10">
+      <c r="F67" s="3" t="n">
+        <v>43343.2</v>
+      </c>
+      <c r="G67" s="18" t="n">
         <v>124921643.2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+    <row r="68">
+      <c r="A68" s="17" t="n">
         <v>45029</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="3" t="n">
         <v>47996600</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="3" t="n">
         <v>8984000</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="3" t="n">
         <v>66054800</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="3" t="n">
         <v>2773600</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="3" t="n">
         <v>77950.3</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="18" t="n">
         <v>125886950.3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+    <row r="69">
+      <c r="A69" s="17" t="n">
         <v>45030</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="3" t="n">
         <v>47949900</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="3" t="n">
         <v>9167200</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="3" t="n">
         <v>63739800</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="3" t="n">
         <v>2787600</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="3" t="n">
         <v>61845.38</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="18" t="n">
         <v>123706345.38</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+    <row r="70">
+      <c r="A70" s="17" t="n">
         <v>45033</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="3" t="n">
         <v>52491600</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="3" t="n">
         <v>8585300</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="3" t="n">
         <v>59788500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="3" t="n">
         <v>2660100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="3" t="n">
         <v>72891.27</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="18" t="n">
         <v>123598391.27</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+    <row r="71">
+      <c r="A71" s="17" t="n">
         <v>45034</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="3" t="n">
         <v>47535200</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="3" t="n">
         <v>8423000</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="3" t="n">
         <v>58678600</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="3" t="n">
         <v>2611200</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="3" t="n">
         <v>73941.36</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="18" t="n">
         <v>117321941.36</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+    <row r="72">
+      <c r="A72" s="17" t="n">
         <v>45035</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="3" t="n">
         <v>47823800</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="3" t="n">
         <v>14226100</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="n">
         <v>60708100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="n">
         <v>2221700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="n">
         <v>81559.7</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="18" t="n">
         <v>125061259.7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+    <row r="73">
+      <c r="A73" s="17" t="n">
         <v>45036</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="3" t="n">
         <v>50267300</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="3" t="n">
         <v>8439400</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="3" t="n">
         <v>63967600</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="3" t="n">
         <v>3155500</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="3" t="n">
         <v>84685.11</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="18" t="n">
         <v>125914485.11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+    <row r="74">
+      <c r="A74" s="17" t="n">
         <v>45037</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="3" t="n">
         <v>53209400</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="3" t="n">
         <v>9708900</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="3" t="n">
         <v>68811500</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="3" t="n">
         <v>2953500</v>
       </c>
-      <c r="F74" s="3">
-        <v>96236.99</v>
-      </c>
-      <c r="G74" s="10">
-        <v>134779536.99000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="F74" s="3" t="n">
+        <v>96236.99000000001</v>
+      </c>
+      <c r="G74" s="18" t="n">
+        <v>134779536.99</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="17" t="n">
         <v>45040</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="3" t="n">
         <v>47457800</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="3" t="n">
         <v>8816500</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="3" t="n">
         <v>61182000</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="3" t="n">
         <v>3268100</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="3" t="n">
         <v>130014.79</v>
       </c>
-      <c r="G75" s="10">
-        <v>120854414.79000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="G75" s="18" t="n">
+        <v>120854414.79</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="17" t="n">
         <v>45041</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="3" t="n">
         <v>49589200</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="3" t="n">
         <v>12592600</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="n">
         <v>64086800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="3" t="n">
         <v>3376700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="n">
         <v>147068.57</v>
       </c>
-      <c r="G76" s="10">
-        <v>129792368.56999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="G76" s="18" t="n">
+        <v>129792368.57</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="17" t="n">
         <v>45042</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="3" t="n">
         <v>48210600</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="3" t="n">
         <v>10192600</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="3" t="n">
         <v>64256100</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="3" t="n">
         <v>3279300</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="3" t="n">
         <v>157243.9</v>
       </c>
-      <c r="G77" s="10">
-        <v>126095843.90000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="G77" s="18" t="n">
+        <v>126095843.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="17" t="n">
         <v>45043</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="3" t="n">
         <v>46745500</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="3" t="n">
         <v>9167900</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="3" t="n">
         <v>58028400</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="3" t="n">
         <v>2826200</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="3" t="n">
         <v>163223.51</v>
       </c>
-      <c r="G78" s="10">
-        <v>116931223.51000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="G78" s="18" t="n">
+        <v>116931223.51</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="17" t="n">
         <v>45044</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="3" t="n">
         <v>51589000</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="3" t="n">
         <v>10469600</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="3" t="n">
         <v>60286100</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="3" t="n">
         <v>2641900</v>
       </c>
-      <c r="F79" s="3">
-        <v>140937.42000000001</v>
-      </c>
-      <c r="G79" s="10">
+      <c r="F79" s="3" t="n">
+        <v>140937.42</v>
+      </c>
+      <c r="G79" s="18" t="n">
         <v>125127537.42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+    <row r="80">
+      <c r="A80" s="17" t="n">
         <v>45050</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="3" t="n">
         <v>55109000</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="3" t="n">
         <v>8460500</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="3" t="n">
         <v>62252700</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="3" t="n">
         <v>2471000</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="3" t="n">
         <v>168785.39</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="18" t="n">
         <v>128461985.39</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+    <row r="81">
+      <c r="A81" s="17" t="n">
         <v>45051</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="3" t="n">
         <v>49976400</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="3" t="n">
         <v>7947100</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="n">
         <v>57300300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="n">
         <v>2555900</v>
       </c>
-      <c r="F81" s="3">
-        <v>270980.28999999998</v>
-      </c>
-      <c r="G81" s="10">
-        <v>118050680.29000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="F81" s="3" t="n">
+        <v>270980.29</v>
+      </c>
+      <c r="G81" s="18" t="n">
+        <v>118050680.29</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="17" t="n">
         <v>45054</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="3" t="n">
         <v>56574400</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="3" t="n">
         <v>8056200</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="3" t="n">
         <v>57316500</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="3" t="n">
         <v>2540900</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="3" t="n">
         <v>272975.27</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="18" t="n">
         <v>124760975.27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+    <row r="83">
+      <c r="A83" s="17" t="n">
         <v>45055</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="3" t="n">
         <v>62009000</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="3" t="n">
         <v>8933200</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="n">
         <v>60448100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="n">
         <v>2812400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="n">
         <v>249046.68</v>
       </c>
-      <c r="G83" s="10">
-        <v>134451746.68000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="G83" s="18" t="n">
+        <v>134451746.68</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="17" t="n">
         <v>45056</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="3" t="n">
         <v>49091200</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="3" t="n">
         <v>9307200</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="3" t="n">
         <v>53232200</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="3" t="n">
         <v>2795200</v>
       </c>
-      <c r="F84" s="3">
-        <v>153050.45000000001</v>
-      </c>
-      <c r="G84" s="10">
+      <c r="F84" s="3" t="n">
+        <v>153050.45</v>
+      </c>
+      <c r="G84" s="18" t="n">
         <v>114578850.45</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+    <row r="85">
+      <c r="A85" s="17" t="n">
         <v>45057</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="3" t="n">
         <v>40218700</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="3" t="n">
         <v>7440400</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="3" t="n">
         <v>49596900</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="3" t="n">
         <v>2496600</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="3" t="n">
         <v>164260.34</v>
       </c>
-      <c r="G85" s="10">
-        <v>99916860.340000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="G85" s="18" t="n">
+        <v>99916860.34</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="17" t="n">
         <v>45058</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="3" t="n">
         <v>38854500</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="3" t="n">
         <v>7978800</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="3" t="n">
         <v>46262700</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="3" t="n">
         <v>2593300</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="3" t="n">
         <v>168517.01</v>
       </c>
-      <c r="G86" s="10">
-        <v>95857817.010000005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="G86" s="18" t="n">
+        <v>95857817.01000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="17" t="n">
         <v>45061</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="3" t="n">
         <v>43268200</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="3" t="n">
         <v>7999600</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="3" t="n">
         <v>50786300</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="3" t="n">
         <v>2758600</v>
       </c>
-      <c r="F87" s="3">
-        <v>167094.07999999999</v>
-      </c>
-      <c r="G87" s="10">
+      <c r="F87" s="3" t="n">
+        <v>167094.08</v>
+      </c>
+      <c r="G87" s="18" t="n">
         <v>104979794.08</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+    <row r="88">
+      <c r="A88" s="17" t="n">
         <v>45062</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="3" t="n">
         <v>38674300</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="3" t="n">
         <v>6853800</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="3" t="n">
         <v>48297500</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="3" t="n">
         <v>2318400</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="3" t="n">
         <v>148532.09</v>
       </c>
-      <c r="G88" s="10">
-        <v>96292532.090000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+      <c r="G88" s="18" t="n">
+        <v>96292532.09</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="17" t="n">
         <v>45063</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="3" t="n">
         <v>34252200</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="3" t="n">
         <v>7512300</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="n">
         <v>44211200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="n">
         <v>2229300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="n">
         <v>152110.28</v>
       </c>
-      <c r="G89" s="10">
-        <v>88357110.280000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="G89" s="18" t="n">
+        <v>88357110.28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="17" t="n">
         <v>45064</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="3" t="n">
         <v>36944300</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="3" t="n">
         <v>7450300</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="3" t="n">
         <v>51333100</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="3" t="n">
         <v>2669500</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="3" t="n">
         <v>247597.64</v>
       </c>
-      <c r="G90" s="10">
-        <v>98644797.640000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="G90" s="18" t="n">
+        <v>98644797.64</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="17" t="n">
         <v>45065</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="3" t="n">
         <v>36099600</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="3" t="n">
         <v>7557300</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="n">
         <v>48998600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="n">
         <v>2425700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="n">
         <v>205622.15</v>
       </c>
-      <c r="G91" s="10">
-        <v>95286822.150000006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="G91" s="18" t="n">
+        <v>95286822.15000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="17" t="n">
         <v>45068</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="3" t="n">
         <v>34470900</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="3" t="n">
         <v>7840500</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="3" t="n">
         <v>45453300</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="3" t="n">
         <v>2520600</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="3" t="n">
         <v>196399.39</v>
       </c>
-      <c r="G92" s="10">
-        <v>90481699.390000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="G92" s="18" t="n">
+        <v>90481699.39</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="17" t="n">
         <v>45069</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="3" t="n">
         <v>32558600</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="3" t="n">
         <v>7220800</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="3" t="n">
         <v>44178600</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="3" t="n">
         <v>2293100</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="3" t="n">
         <v>213074.22</v>
       </c>
-      <c r="G93" s="10">
-        <v>86464174.219999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="G93" s="18" t="n">
+        <v>86464174.22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="17" t="n">
         <v>45070</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="3" t="n">
         <v>34359000</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="3" t="n">
         <v>8230600</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="n">
         <v>46187900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="n">
         <v>2603500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="n">
         <v>201549.03</v>
       </c>
-      <c r="G94" s="10">
-        <v>91582549.030000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
+      <c r="G94" s="18" t="n">
+        <v>91582549.03</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="17" t="n">
         <v>45071</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="3" t="n">
         <v>35011100</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="3" t="n">
         <v>8657600</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="3" t="n">
         <v>51039800</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="3" t="n">
         <v>2487100</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="3" t="n">
         <v>209301.24</v>
       </c>
-      <c r="G95" s="10">
-        <v>97404901.239999995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+      <c r="G95" s="18" t="n">
+        <v>97404901.23999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="17" t="n">
         <v>45072</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="3" t="n">
         <v>33441200</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="3" t="n">
         <v>7596300</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="3" t="n">
         <v>48817800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="3" t="n">
         <v>2283000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="3" t="n">
         <v>260301.86</v>
       </c>
-      <c r="G96" s="10">
-        <v>92398601.859999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
+      <c r="G96" s="18" t="n">
+        <v>92398601.86</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="17" t="n">
         <v>45075</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="3" t="n">
         <v>37972400</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="3" t="n">
         <v>7842200</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="3" t="n">
         <v>54427000</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="3" t="n">
         <v>2477100</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="3" t="n">
         <v>208513.2</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="18" t="n">
         <v>102927213.2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
+    <row r="98">
+      <c r="A98" s="17" t="n">
         <v>45076</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="3" t="n">
         <v>37798000</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="3" t="n">
         <v>8352700</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="3" t="n">
         <v>55837200</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="3" t="n">
         <v>2683700</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="3" t="n">
         <v>181644.01</v>
       </c>
-      <c r="G98" s="10">
-        <v>104853244.01000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
+      <c r="G98" s="18" t="n">
+        <v>104853244.01</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="17" t="n">
         <v>45077</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="3" t="n">
         <v>38679200</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="3" t="n">
         <v>9011200</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="3" t="n">
         <v>55480400</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="3" t="n">
         <v>2645700</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="3" t="n">
         <v>215092.21</v>
       </c>
-      <c r="G99" s="10">
-        <v>106031592.20999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+      <c r="G99" s="18" t="n">
+        <v>106031592.21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="17" t="n">
         <v>45078</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="3" t="n">
         <v>40193300</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="3" t="n">
         <v>8986900</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="n">
         <v>58721200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="n">
         <v>2837400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="n">
         <v>187926.65</v>
       </c>
-      <c r="G100" s="10">
-        <v>110926726.65000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+      <c r="G100" s="18" t="n">
+        <v>110926726.65</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="17" t="n">
         <v>45079</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="3" t="n">
         <v>37858300</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="3" t="n">
         <v>8565100</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="n">
         <v>56403300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="n">
         <v>2595700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="n">
         <v>162040.53</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="18" t="n">
         <v>105584440.53</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+    <row r="102">
+      <c r="A102" s="17" t="n">
         <v>45082</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="3" t="n">
         <v>36021200</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="3" t="n">
         <v>7386000</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="n">
         <v>51712500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="n">
         <v>2572100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="n">
         <v>128196.08</v>
       </c>
-      <c r="G102" s="10">
-        <v>97819996.079999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="G102" s="18" t="n">
+        <v>97819996.08</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="17" t="n">
         <v>45083</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="3" t="n">
         <v>38862100</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="3" t="n">
         <v>7412500</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="3" t="n">
         <v>55205500</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="3" t="n">
         <v>2495000</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="3" t="n">
         <v>170814.26</v>
       </c>
-      <c r="G103" s="10">
-        <v>104145914.26000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="G103" s="18" t="n">
+        <v>104145914.26</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="17" t="n">
         <v>45084</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="3" t="n">
         <v>33304200</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="3" t="n">
         <v>7657200</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="3" t="n">
         <v>48523200</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="3" t="n">
         <v>2351200</v>
       </c>
-      <c r="F104" s="3">
-        <v>142355.20000000001</v>
-      </c>
-      <c r="G104" s="10">
-        <v>91978155.200000003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="F104" s="3" t="n">
+        <v>142355.2</v>
+      </c>
+      <c r="G104" s="18" t="n">
+        <v>91978155.2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="17" t="n">
         <v>45085</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="3" t="n">
         <v>35498300</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="3" t="n">
         <v>8160000</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="3" t="n">
         <v>50699500</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="3" t="n">
         <v>2623100</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="3" t="n">
         <v>159168.9</v>
       </c>
-      <c r="G105" s="10">
-        <v>97140068.900000006</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
+      <c r="G105" s="18" t="n">
+        <v>97140068.90000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="17" t="n">
         <v>45086</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="3" t="n">
         <v>41455300</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="3" t="n">
         <v>8466500</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="3" t="n">
         <v>57769800</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="3" t="n">
         <v>2519300</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="3" t="n">
         <v>136745.75</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="18" t="n">
         <v>110347645.75</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
+    <row r="107">
+      <c r="A107" s="17" t="n">
         <v>45089</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="3" t="n">
         <v>40433000</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="3" t="n">
         <v>7814000</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="3" t="n">
         <v>56328800</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="3" t="n">
         <v>2388100</v>
       </c>
-      <c r="F107" s="3">
-        <v>132394.39000000001</v>
-      </c>
-      <c r="G107" s="10">
+      <c r="F107" s="3" t="n">
+        <v>132394.39</v>
+      </c>
+      <c r="G107" s="18" t="n">
         <v>107096294.39</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
+    <row r="108">
+      <c r="A108" s="17" t="n">
         <v>45090</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="3" t="n">
         <v>38102100</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="3" t="n">
         <v>8363900</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="3" t="n">
         <v>56644800</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="3" t="n">
         <v>2386800</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="3" t="n">
         <v>129472.15</v>
       </c>
-      <c r="G108" s="10">
-        <v>105627072.15000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
+      <c r="G108" s="18" t="n">
+        <v>105627072.15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="17" t="n">
         <v>45091</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="3" t="n">
         <v>40545100</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="3" t="n">
         <v>8746900</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="3" t="n">
         <v>59773600</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="3" t="n">
         <v>2576800</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="3" t="n">
         <v>133888.06</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="18" t="n">
         <v>111776288.06</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+    <row r="110">
+      <c r="A110" s="17" t="n">
         <v>45092</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="3" t="n">
         <v>43990800</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="3" t="n">
         <v>9949500</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="3" t="n">
         <v>63693200</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="3" t="n">
         <v>3099700</v>
       </c>
-      <c r="F110" s="3">
-        <v>147138.45000000001</v>
-      </c>
-      <c r="G110" s="10">
+      <c r="F110" s="3" t="n">
+        <v>147138.45</v>
+      </c>
+      <c r="G110" s="18" t="n">
         <v>120880338.45</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+    <row r="111">
+      <c r="A111" s="17" t="n">
         <v>45093</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="3" t="n">
         <v>44705700</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="3" t="n">
         <v>10328700</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="3" t="n">
         <v>62454900</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="3" t="n">
         <v>2965400</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="3" t="n">
         <v>135744.76</v>
       </c>
-      <c r="G111" s="10">
-        <v>120590444.76000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
+      <c r="G111" s="18" t="n">
+        <v>120590444.76</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="17" t="n">
         <v>45096</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="3" t="n">
         <v>45657200</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="3" t="n">
         <v>8713700</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="3" t="n">
         <v>65308200</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="3" t="n">
         <v>2599300</v>
       </c>
-      <c r="F112" s="3">
-        <v>156107.57999999999</v>
-      </c>
-      <c r="G112" s="10">
+      <c r="F112" s="3" t="n">
+        <v>156107.58</v>
+      </c>
+      <c r="G112" s="18" t="n">
         <v>122434507.58</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
+    <row r="113">
+      <c r="A113" s="17" t="n">
         <v>45097</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="3" t="n">
         <v>43466200</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="3" t="n">
         <v>9030500</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="3" t="n">
         <v>65884800</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="3" t="n">
         <v>2561900</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="3" t="n">
         <v>180187.9</v>
       </c>
-      <c r="G113" s="10">
-        <v>121123587.90000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
+      <c r="G113" s="18" t="n">
+        <v>121123587.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="17" t="n">
         <v>45098</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="3" t="n">
         <v>40784200</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="3" t="n">
         <v>9830100</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="3" t="n">
         <v>61688400</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="3" t="n">
         <v>2880000</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="3" t="n">
         <v>210192.41</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="18" t="n">
         <v>115392892.41</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
+    <row r="115">
+      <c r="A115" s="17" t="n">
         <v>45103</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="3" t="n">
         <v>39987500</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="3" t="n">
         <v>9937400</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="3" t="n">
         <v>58082500</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="3" t="n">
         <v>2967300</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="3" t="n">
         <v>205914.96</v>
       </c>
-      <c r="G115" s="10">
-        <v>111180614.95999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
+      <c r="G115" s="18" t="n">
+        <v>111180614.96</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="17" t="n">
         <v>45104</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="3" t="n">
         <v>35882900</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="3" t="n">
         <v>8442100</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="3" t="n">
         <v>48938300</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="3" t="n">
         <v>2500900</v>
       </c>
-      <c r="F116" s="3">
-        <v>144969.48000000001</v>
-      </c>
-      <c r="G116" s="10">
-        <v>95909169.480000004</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
+      <c r="F116" s="3" t="n">
+        <v>144969.48</v>
+      </c>
+      <c r="G116" s="18" t="n">
+        <v>95909169.48</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="17" t="n">
         <v>45105</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="3" t="n">
         <v>36140600</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="3" t="n">
         <v>8954000</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="3" t="n">
         <v>53076000</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="3" t="n">
         <v>2688500</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="3" t="n">
         <v>162653.87</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="18" t="n">
         <v>101021753.87</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
+    <row r="118">
+      <c r="A118" s="17" t="n">
         <v>45106</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="3" t="n">
         <v>34405400</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="3" t="n">
         <v>8562900</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="3" t="n">
         <v>52583500</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="3" t="n">
         <v>2428400</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="3" t="n">
         <v>238234.12</v>
       </c>
-      <c r="G118" s="10">
-        <v>98218434.120000005</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
+      <c r="G118" s="18" t="n">
+        <v>98218434.12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="17" t="n">
         <v>45107</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="3" t="n">
         <v>36041700</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="3" t="n">
         <v>9716800</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="3" t="n">
         <v>56052600</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="3" t="n">
         <v>2721900</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="3" t="n">
         <v>195233.44</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="18" t="n">
         <v>104728233.44</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
+    <row r="120">
+      <c r="A120" s="17" t="n">
         <v>45110</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="3" t="n">
         <v>42240500</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="3" t="n">
         <v>9273300</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="3" t="n">
         <v>60484300</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="3" t="n">
         <v>2532500</v>
       </c>
-      <c r="F120" s="3">
-        <v>166196.73000000001</v>
-      </c>
-      <c r="G120" s="10">
+      <c r="F120" s="3" t="n">
+        <v>166196.73</v>
+      </c>
+      <c r="G120" s="18" t="n">
         <v>114696796.73</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
+    <row r="121">
+      <c r="A121" s="17" t="n">
         <v>45111</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="3" t="n">
         <v>38994700</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="3" t="n">
         <v>7081100</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="3" t="n">
         <v>54348900</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="3" t="n">
         <v>2263200</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="3" t="n">
         <v>183227.81</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="18" t="n">
         <v>102871127.81</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
+    <row r="122">
+      <c r="A122" s="17" t="n">
         <v>45112</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="3" t="n">
         <v>35219900</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="3" t="n">
         <v>6520700</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="3" t="n">
         <v>51814000</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="3" t="n">
         <v>2308600</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="3" t="n">
         <v>226296.93</v>
       </c>
-      <c r="G122" s="10">
-        <v>96089496.930000007</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
+      <c r="G122" s="18" t="n">
+        <v>96089496.93000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="17" t="n">
         <v>45113</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="3" t="n">
         <v>32549600</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="3" t="n">
         <v>7159300</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="3" t="n">
         <v>50002600</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="3" t="n">
         <v>2394500</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="3" t="n">
         <v>171054.03</v>
       </c>
-      <c r="G123" s="10">
-        <v>92277054.030000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
+      <c r="G123" s="18" t="n">
+        <v>92277054.03</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="17" t="n">
         <v>45114</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="3" t="n">
         <v>31528000</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="3" t="n">
         <v>7555800</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="3" t="n">
         <v>48753400</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="3" t="n">
         <v>2456300</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="3" t="n">
         <v>175260.48</v>
       </c>
-      <c r="G124" s="10">
-        <v>90468760.480000004</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
+      <c r="G124" s="18" t="n">
+        <v>90468760.48</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="17" t="n">
         <v>45117</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="3" t="n">
         <v>31249100</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="3" t="n">
         <v>6814800</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="3" t="n">
         <v>45076000</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="3" t="n">
         <v>2322700</v>
       </c>
-      <c r="F125" s="3">
-        <v>166458.92000000001</v>
-      </c>
-      <c r="G125" s="10">
-        <v>85629058.920000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
+      <c r="F125" s="3" t="n">
+        <v>166458.92</v>
+      </c>
+      <c r="G125" s="18" t="n">
+        <v>85629058.92</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="17" t="n">
         <v>45118</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="3" t="n">
         <v>31314000</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="3" t="n">
         <v>7266400</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="3" t="n">
         <v>46532300</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="3" t="n">
         <v>2133500</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="3" t="n">
         <v>121832.44</v>
       </c>
-      <c r="G126" s="10">
-        <v>87368032.439999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
+      <c r="G126" s="18" t="n">
+        <v>87368032.44</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="17" t="n">
         <v>45119</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="3" t="n">
         <v>36683500</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="3" t="n">
         <v>7252100</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="3" t="n">
         <v>64750700</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="3" t="n">
         <v>2241600</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="3" t="n">
         <v>151932.44</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="18" t="n">
         <v>111079832.44</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
+    <row r="128">
+      <c r="A128" s="17" t="n">
         <v>45120</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="3" t="n">
         <v>37462700</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="3" t="n">
         <v>9615800</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="3" t="n">
         <v>54934800</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="3" t="n">
         <v>2776600</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="3" t="n">
         <v>143196.75</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G128" s="18" t="n">
         <v>104933096.75</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
+    <row r="129">
+      <c r="A129" s="17" t="n">
         <v>45121</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="3" t="n">
         <v>36979300</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="3" t="n">
         <v>7143400</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="3" t="n">
         <v>55611700</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="3" t="n">
         <v>2123000</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="3" t="n">
         <v>179051.14</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="18" t="n">
         <v>102036451.14</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
+    <row r="130">
+      <c r="A130" s="17" t="n">
         <v>45124</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="3" t="n">
         <v>32340700</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="3" t="n">
         <v>8485200</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="3" t="n">
         <v>48297700</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="3" t="n">
         <v>1874600</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="3" t="n">
         <v>148182.76</v>
       </c>
-      <c r="G130" s="10">
-        <v>91146382.760000005</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
+      <c r="G130" s="18" t="n">
+        <v>91146382.76000001</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="17" t="n">
         <v>45125</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="3" t="n">
         <v>30891900</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="3" t="n">
         <v>7018500</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="3" t="n">
         <v>47104200</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="3" t="n">
         <v>1969100</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="3" t="n">
         <v>138130.66</v>
       </c>
-      <c r="G131" s="10">
-        <v>87121830.659999996</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
+      <c r="G131" s="18" t="n">
+        <v>87121830.66</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="17" t="n">
         <v>45126</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="3" t="n">
         <v>28211500</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="3" t="n">
         <v>7634600</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="3" t="n">
         <v>42271300</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="3" t="n">
         <v>2279100</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="3" t="n">
         <v>130830.64</v>
       </c>
-      <c r="G132" s="10">
-        <v>80527330.640000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
+      <c r="G132" s="18" t="n">
+        <v>80527330.64</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="17" t="n">
         <v>45127</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="3" t="n">
         <v>30316800</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="3" t="n">
         <v>8092800</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="3" t="n">
         <v>48444400</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="3" t="n">
         <v>2675400</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="3" t="n">
         <v>215916.05</v>
       </c>
-      <c r="G133" s="10">
-        <v>89745316.049999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
+      <c r="G133" s="18" t="n">
+        <v>89745316.05</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="17" t="n">
         <v>45128</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="3" t="n">
         <v>28188700</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="3" t="n">
         <v>8084000</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="3" t="n">
         <v>43122400</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="3" t="n">
         <v>2413700</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="3" t="n">
         <v>144560.74</v>
       </c>
-      <c r="G134" s="10">
-        <v>81953360.739999995</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
+      <c r="G134" s="18" t="n">
+        <v>81953360.73999999</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="17" t="n">
         <v>45131</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="3" t="n">
         <v>26122000</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="3" t="n">
         <v>6868700</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="3" t="n">
         <v>39979100</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="3" t="n">
         <v>2181400</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="3" t="n">
         <v>120970.4</v>
       </c>
-      <c r="G135" s="10">
-        <v>75272170.400000006</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
+      <c r="G135" s="18" t="n">
+        <v>75272170.40000001</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="17" t="n">
         <v>45132</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="3" t="n">
         <v>41226100</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="3" t="n">
         <v>11757100</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="3" t="n">
         <v>54074000</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="3" t="n">
         <v>3182100</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="3" t="n">
         <v>119908.9</v>
       </c>
-      <c r="G136" s="10">
-        <v>110359208.90000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
+      <c r="G136" s="18" t="n">
+        <v>110359208.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="17" t="n">
         <v>45133</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="3" t="n">
         <v>33357000</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="3" t="n">
         <v>8739800</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="3" t="n">
         <v>46519400</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="3" t="n">
         <v>2450100</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="3" t="n">
         <v>111389.65</v>
       </c>
-      <c r="G137" s="10">
-        <v>91177689.650000006</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
+      <c r="G137" s="18" t="n">
+        <v>91177689.65000001</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="17" t="n">
         <v>45134</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="3" t="n">
         <v>33394500</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="3" t="n">
         <v>9276200</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="3" t="n">
         <v>44990700</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="3" t="n">
         <v>2549000</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="3" t="n">
         <v>116737.39</v>
       </c>
-      <c r="G138" s="10">
-        <v>90327137.390000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
+      <c r="G138" s="18" t="n">
+        <v>90327137.39</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="17" t="n">
         <v>45135</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="4" t="n">
         <v>43832700</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="3" t="n">
         <v>12524300</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="4" t="n">
         <v>51277000</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="3" t="n">
         <v>3200400</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="4" t="n">
         <v>133897.9</v>
       </c>
-      <c r="G139" s="10">
-        <v>110968297.90000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
+      <c r="G139" s="18" t="n">
+        <v>110968297.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="17" t="n">
         <v>45138</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="3" t="n">
         <v>51231700</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="3" t="n">
         <v>13567200</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="3" t="n">
         <v>59460700</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="3" t="n">
         <v>3239600</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="3" t="n">
         <v>127873.22</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="18" t="n">
         <v>127627073.22</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
+    <row r="141">
+      <c r="A141" s="17" t="n">
         <v>45139</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="3" t="n">
         <v>44195400</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="3" t="n">
         <v>10962600</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="3" t="n">
         <v>51717600</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="3" t="n">
         <v>2939000</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="3" t="n">
         <v>110782.21</v>
       </c>
-      <c r="G141" s="10">
-        <v>109925382.20999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
+      <c r="G141" s="18" t="n">
+        <v>109925382.21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="17" t="n">
         <v>45140</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="3" t="n">
         <v>38939000</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="3" t="n">
         <v>9442200</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="3" t="n">
         <v>44879400</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="3" t="n">
         <v>2661200</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="3" t="n">
         <v>111630.18</v>
       </c>
-      <c r="G142" s="10">
-        <v>96033430.180000007</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
+      <c r="G142" s="18" t="n">
+        <v>96033430.18000001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="17" t="n">
         <v>45141</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="3" t="n">
         <v>39022100</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="3" t="n">
         <v>9299600</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="3" t="n">
         <v>44425500</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="3" t="n">
         <v>2833200</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="3" t="n">
         <v>100763.03</v>
       </c>
-      <c r="G143" s="10">
-        <v>95681163.030000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
+      <c r="G143" s="18" t="n">
+        <v>95681163.03</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="17" t="n">
         <v>45142</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="3" t="n">
         <v>49803200</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="3" t="n">
         <v>11018700</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="3" t="n">
         <v>55261100</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="3" t="n">
         <v>3126900</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="3" t="n">
         <v>109576.21</v>
       </c>
-      <c r="G144" s="10">
-        <v>119319476.20999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
+      <c r="G144" s="18" t="n">
+        <v>119319476.21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="17" t="n">
         <v>45145</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="3" t="n">
         <v>39397200</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="3" t="n">
         <v>8938300</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="3" t="n">
         <v>49743700</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="3" t="n">
         <v>2807700</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="3" t="n">
         <v>107845.49</v>
       </c>
-      <c r="G145" s="10">
-        <v>100994745.48999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
+      <c r="G145" s="18" t="n">
+        <v>100994745.49</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="17" t="n">
         <v>45146</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="3" t="n">
         <v>35647800</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="3" t="n">
         <v>8244100</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="3" t="n">
         <v>44368500</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="3" t="n">
         <v>2712800</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="3" t="n">
         <v>98377.11</v>
       </c>
-      <c r="G146" s="10">
-        <v>91071577.109999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
+      <c r="G146" s="18" t="n">
+        <v>91071577.11</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="17" t="n">
         <v>45147</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="3" t="n">
         <v>31025800</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="3" t="n">
         <v>8307700</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="3" t="n">
         <v>42737300</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="3" t="n">
         <v>2696800</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="3" t="n">
         <v>97719.06</v>
       </c>
-      <c r="G147" s="10">
-        <v>84865319.060000002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
+      <c r="G147" s="18" t="n">
+        <v>84865319.06</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="17" t="n">
         <v>45148</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="3" t="n">
         <v>30842000</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="3" t="n">
         <v>8359300</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="3" t="n">
         <v>38778500</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="3" t="n">
         <v>2382200</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="3" t="n">
         <v>106797.19</v>
       </c>
-      <c r="G148" s="10">
-        <v>80468797.189999998</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
+      <c r="G148" s="18" t="n">
+        <v>80468797.19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="17" t="n">
         <v>45149</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="3" t="n">
         <v>33978600</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="3" t="n">
         <v>9412500</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="3" t="n">
         <v>42469700</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="3" t="n">
         <v>3083300</v>
       </c>
-      <c r="F149" s="3">
-        <v>95115.68</v>
-      </c>
-      <c r="G149" s="10">
-        <v>89039215.680000007</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
+      <c r="F149" s="3" t="n">
+        <v>95115.67999999999</v>
+      </c>
+      <c r="G149" s="18" t="n">
+        <v>89039215.68000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="17" t="n">
         <v>45152</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="3" t="n">
         <v>32410700</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="3" t="n">
         <v>8909200</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="3" t="n">
         <v>42268500</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="3" t="n">
         <v>2805400</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="3" t="n">
         <v>76219.8</v>
       </c>
-      <c r="G150" s="10">
-        <v>86470019.799999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
+      <c r="G150" s="18" t="n">
+        <v>86470019.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="17" t="n">
         <v>45153</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="3" t="n">
         <v>30182400</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="3" t="n">
         <v>8716000</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="3" t="n">
         <v>40654600</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="3" t="n">
         <v>2553100</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="3" t="n">
         <v>65901.64</v>
       </c>
-      <c r="G151" s="10">
-        <v>82172001.640000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
+      <c r="G151" s="18" t="n">
+        <v>82172001.64</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="17" t="n">
         <v>45154</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="3" t="n">
         <v>30418600</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="3" t="n">
         <v>8067300</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="3" t="n">
         <v>40198900</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="3" t="n">
         <v>2422000</v>
       </c>
-      <c r="F152" s="3">
-        <v>95567.9</v>
-      </c>
-      <c r="G152" s="10">
-        <v>81202367.900000006</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
+      <c r="F152" s="3" t="n">
+        <v>95567.89999999999</v>
+      </c>
+      <c r="G152" s="18" t="n">
+        <v>81202367.90000001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="17" t="n">
         <v>45155</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="3" t="n">
         <v>32302800</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="3" t="n">
         <v>10525600</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="3" t="n">
         <v>42039100</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="3" t="n">
         <v>2983800</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="3" t="n">
         <v>103399.41</v>
       </c>
-      <c r="G153" s="10">
-        <v>87954699.409999996</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="9">
+      <c r="G153" s="18" t="n">
+        <v>87954699.41</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="17" t="n">
         <v>45156</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="3" t="n">
         <v>32234800</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="3" t="n">
         <v>9726600</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="3" t="n">
         <v>42539300</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="3" t="n">
         <v>2485900</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="3" t="n">
         <v>101529.2</v>
       </c>
-      <c r="G154" s="10">
-        <v>87088129.200000003</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
+      <c r="G154" s="18" t="n">
+        <v>87088129.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="17" t="n">
         <v>45159</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="3" t="n">
         <v>29476600</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="3" t="n">
         <v>9436100</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="3" t="n">
         <v>38576600</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="3" t="n">
         <v>2485100</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="3" t="n">
         <v>83964.47</v>
       </c>
-      <c r="G155" s="10">
-        <v>80058364.469999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
+      <c r="G155" s="18" t="n">
+        <v>80058364.47</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="17" t="n">
         <v>45160</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="3" t="n">
         <v>35029200</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="3" t="n">
         <v>10772800</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="3" t="n">
         <v>47088400</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="3" t="n">
         <v>3128200</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="3" t="n">
         <v>108474.43</v>
       </c>
-      <c r="G156" s="10">
-        <v>96127074.430000007</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
+      <c r="G156" s="18" t="n">
+        <v>96127074.43000001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="17" t="n">
         <v>45161</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="3" t="n">
         <v>29928800</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="3" t="n">
         <v>9216600</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="3" t="n">
         <v>40841900</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="3" t="n">
         <v>2789200</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="3" t="n">
         <v>119635.21</v>
       </c>
-      <c r="G157" s="10">
-        <v>82896135.209999993</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
+      <c r="G157" s="18" t="n">
+        <v>82896135.20999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="17" t="n">
         <v>45162</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="3" t="n">
         <v>33425200</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="3" t="n">
         <v>10813000</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="3" t="n">
         <v>45390500</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="3" t="n">
         <v>3113800</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="3" t="n">
         <v>117065.35</v>
       </c>
-      <c r="G158" s="10">
-        <v>92859565.349999994</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
+      <c r="G158" s="18" t="n">
+        <v>92859565.34999999</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="17" t="n">
         <v>45163</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="3" t="n">
         <v>31925500</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="3" t="n">
         <v>10476100</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="3" t="n">
         <v>44892000</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="3" t="n">
         <v>2715300</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="3" t="n">
         <v>129840.89</v>
       </c>
-      <c r="G159" s="10">
-        <v>90138740.890000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="9">
+      <c r="G159" s="18" t="n">
+        <v>90138740.89</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="17" t="n">
         <v>45166</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="3" t="n">
         <v>51831900</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="3" t="n">
         <v>16644400</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="3" t="n">
         <v>61045800</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="3" t="n">
         <v>3751400</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="3" t="n">
         <v>145330.38</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="18" t="n">
         <v>133418830.38</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="9">
+    <row r="161">
+      <c r="A161" s="17" t="n">
         <v>45167</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="3" t="n">
         <v>44548800</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="3" t="n">
         <v>14708400</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="3" t="n">
         <v>59479200</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="3" t="n">
         <v>3268000</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="3" t="n">
         <v>126736.6</v>
       </c>
-      <c r="G161" s="10">
-        <v>122131136.59999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="9">
+      <c r="G161" s="18" t="n">
+        <v>122131136.6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="17" t="n">
         <v>45168</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="3" t="n">
         <v>41579100</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="3" t="n">
         <v>11898600</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="3" t="n">
         <v>57248100</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="3" t="n">
         <v>2931800</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="3" t="n">
         <v>115721.3</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="18" t="n">
         <v>113773321.3</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="9">
+    <row r="163">
+      <c r="A163" s="17" t="n">
         <v>45169</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="3" t="n">
         <v>36392900</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="3" t="n">
         <v>10340800</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="3" t="n">
         <v>46775400</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="3" t="n">
         <v>2483500</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="3" t="n">
         <v>100325.96</v>
       </c>
-      <c r="G163" s="10">
-        <v>96092925.959999993</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="9">
+      <c r="G163" s="18" t="n">
+        <v>96092925.95999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="17" t="n">
         <v>45170</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="3" t="n">
         <v>33517500</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="3" t="n">
         <v>8145200</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="3" t="n">
         <v>41163600</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="3" t="n">
         <v>2038100</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="3" t="n">
         <v>192688.35</v>
       </c>
-      <c r="G164" s="10">
-        <v>85057088.349999994</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="9">
+      <c r="G164" s="18" t="n">
+        <v>85057088.34999999</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="17" t="n">
         <v>45173</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="3" t="n">
         <v>40498300</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="3" t="n">
         <v>9195900</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="3" t="n">
         <v>48188700</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="3" t="n">
         <v>2684200</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="3" t="n">
         <v>351261.87</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="18" t="n">
         <v>100918361.87</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
+    <row r="166">
+      <c r="A166" s="17" t="n">
         <v>45174</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="3" t="n">
         <v>34342900</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="3" t="n">
         <v>8277100</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="3" t="n">
         <v>46235600</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="3" t="n">
         <v>2365700</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="3" t="n">
         <v>212964.97</v>
       </c>
-      <c r="G166" s="10">
-        <v>91434264.969999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="9">
+      <c r="G166" s="18" t="n">
+        <v>91434264.97</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="17" t="n">
         <v>45175</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="3" t="n">
         <v>32434800</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="3" t="n">
         <v>8819400</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="3" t="n">
         <v>44810500</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="3" t="n">
         <v>2406200</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="3" t="n">
         <v>152495.25</v>
       </c>
-      <c r="G167" s="10">
+      <c r="G167" s="18" t="n">
         <v>88623395.25</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="9">
+    <row r="168">
+      <c r="A168" s="17" t="n">
         <v>45176</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="3" t="n">
         <v>31808200</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="3" t="n">
         <v>8455700</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="3" t="n">
         <v>45035500</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="3" t="n">
         <v>2588900</v>
       </c>
-      <c r="F168" s="3">
-        <v>154416.95000000001</v>
-      </c>
-      <c r="G168" s="10">
-        <v>88042716.950000003</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="9">
+      <c r="F168" s="3" t="n">
+        <v>154416.95</v>
+      </c>
+      <c r="G168" s="18" t="n">
+        <v>88042716.95</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="17" t="n">
         <v>45177</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="3" t="n">
         <v>27090300</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="3" t="n">
         <v>8791200</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="3" t="n">
         <v>41259700</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="3" t="n">
         <v>2365900</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="3" t="n">
         <v>121697.28</v>
       </c>
-      <c r="G169" s="10">
-        <v>79628797.280000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
+      <c r="G169" s="18" t="n">
+        <v>79628797.28</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="17" t="n">
         <v>45180</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="3" t="n">
         <v>35267500</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="3" t="n">
         <v>9289500</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="3" t="n">
         <v>49016700</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="3" t="n">
         <v>2571500</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="3" t="n">
         <v>95659.45</v>
       </c>
-      <c r="G170" s="10">
-        <v>96240859.450000003</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="9">
+      <c r="G170" s="18" t="n">
+        <v>96240859.45</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="17" t="n">
         <v>45181</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="3" t="n">
         <v>28285800</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="3" t="n">
         <v>7221500</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="3" t="n">
         <v>42727800</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="3" t="n">
         <v>2095200</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="3" t="n">
         <v>94282.37</v>
       </c>
-      <c r="G171" s="10">
-        <v>80424582.370000005</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
+      <c r="G171" s="18" t="n">
+        <v>80424582.37</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="17" t="n">
         <v>45182</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="3" t="n">
         <v>28297100</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="3" t="n">
         <v>8581500</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="3" t="n">
         <v>41709800</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="3" t="n">
         <v>2347000</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="3" t="n">
         <v>99764.36</v>
       </c>
-      <c r="G172" s="10">
-        <v>81035164.359999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="9">
+      <c r="G172" s="18" t="n">
+        <v>81035164.36</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="17" t="n">
         <v>45183</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="3" t="n">
         <v>28244600</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="3" t="n">
         <v>8842200</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="3" t="n">
         <v>38458200</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="3" t="n">
         <v>2248900</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="3" t="n">
         <v>88810.02</v>
       </c>
-      <c r="G173" s="10">
-        <v>77882710.019999996</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
+      <c r="G173" s="18" t="n">
+        <v>77882710.02</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="17" t="n">
         <v>45184</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="3" t="n">
         <v>32782800</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="3" t="n">
         <v>9392900</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="3" t="n">
         <v>39646500</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="3" t="n">
         <v>2559100</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="3" t="n">
         <v>90134.37</v>
       </c>
-      <c r="G174" s="10">
-        <v>84471434.370000005</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
+      <c r="G174" s="18" t="n">
+        <v>84471434.37</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="17" t="n">
         <v>45187</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="3" t="n">
         <v>30034400</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="3" t="n">
         <v>8361200</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="3" t="n">
         <v>39960700</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="3" t="n">
         <v>2624100</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="3" t="n">
         <v>91570.33</v>
       </c>
-      <c r="G175" s="10">
-        <v>81071970.329999998</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
+      <c r="G175" s="18" t="n">
+        <v>81071970.33</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="17" t="n">
         <v>45188</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="3" t="n">
         <v>27449900</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="3" t="n">
         <v>7725100</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="3" t="n">
         <v>36153500</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="3" t="n">
         <v>2197200</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F176" s="3" t="n">
         <v>97668.34</v>
       </c>
-      <c r="G176" s="10">
-        <v>73623368.340000004</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="9">
+      <c r="G176" s="18" t="n">
+        <v>73623368.34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="17" t="n">
         <v>45189</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="3" t="n">
         <v>24370100</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="3" t="n">
         <v>7262800</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="3" t="n">
         <v>33154800</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="3" t="n">
         <v>2093000</v>
       </c>
-      <c r="F177" s="3">
-        <v>83988.4</v>
-      </c>
-      <c r="G177" s="10">
-        <v>66964688.399999999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
+      <c r="F177" s="3" t="n">
+        <v>83988.39999999999</v>
+      </c>
+      <c r="G177" s="18" t="n">
+        <v>66964688.4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="17" t="n">
         <v>45190</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="3" t="n">
         <v>24433200</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="3" t="n">
         <v>8112800</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="3" t="n">
         <v>33637600</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="3" t="n">
         <v>2141100</v>
       </c>
-      <c r="F178" s="3">
-        <v>79144.160000000003</v>
-      </c>
-      <c r="G178" s="10">
-        <v>68403844.159999996</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="9">
+      <c r="F178" s="3" t="n">
+        <v>79144.16</v>
+      </c>
+      <c r="G178" s="18" t="n">
+        <v>68403844.16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="17" t="n">
         <v>45191</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="3" t="n">
         <v>32210300</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="3" t="n">
         <v>11159200</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="3" t="n">
         <v>44615700</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="3" t="n">
         <v>2848100</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="3" t="n">
         <v>114765.26</v>
       </c>
-      <c r="G179" s="10">
-        <v>90948065.260000005</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
+      <c r="G179" s="18" t="n">
+        <v>90948065.26000001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="17" t="n">
         <v>45194</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="3" t="n">
         <v>29576700</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="3" t="n">
         <v>9108000</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="3" t="n">
         <v>42494600</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="3" t="n">
         <v>2124100</v>
       </c>
-      <c r="F180" s="3">
-        <v>85460.26</v>
-      </c>
-      <c r="G180" s="10">
-        <v>83388860.260000005</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="9">
+      <c r="F180" s="3" t="n">
+        <v>85460.25999999999</v>
+      </c>
+      <c r="G180" s="18" t="n">
+        <v>83388860.26000001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="17" t="n">
         <v>45195</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="3" t="n">
         <v>27130200</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="3" t="n">
         <v>8334900</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="3" t="n">
         <v>39677200</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="3" t="n">
         <v>2070300</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="3" t="n">
         <v>88994.53</v>
       </c>
-      <c r="G181" s="10">
-        <v>77301594.530000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
+      <c r="G181" s="18" t="n">
+        <v>77301594.53</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="17" t="n">
         <v>45196</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="3" t="n">
         <v>29450300</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="3" t="n">
         <v>10212500</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="3" t="n">
         <v>42391400</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="3" t="n">
         <v>2210500</v>
       </c>
-      <c r="F182" s="3">
+      <c r="F182" s="3" t="n">
         <v>80454.89</v>
       </c>
-      <c r="G182" s="10">
-        <v>84345154.890000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="9">
+      <c r="G182" s="18" t="n">
+        <v>84345154.89</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="17" t="n">
         <v>45197</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="3" t="n">
         <v>28948200</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="3" t="n">
         <v>9527400</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="3" t="n">
         <v>42917300</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="3" t="n">
         <v>2364900</v>
       </c>
-      <c r="F183" s="3">
-        <v>93991.4</v>
-      </c>
-      <c r="G183" s="10">
-        <v>83851791.400000006</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
+      <c r="F183" s="3" t="n">
+        <v>93991.39999999999</v>
+      </c>
+      <c r="G183" s="18" t="n">
+        <v>83851791.40000001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="17" t="n">
         <v>45208</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="3" t="n">
         <v>30309000</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="3" t="n">
         <v>9291300</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="3" t="n">
         <v>46818200</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="3" t="n">
         <v>2370500</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="3" t="n">
         <v>83915.34</v>
       </c>
-      <c r="G184" s="10">
-        <v>88872915.340000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="9">
+      <c r="G184" s="18" t="n">
+        <v>88872915.34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="17" t="n">
         <v>45209</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="3" t="n">
         <v>29423400</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="3" t="n">
         <v>8984100</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="3" t="n">
         <v>48169500</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="3" t="n">
         <v>2292500</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="3" t="n">
         <v>74167.48</v>
       </c>
-      <c r="G185" s="10">
-        <v>88943667.480000004</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
+      <c r="G185" s="18" t="n">
+        <v>88943667.48</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="17" t="n">
         <v>45210</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="3" t="n">
         <v>32717500</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="3" t="n">
         <v>9013200</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="3" t="n">
         <v>51289600</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="3" t="n">
         <v>2480800</v>
       </c>
-      <c r="F186" s="3">
-        <v>66143.710000000006</v>
-      </c>
-      <c r="G186" s="10">
-        <v>95567243.709999993</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="9">
+      <c r="F186" s="3" t="n">
+        <v>66143.71000000001</v>
+      </c>
+      <c r="G186" s="18" t="n">
+        <v>95567243.70999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="17" t="n">
         <v>45211</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="3" t="n">
         <v>32640100</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="3" t="n">
         <v>8223900</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="3" t="n">
         <v>50636000</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="3" t="n">
         <v>2193700</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="3" t="n">
         <v>63919.79</v>
       </c>
-      <c r="G187" s="10">
-        <v>93757619.790000007</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
+      <c r="G187" s="18" t="n">
+        <v>93757619.79000001</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="17" t="n">
         <v>45212</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="3" t="n">
         <v>31063800</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="3" t="n">
         <v>7949000</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="3" t="n">
         <v>49974200</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="3" t="n">
         <v>2002000</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="3" t="n">
         <v>81174.86</v>
       </c>
-      <c r="G188" s="10">
-        <v>91070174.859999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="9">
+      <c r="G188" s="18" t="n">
+        <v>91070174.86</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="17" t="n">
         <v>45215</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="3" t="n">
         <v>31460300</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="3" t="n">
         <v>7469000</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="3" t="n">
         <v>49893400</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="3" t="n">
         <v>2268200</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="3" t="n">
         <v>88166.28</v>
       </c>
-      <c r="G189" s="10">
-        <v>91179066.280000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
+      <c r="G189" s="18" t="n">
+        <v>91179066.28</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="17" t="n">
         <v>45216</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="3" t="n">
         <v>30102400</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="3" t="n">
         <v>7326600</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="3" t="n">
         <v>43596500</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="3" t="n">
         <v>1977200</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="3" t="n">
         <v>68965.09</v>
       </c>
-      <c r="G190" s="10">
-        <v>83071665.090000004</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="9">
+      <c r="G190" s="18" t="n">
+        <v>83071665.09</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="17" t="n">
         <v>45217</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="3" t="n">
         <v>31119400</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="3" t="n">
         <v>8110600</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="3" t="n">
         <v>45709100</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="3" t="n">
         <v>2072300</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="3" t="n">
         <v>57987.62</v>
       </c>
-      <c r="G191" s="10">
-        <v>87069387.620000005</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="9">
+      <c r="G191" s="18" t="n">
+        <v>87069387.62</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="17" t="n">
         <v>45218</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="4" t="n">
         <v>35575700</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="3" t="n">
         <v>9360400</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="3" t="n">
         <v>45796000</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="3" t="n">
         <v>2259500</v>
       </c>
-      <c r="F192" s="3">
+      <c r="F192" s="3" t="n">
         <v>77356.56</v>
       </c>
-      <c r="G192" s="10">
-        <v>93068956.560000002</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="9">
+      <c r="G192" s="18" t="n">
+        <v>93068956.56</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="17" t="n">
         <v>45219</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="3" t="n">
         <v>30816300</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="3" t="n">
         <v>8790100</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="3" t="n">
         <v>42589000</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="3" t="n">
         <v>2154000</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="3" t="n">
         <v>59058.71</v>
       </c>
-      <c r="G193" s="10">
-        <v>84408458.709999993</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="9">
+      <c r="G193" s="18" t="n">
+        <v>84408458.70999999</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="17" t="n">
         <v>45222</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="3" t="n">
         <v>30467500</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="3" t="n">
         <v>8992600</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="3" t="n">
         <v>41855600</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="3" t="n">
         <v>2085700</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="3" t="n">
         <v>68660</v>
       </c>
-      <c r="G194" s="10">
+      <c r="G194" s="18" t="n">
         <v>83470060</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="9">
+    <row r="195">
+      <c r="A195" s="17" t="n">
         <v>45223</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="3" t="n">
         <v>34082300</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="3" t="n">
         <v>10146400</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="3" t="n">
         <v>46553900</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="3" t="n">
         <v>2592000</v>
       </c>
-      <c r="F195" s="3">
+      <c r="F195" s="3" t="n">
         <v>65231.75</v>
       </c>
-      <c r="G195" s="10">
+      <c r="G195" s="18" t="n">
         <v>93439831.75</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="9">
+    <row r="196">
+      <c r="A196" s="17" t="n">
         <v>45224</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="3" t="n">
         <v>36354300</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="3" t="n">
         <v>10556600</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="3" t="n">
         <v>51174300</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="3" t="n">
         <v>2424500</v>
       </c>
-      <c r="F196" s="3">
+      <c r="F196" s="3" t="n">
         <v>66120.12</v>
       </c>
-      <c r="G196" s="10">
+      <c r="G196" s="18" t="n">
         <v>100575820.12</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="9">
+    <row r="197">
+      <c r="A197" s="17" t="n">
         <v>45225</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="3" t="n">
         <v>33336900</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="3" t="n">
         <v>8888000</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="3" t="n">
         <v>51112200</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="3" t="n">
         <v>2177000</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="3" t="n">
         <v>59534.63</v>
       </c>
-      <c r="G197" s="10">
-        <v>95573634.629999995</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="9">
+      <c r="G197" s="18" t="n">
+        <v>95573634.63</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="17" t="n">
         <v>45226</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="3" t="n">
         <v>38642000</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="3" t="n">
         <v>10951700</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="3" t="n">
         <v>57923400</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="3" t="n">
         <v>2675200</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="3" t="n">
         <v>178505.71</v>
       </c>
-      <c r="G198" s="10">
-        <v>110370805.70999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="9">
+      <c r="G198" s="18" t="n">
+        <v>110370805.71</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="17" t="n">
         <v>45229</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="3" t="n">
         <v>44123400</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="3" t="n">
         <v>10665300</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="3" t="n">
         <v>59922400</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="3" t="n">
         <v>2659800</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="3" t="n">
         <v>127388.09</v>
       </c>
-      <c r="G199" s="10">
+      <c r="G199" s="18" t="n">
         <v>117498288.09</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="9">
+    <row r="200">
+      <c r="A200" s="17" t="n">
         <v>45230</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="3" t="n">
         <v>38669300</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="3" t="n">
         <v>8708100</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="3" t="n">
         <v>53310300</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="3" t="n">
         <v>2021200</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="3" t="n">
         <v>112917.52</v>
       </c>
-      <c r="G200" s="10">
+      <c r="G200" s="18" t="n">
         <v>102821817.52</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="9">
+    <row r="201">
+      <c r="A201" s="17" t="n">
         <v>45231</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="3" t="n">
         <v>34804300</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="3" t="n">
         <v>9144600</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="3" t="n">
         <v>46535300</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="3" t="n">
         <v>1998300</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="3" t="n">
         <v>162095.21</v>
       </c>
-      <c r="G201" s="10">
-        <v>92644595.209999993</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="5">
+      <c r="G201" s="18" t="n">
+        <v>92644595.20999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="13" t="n">
         <v>45232</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="2" t="n">
         <v>31277900</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="2" t="n">
         <v>8146300</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="2" t="n">
         <v>45554200</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="2" t="n">
         <v>1886300</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202" s="2" t="n">
         <v>147158.44</v>
       </c>
-      <c r="G202" s="6">
-        <v>87011858.439999998</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="5">
+      <c r="G202" s="14" t="n">
+        <v>87011858.44</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="13" t="n">
         <v>45233</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="2" t="n">
         <v>33018200</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="2" t="n">
         <v>10683400</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="2" t="n">
         <v>48076200</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="2" t="n">
         <v>2117700</v>
       </c>
-      <c r="F203" s="2">
-        <v>164766.10999999999</v>
-      </c>
-      <c r="G203" s="6">
-        <v>94060266.109999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="5">
+      <c r="F203" s="2" t="n">
+        <v>164766.11</v>
+      </c>
+      <c r="G203" s="14" t="n">
+        <v>94060266.11</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="13" t="n">
         <v>45236</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="2" t="n">
         <v>44827200</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="2" t="n">
         <v>12634900</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="2" t="n">
         <v>61793000</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="2" t="n">
         <v>2826400</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204" s="2" t="n">
         <v>185765.87</v>
       </c>
-      <c r="G204" s="6">
+      <c r="G204" s="14" t="n">
         <v>122267265.87</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
+    <row r="205">
+      <c r="A205" s="13" t="n">
         <v>45237</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="2" t="n">
         <v>40159000</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="2" t="n">
         <v>8866800</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="2" t="n">
         <v>59242300</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="2" t="n">
         <v>2155800</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205" s="2" t="n">
         <v>202356.18</v>
       </c>
-      <c r="G205" s="6">
-        <v>110626256.18000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="5">
+      <c r="G205" s="14" t="n">
+        <v>110626256.18</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="13" t="n">
         <v>45238</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="2" t="n">
         <v>41696000</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="2" t="n">
         <v>9653800</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="2" t="n">
         <v>62215400</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="2" t="n">
         <v>2376000</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206" s="2" t="n">
         <v>330706.31</v>
       </c>
-      <c r="G206" s="11">
+      <c r="G206" s="19" t="n">
         <v>116271906.31</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="5">
+    <row r="207">
+      <c r="A207" s="13" t="n">
         <v>45239</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="2" t="n">
         <v>38942400</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="2" t="n">
         <v>8282900</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="2" t="n">
         <v>57614000</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="2" t="n">
         <v>2035600</v>
       </c>
-      <c r="F207" s="2">
-        <v>263859.90000000002</v>
-      </c>
-      <c r="G207" s="2">
-        <v>107138759.90000001</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="5">
+      <c r="F207" s="2" t="n">
+        <v>263859.9</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>107138759.9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="13" t="n">
         <v>45240</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="2" t="n">
         <v>34762300</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="2" t="n">
         <v>8198400</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="2" t="n">
         <v>48126400</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="2" t="n">
         <v>1779700</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208" s="2" t="n">
         <v>244105.91</v>
       </c>
-      <c r="G208" s="2">
-        <v>93110905.909999996</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
+      <c r="G208" s="2" t="n">
+        <v>93110905.91</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="13" t="n">
         <v>45243</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="2" t="n">
         <v>34485000</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="2" t="n">
         <v>7591600</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="2" t="n">
         <v>52500300</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="2" t="n">
         <v>1886800</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209" s="2" t="n">
         <v>220916.71</v>
       </c>
-      <c r="G209" s="2">
-        <v>96684616.709999993</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
+      <c r="G209" s="2" t="n">
+        <v>96684616.70999999</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="13" t="n">
         <v>45244</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="2" t="n">
         <v>35991700</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="2" t="n">
         <v>8216900</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="2" t="n">
         <v>53608100</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="2" t="n">
         <v>1851400</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210" s="2" t="n">
         <v>273748.3</v>
       </c>
-      <c r="G210" s="2">
-        <v>99941848.299999997</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
+      <c r="G210" s="2" t="n">
+        <v>99941848.3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="13" t="n">
         <v>45245</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="2" t="n">
         <v>39049300</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="2" t="n">
         <v>8807300</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="2" t="n">
         <v>60118100</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="2" t="n">
         <v>2331900</v>
       </c>
-      <c r="F211" s="2">
-        <v>328186.65999999997</v>
-      </c>
-      <c r="G211" s="6">
+      <c r="F211" s="2" t="n">
+        <v>328186.66</v>
+      </c>
+      <c r="G211" s="14" t="n">
         <v>110634786.66</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="5">
+    <row r="212">
+      <c r="A212" s="13" t="n">
         <v>45246</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="2" t="n">
         <v>32986600</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="2" t="n">
         <v>8463100</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="2" t="n">
         <v>52199600</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="2" t="n">
         <v>2174300</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212" s="2" t="n">
         <v>299299.87</v>
       </c>
-      <c r="G212" s="2">
-        <v>96122899.870000005</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
+      <c r="G212" s="2" t="n">
+        <v>96122899.87</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="13" t="n">
         <v>45247</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="2" t="n">
         <v>32933400</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="2" t="n">
         <v>8731300</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="2" t="n">
         <v>49902000</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="2" t="n">
         <v>1992800</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213" s="2" t="n">
         <v>226866.14</v>
       </c>
-      <c r="G213" s="2">
-        <v>93786366.140000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="12">
+      <c r="G213" s="2" t="n">
+        <v>93786366.14</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="13" t="n">
         <v>45250</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="2" t="n">
         <v>36802600</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="2" t="n">
         <v>8535500</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="2" t="n">
         <v>56235500</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="2" t="n">
         <v>2119600</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="2" t="n">
         <v>379415.83</v>
       </c>
-      <c r="G214" s="2">
+      <c r="G214" s="2" t="n">
         <v>104072615.83</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="12">
+    <row r="215">
+      <c r="A215" s="13" t="n">
         <v>45251</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="2" t="n">
         <v>39220600</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="2" t="n">
         <v>8466200</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="2" t="n">
         <v>60759000</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="2" t="n">
         <v>2235900</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215" s="2" t="n">
         <v>1027214.4</v>
       </c>
-      <c r="G215" s="2">
-        <v>111708914.40000001</v>
+      <c r="G215" s="2" t="n">
+        <v>111708914.4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="20" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>39049300</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>8807300</v>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>60118100</v>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>2331900</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>328186.66</v>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>110634786.66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -1,87 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21381\AppData\Local\Temp\MicrosoftEdgeDownloads\fc251534-a9d0-4d49-b0b0-986c4a16250e\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1CD81-396B-4B41-8F76-1758ABBBEE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22848" windowHeight="8856" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>交易日期</t>
+  </si>
+  <si>
+    <t>上交所（股票）</t>
+  </si>
+  <si>
+    <t>上交所（基金）</t>
+  </si>
+  <si>
+    <t>深交所（股票）</t>
+  </si>
+  <si>
+    <t>深交所（基金）</t>
+  </si>
+  <si>
+    <t>北交所（股票）</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.00_ "/>
-    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -112,173 +144,87 @@
     </border>
   </borders>
   <cellStyleXfs count="10">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="千位分隔 2" xfId="4"/>
-    <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="千位分隔 3" xfId="7"/>
-    <cellStyle name="常规 5" xfId="8"/>
-    <cellStyle name="常规 4 2 2 17" xfId="9"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 4 2 2 17" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="千位分隔 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="千位分隔 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -566,5011 +512,4971 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J211" sqref="J211"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.77734375" customWidth="1" style="13" min="1" max="1"/>
-    <col width="16.77734375" customWidth="1" style="2" min="2" max="6"/>
-    <col width="16.77734375" customWidth="1" style="14" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="2" min="8" max="24"/>
-    <col width="8.88671875" customWidth="1" style="2" min="25" max="16384"/>
+    <col min="1" max="1" width="16.77734375" style="5" customWidth="1"/>
+    <col min="2" max="6" width="16.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="6" customWidth="1"/>
+    <col min="8" max="25" width="8.88671875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="15" t="inlineStr">
-        <is>
-          <t>交易日期</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>上交所（股票）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>上交所（基金）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>深交所（股票）</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>深交所（基金）</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>北交所（股票）</t>
-        </is>
-      </c>
-      <c r="G1" s="16" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>44929</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3">
         <v>33247700</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>9087600</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>45816300</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>3266400</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>39630.22</v>
       </c>
-      <c r="G2" s="18" t="n">
-        <v>91457630.22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="n">
+      <c r="G2" s="10">
+        <v>91457630.219999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>44930</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>31739400</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>8946100</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>46989600</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>2546500</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>35688.83</v>
       </c>
-      <c r="G3" s="18" t="n">
-        <v>90257288.83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="17" t="n">
+      <c r="G3" s="10">
+        <v>90257288.829999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>44931</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>33725900</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>9593500</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>50872600</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>3315800</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>35382.75</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="10">
         <v>97543182.75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="17" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>44932</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>33966500</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>9139800</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>50092400</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>2762000</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>34854.46</v>
       </c>
-      <c r="G5" s="18" t="n">
-        <v>95995554.45999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="17" t="n">
+      <c r="G5" s="10">
+        <v>95995554.459999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>44935</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>34470800</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>8448400</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>46737600</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>2455400</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>32031.88</v>
       </c>
-      <c r="G6" s="18" t="n">
-        <v>92144231.88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="17" t="n">
+      <c r="G6" s="10">
+        <v>92144231.879999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>44936</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>31281100</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>7795000</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>43808100</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>2213600</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>28034.86</v>
       </c>
-      <c r="G7" s="18" t="n">
-        <v>85125834.86</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="17" t="n">
+      <c r="G7" s="10">
+        <v>85125834.859999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>44937</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>31162900</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>8520400</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>43383100</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>2285900</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>33621.52</v>
-      </c>
-      <c r="G8" s="18" t="n">
-        <v>85385921.52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="17" t="n">
+      <c r="F8" s="3">
+        <v>33621.519999999997</v>
+      </c>
+      <c r="G8" s="10">
+        <v>85385921.519999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>44938</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="3">
         <v>27643000</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>7954600</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>40721100</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>2994300</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>27405.26</v>
       </c>
-      <c r="G9" s="18" t="n">
-        <v>79340405.26000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="17" t="n">
+      <c r="G9" s="10">
+        <v>79340405.260000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>44939</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>29124300</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>8114300</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>41523200</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>2534200</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>27849.92</v>
-      </c>
-      <c r="G10" s="18" t="n">
-        <v>81323849.92</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="n">
+      <c r="F10" s="3">
+        <v>27849.919999999998</v>
+      </c>
+      <c r="G10" s="10">
+        <v>81323849.920000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>44942</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="3">
         <v>41596700</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>10919800</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>50512800</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>3024200</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>36491.33</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="10">
         <v>106089991.33</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="17" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>44943</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>30443900</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>8257900</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>40577600</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>2604000</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>29528.34</v>
       </c>
-      <c r="G12" s="18" t="n">
-        <v>81912928.34</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="n">
+      <c r="G12" s="10">
+        <v>81912928.340000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>44944</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="3">
         <v>26877800</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>7273800</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>37119400</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>1953900</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>55061.54</v>
       </c>
-      <c r="G13" s="18" t="n">
-        <v>73279961.54000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="n">
+      <c r="G13" s="10">
+        <v>73279961.540000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>44945</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="3">
         <v>29819300</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>8658900</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>39111100</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>2117200</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>47324.27</v>
       </c>
-      <c r="G14" s="18" t="n">
-        <v>79753824.27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="17" t="n">
+      <c r="G14" s="10">
+        <v>79753824.269999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>44946</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="3">
         <v>32950400</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>10075600</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="3">
         <v>42080500</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>2955900</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>48795.87</v>
       </c>
-      <c r="G15" s="18" t="n">
-        <v>88111195.87</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="17" t="n">
+      <c r="G15" s="10">
+        <v>88111195.870000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>44956</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="3">
         <v>45434700</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>11801700</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>61046300</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>2859000</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>78060.52</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="10">
         <v>121219760.52</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>44957</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="3">
         <v>37667000</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>8804700</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="3">
         <v>52666300</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>2427400</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>239527.27</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="10">
         <v>101804927.27</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="17" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>44958</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="3">
         <v>41502300</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>8902600</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>59264500</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>2767700</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>217055.69</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="10">
         <v>112654155.69</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="17" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>44959</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="3">
         <v>43144800</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>8995500</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="3">
         <v>59694600</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>2596400</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>161987.49</v>
       </c>
-      <c r="G19" s="18" t="n">
-        <v>114593287.49</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="17" t="n">
+      <c r="G19" s="10">
+        <v>114593287.48999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>44960</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="3">
         <v>37972300</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>9082900</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>53680400</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>2825000</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>109366.97</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="10">
         <v>103669966.97</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="17" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>44963</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>34966800</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>8262400</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>52668800</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>2463600</v>
       </c>
-      <c r="F21" s="3" t="n">
-        <v>92464.03999999999</v>
-      </c>
-      <c r="G21" s="18" t="n">
-        <v>98454064.04000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="n">
+      <c r="F21" s="3">
+        <v>92464.04</v>
+      </c>
+      <c r="G21" s="10">
+        <v>98454064.040000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>44964</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="3">
         <v>32226500</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>8442400</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="3">
         <v>52564500</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>2672700</v>
       </c>
-      <c r="F22" s="3" t="n">
-        <v>75532.96000000001</v>
-      </c>
-      <c r="G22" s="18" t="n">
-        <v>95981632.95999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="17" t="n">
+      <c r="F22" s="3">
+        <v>75532.960000000006</v>
+      </c>
+      <c r="G22" s="10">
+        <v>95981632.959999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>44965</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="3">
         <v>29451800</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3">
         <v>7198000</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="3">
         <v>51239000</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>2360700</v>
       </c>
-      <c r="F23" s="3" t="n">
-        <v>75681.03999999999</v>
-      </c>
-      <c r="G23" s="18" t="n">
-        <v>90325181.04000001</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="17" t="n">
+      <c r="F23" s="3">
+        <v>75681.039999999994</v>
+      </c>
+      <c r="G23" s="10">
+        <v>90325181.040000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>44966</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="3">
         <v>35353300</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="3">
         <v>9689900</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="3">
         <v>55174600</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>2688900</v>
       </c>
-      <c r="F24" s="3" t="n">
-        <v>97412.07000000001</v>
-      </c>
-      <c r="G24" s="18" t="n">
-        <v>103004112.07</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="17" t="n">
+      <c r="F24" s="3">
+        <v>97412.07</v>
+      </c>
+      <c r="G24" s="10">
+        <v>103004112.06999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>44967</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="3">
         <v>34322700</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>8932600</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="3">
         <v>55210600</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="3">
         <v>2782200</v>
       </c>
-      <c r="F25" s="3" t="n">
-        <v>69673.39999999999</v>
-      </c>
-      <c r="G25" s="18" t="n">
-        <v>101317773.4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="17" t="n">
+      <c r="F25" s="3">
+        <v>69673.399999999994</v>
+      </c>
+      <c r="G25" s="10">
+        <v>101317773.40000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>44970</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="3">
         <v>39900800</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>8173300</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="3">
         <v>58350300</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="3">
         <v>2745400</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>112003.74</v>
       </c>
-      <c r="G26" s="18" t="n">
-        <v>109281803.74</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="17" t="n">
+      <c r="G26" s="10">
+        <v>109281803.73999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>44971</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="3">
         <v>35716200</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>6503100</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="3">
         <v>56004400</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="3">
         <v>2013800</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>7792705</v>
       </c>
-      <c r="G27" s="18" t="n">
+      <c r="G27" s="10">
         <v>108030205</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="17" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>44972</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="3">
         <v>35858600</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3">
         <v>6841300</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="3">
         <v>58116800</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="3">
         <v>2272300</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>85374.78</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="G28" s="10">
         <v>103174374.78</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="17" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>44973</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="3">
         <v>46929500</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3">
         <v>11003500</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="3">
         <v>72579400</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="3">
         <v>2902900</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>115270.94</v>
       </c>
-      <c r="G29" s="18" t="n">
+      <c r="G29" s="10">
         <v>133530570.94</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="17" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>44974</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="3">
         <v>35609400</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>8828800</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="3">
         <v>55944200</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="3">
         <v>2748500</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="3">
         <v>105310.48</v>
       </c>
-      <c r="G30" s="18" t="n">
+      <c r="G30" s="10">
         <v>103236210.48</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="17" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>44977</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="3">
         <v>39891300</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="3">
         <v>9224500</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="3">
         <v>55440200</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="3">
         <v>2874800</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>85853.63</v>
       </c>
-      <c r="G31" s="18" t="n">
+      <c r="G31" s="10">
         <v>107516653.63</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="17" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>44978</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="3">
         <v>39158000</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>7907000</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="3">
         <v>53148600</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="3">
         <v>2208100</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="3">
         <v>84903.45</v>
       </c>
-      <c r="G32" s="18" t="n">
+      <c r="G32" s="10">
         <v>102506603.45</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="17" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>44979</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="3">
         <v>32138900</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>6767400</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="3">
         <v>46426400</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="3">
         <v>2186300</v>
       </c>
-      <c r="F33" s="3" t="n">
-        <v>78382.78999999999</v>
-      </c>
-      <c r="G33" s="18" t="n">
-        <v>87597382.79000001</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="17" t="n">
+      <c r="F33" s="3">
+        <v>78382.789999999994</v>
+      </c>
+      <c r="G33" s="10">
+        <v>87597382.790000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>44980</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="3">
         <v>33528400</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3">
         <v>7310300</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="3">
         <v>47432600</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="3">
         <v>2000700</v>
       </c>
-      <c r="F34" s="3" t="n">
-        <v>85071.92999999999</v>
-      </c>
-      <c r="G34" s="18" t="n">
-        <v>90357071.93000001</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="17" t="n">
+      <c r="F34" s="3">
+        <v>85071.93</v>
+      </c>
+      <c r="G34" s="10">
+        <v>90357071.930000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>44981</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="3">
         <v>30873600</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>7207700</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="3">
         <v>41874800</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="3">
         <v>2032700</v>
       </c>
-      <c r="F35" s="3" t="n">
-        <v>69609.49000000001</v>
-      </c>
-      <c r="G35" s="18" t="n">
-        <v>82058409.48999999</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="17" t="n">
+      <c r="F35" s="3">
+        <v>69609.490000000005</v>
+      </c>
+      <c r="G35" s="10">
+        <v>82058409.489999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>44984</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="3">
         <v>32537700</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>7660500</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="3">
         <v>43084400</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="3">
         <v>2444500</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="3">
         <v>65562.27</v>
       </c>
-      <c r="G36" s="18" t="n">
-        <v>85792662.27</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="17" t="n">
+      <c r="G36" s="10">
+        <v>85792662.269999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>44985</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="3">
         <v>31955400</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>7817900</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="3">
         <v>44041200</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="3">
         <v>2090000</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="3">
         <v>90971.61</v>
       </c>
-      <c r="G37" s="18" t="n">
-        <v>85995471.61</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="17" t="n">
+      <c r="G37" s="10">
+        <v>85995471.609999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>44986</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="3">
         <v>38632500</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>9767500</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="3">
         <v>53709100</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="3">
         <v>2524700</v>
       </c>
-      <c r="F38" s="3" t="n">
-        <v>89553.92</v>
-      </c>
-      <c r="G38" s="18" t="n">
+      <c r="F38" s="3">
+        <v>89553.919999999998</v>
+      </c>
+      <c r="G38" s="10">
         <v>104723353.92</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="17" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>44987</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="3">
         <v>39134300</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>7884500</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="3">
         <v>54613300</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="3">
         <v>2207000</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="3">
         <v>73701.45</v>
       </c>
-      <c r="G39" s="18" t="n">
+      <c r="G39" s="10">
         <v>103912801.45</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="17" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>44988</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="3">
         <v>38961500</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="3">
         <v>8475400</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="3">
         <v>48141100</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="3">
         <v>2486000</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" s="3">
         <v>61732.75</v>
       </c>
-      <c r="G40" s="18" t="n">
+      <c r="G40" s="10">
         <v>98125732.75</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="17" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>44991</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="3">
         <v>43322900</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="3">
         <v>8060000</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="3">
         <v>52017600</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="3">
         <v>2411500</v>
       </c>
-      <c r="F41" s="3" t="n">
-        <v>52797.12</v>
-      </c>
-      <c r="G41" s="18" t="n">
+      <c r="F41" s="3">
+        <v>52797.120000000003</v>
+      </c>
+      <c r="G41" s="10">
         <v>105864797.12</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="17" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>44992</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="3">
         <v>43086600</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="3">
         <v>8341300</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="3">
         <v>50367900</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="3">
         <v>2805500</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="3">
         <v>54126.8</v>
       </c>
-      <c r="G42" s="18" t="n">
+      <c r="G42" s="10">
         <v>104655426.8</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="17" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>44993</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="3">
         <v>31367100</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>7134400</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="3">
         <v>40686700</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="3">
         <v>2216500</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" s="3">
         <v>51300.95</v>
       </c>
-      <c r="G43" s="18" t="n">
-        <v>81456000.95</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="17" t="n">
+      <c r="G43" s="10">
+        <v>81456000.950000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>44994</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="3">
         <v>32987000</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="3">
         <v>6741800</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="3">
         <v>42900300</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="3">
         <v>2079700</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" s="3">
         <v>42901.19</v>
       </c>
-      <c r="G44" s="18" t="n">
-        <v>84751701.19</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="17" t="n">
+      <c r="G44" s="10">
+        <v>84751701.189999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>44995</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="3">
         <v>34306300</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" s="3">
         <v>8374600</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="3">
         <v>46810600</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="3">
         <v>2476800</v>
       </c>
-      <c r="F45" s="3" t="n">
+      <c r="F45" s="3">
         <v>63165.73</v>
       </c>
-      <c r="G45" s="18" t="n">
-        <v>92031465.73</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="17" t="n">
+      <c r="G45" s="10">
+        <v>92031465.730000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>44998</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="3">
         <v>36664800</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" s="3">
         <v>8209600</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="3">
         <v>47587200</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="3">
         <v>2532600</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="F46" s="3">
         <v>56328.75</v>
       </c>
-      <c r="G46" s="18" t="n">
+      <c r="G46" s="10">
         <v>95050528.75</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="17" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>44999</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="3">
         <v>41067800</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="3">
         <v>7848500</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="3">
         <v>52312700</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="3">
         <v>2704000</v>
       </c>
-      <c r="F47" s="3" t="n">
+      <c r="F47" s="3">
         <v>62370.43</v>
       </c>
-      <c r="G47" s="18" t="n">
-        <v>103995370.43</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="17" t="n">
+      <c r="G47" s="10">
+        <v>103995370.43000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>45000</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="3">
         <v>37485700</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="3">
         <v>8266500</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="3">
         <v>44649800</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="3">
         <v>2531400</v>
       </c>
-      <c r="F48" s="3" t="n">
+      <c r="F48" s="3">
         <v>75618.63</v>
       </c>
-      <c r="G48" s="18" t="n">
-        <v>93009018.63</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="17" t="n">
+      <c r="G48" s="10">
+        <v>93009018.629999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
         <v>45001</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3">
         <v>39368100</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="C49" s="3">
         <v>7843500</v>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" s="3">
         <v>45393000</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="3">
         <v>2948100</v>
       </c>
-      <c r="F49" s="3" t="n">
+      <c r="F49" s="3">
         <v>56989.48</v>
       </c>
-      <c r="G49" s="18" t="n">
-        <v>95609689.48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="17" t="n">
+      <c r="G49" s="10">
+        <v>95609689.480000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
         <v>45002</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="3">
         <v>43389100</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="3">
         <v>10678800</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="3">
         <v>54284900</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="3">
         <v>3005700</v>
       </c>
-      <c r="F50" s="3" t="n">
+      <c r="F50" s="3">
         <v>54401.69</v>
       </c>
-      <c r="G50" s="18" t="n">
+      <c r="G50" s="10">
         <v>111412901.69</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="17" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>45005</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3">
         <v>48171000</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="3">
         <v>8673100</v>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="3">
         <v>57810800</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="3">
         <v>2698400</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" s="3">
         <v>49016.88</v>
       </c>
-      <c r="G51" s="18" t="n">
+      <c r="G51" s="10">
         <v>117402316.88</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="17" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
         <v>45006</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="3">
         <v>39092400</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="3">
         <v>7855500</v>
       </c>
-      <c r="D52" s="3" t="n">
+      <c r="D52" s="3">
         <v>50660300</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="3">
         <v>2775400</v>
       </c>
-      <c r="F52" s="3" t="n">
+      <c r="F52" s="3">
         <v>52452.4</v>
       </c>
-      <c r="G52" s="18" t="n">
-        <v>100436052.4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="17" t="n">
+      <c r="G52" s="10">
+        <v>100436052.40000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>45007</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="3">
         <v>38362400</v>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="C53" s="3">
         <v>7306500</v>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="3">
         <v>57654000</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="3">
         <v>2456300</v>
       </c>
-      <c r="F53" s="3" t="n">
+      <c r="F53" s="3">
         <v>62263.33</v>
       </c>
-      <c r="G53" s="18" t="n">
+      <c r="G53" s="10">
         <v>105841463.33</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="17" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
         <v>45008</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="3">
         <v>42833700</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="3">
         <v>9177900</v>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="3">
         <v>59535800</v>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="3">
         <v>2824500</v>
       </c>
-      <c r="F54" s="3" t="n">
+      <c r="F54" s="3">
         <v>88372.06</v>
       </c>
-      <c r="G54" s="18" t="n">
+      <c r="G54" s="10">
         <v>114460272.06</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="17" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
         <v>45009</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="3">
         <v>43187100</v>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="C55" s="3">
         <v>8117000</v>
       </c>
-      <c r="D55" s="3" t="n">
+      <c r="D55" s="3">
         <v>64505700</v>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="3">
         <v>2613800</v>
       </c>
-      <c r="F55" s="3" t="n">
+      <c r="F55" s="3">
         <v>104735.23</v>
       </c>
-      <c r="G55" s="18" t="n">
+      <c r="G55" s="10">
         <v>118528335.23</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="17" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
         <v>45012</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="3">
         <v>45653000</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="3">
         <v>8621400</v>
       </c>
-      <c r="D56" s="3" t="n">
+      <c r="D56" s="3">
         <v>68831700</v>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="3">
         <v>3242200</v>
       </c>
-      <c r="F56" s="3" t="n">
+      <c r="F56" s="3">
         <v>86091.44</v>
       </c>
-      <c r="G56" s="18" t="n">
+      <c r="G56" s="10">
         <v>126434391.44</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="17" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>45013</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="3">
         <v>39812400</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="3">
         <v>7889100</v>
       </c>
-      <c r="D57" s="3" t="n">
+      <c r="D57" s="3">
         <v>60875500</v>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="3">
         <v>2879300</v>
       </c>
-      <c r="F57" s="3" t="n">
+      <c r="F57" s="3">
         <v>68089.98</v>
       </c>
-      <c r="G57" s="18" t="n">
+      <c r="G57" s="10">
         <v>111524389.98</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="17" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>45014</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="3">
         <v>40680400</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C58" s="3">
         <v>9314500</v>
       </c>
-      <c r="D58" s="3" t="n">
+      <c r="D58" s="3">
         <v>57650800</v>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="3">
         <v>2983600</v>
       </c>
-      <c r="F58" s="3" t="n">
-        <v>70892.35000000001</v>
-      </c>
-      <c r="G58" s="18" t="n">
-        <v>110700192.35</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="17" t="n">
+      <c r="F58" s="3">
+        <v>70892.350000000006</v>
+      </c>
+      <c r="G58" s="10">
+        <v>110700192.34999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
         <v>45015</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="3">
         <v>40274200</v>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="C59" s="3">
         <v>8545800</v>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" s="3">
         <v>54392700</v>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="3">
         <v>2635900</v>
       </c>
-      <c r="F59" s="3" t="n">
+      <c r="F59" s="3">
         <v>58148.28</v>
       </c>
-      <c r="G59" s="18" t="n">
+      <c r="G59" s="10">
         <v>105906748.28</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="17" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>45016</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="3">
         <v>39758700</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="3">
         <v>8910100</v>
       </c>
-      <c r="D60" s="3" t="n">
+      <c r="D60" s="3">
         <v>55826700</v>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="3">
         <v>2562900</v>
       </c>
-      <c r="F60" s="3" t="n">
+      <c r="F60" s="3">
         <v>50455.85</v>
       </c>
-      <c r="G60" s="18" t="n">
-        <v>107108855.85</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="17" t="n">
+      <c r="G60" s="10">
+        <v>107108855.84999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
         <v>45019</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="3">
         <v>51453000</v>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="C61" s="3">
         <v>12706000</v>
       </c>
-      <c r="D61" s="3" t="n">
+      <c r="D61" s="3">
         <v>74056400</v>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="3">
         <v>3078000</v>
       </c>
-      <c r="F61" s="3" t="n">
+      <c r="F61" s="3">
         <v>70155.41</v>
       </c>
-      <c r="G61" s="18" t="n">
+      <c r="G61" s="10">
         <v>141363555.41</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="17" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>45020</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="3">
         <v>55643400</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="3">
         <v>9936000</v>
       </c>
-      <c r="D62" s="3" t="n">
+      <c r="D62" s="3">
         <v>76969400</v>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="3">
         <v>3091800</v>
       </c>
-      <c r="F62" s="3" t="n">
+      <c r="F62" s="3">
         <v>65641.95</v>
       </c>
-      <c r="G62" s="18" t="n">
-        <v>145706241.95</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="17" t="n">
+      <c r="G62" s="10">
+        <v>145706241.94999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>45022</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="3">
         <v>50778000</v>
       </c>
-      <c r="C63" s="3" t="n">
+      <c r="C63" s="3">
         <v>9625500</v>
       </c>
-      <c r="D63" s="3" t="n">
+      <c r="D63" s="3">
         <v>68781100</v>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="3">
         <v>2829900</v>
       </c>
-      <c r="F63" s="3" t="n">
+      <c r="F63" s="3">
         <v>58892.98</v>
       </c>
-      <c r="G63" s="18" t="n">
+      <c r="G63" s="10">
         <v>132073392.98</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="17" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>45023</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="3">
         <v>43739000</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="3">
         <v>8827600</v>
       </c>
-      <c r="D64" s="3" t="n">
+      <c r="D64" s="3">
         <v>61870200</v>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="3">
         <v>2762700</v>
       </c>
-      <c r="F64" s="3" t="n">
+      <c r="F64" s="3">
         <v>42873.27</v>
       </c>
-      <c r="G64" s="18" t="n">
+      <c r="G64" s="10">
         <v>117242373.27</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="17" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>45026</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="3">
         <v>51777100</v>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="C65" s="3">
         <v>12346700</v>
       </c>
-      <c r="D65" s="3" t="n">
+      <c r="D65" s="3">
         <v>70993000</v>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="3">
         <v>2528100</v>
       </c>
-      <c r="F65" s="3" t="n">
+      <c r="F65" s="3">
         <v>52538.29</v>
       </c>
-      <c r="G65" s="18" t="n">
-        <v>137697438.29</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="17" t="n">
+      <c r="G65" s="10">
+        <v>137697438.28999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>45027</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="3">
         <v>46800400</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" s="3">
         <v>9335400</v>
       </c>
-      <c r="D66" s="3" t="n">
+      <c r="D66" s="3">
         <v>61715400</v>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="3">
         <v>2726100</v>
       </c>
-      <c r="F66" s="3" t="n">
+      <c r="F66" s="3">
         <v>42228.5</v>
       </c>
-      <c r="G66" s="18" t="n">
+      <c r="G66" s="10">
         <v>120619528.5</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="17" t="n">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>45028</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="3">
         <v>48342700</v>
       </c>
-      <c r="C67" s="3" t="n">
+      <c r="C67" s="3">
         <v>8575900</v>
       </c>
-      <c r="D67" s="3" t="n">
+      <c r="D67" s="3">
         <v>65090800</v>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="3">
         <v>2868900</v>
       </c>
-      <c r="F67" s="3" t="n">
-        <v>43343.2</v>
-      </c>
-      <c r="G67" s="18" t="n">
+      <c r="F67" s="3">
+        <v>43343.199999999997</v>
+      </c>
+      <c r="G67" s="10">
         <v>124921643.2</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="17" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
         <v>45029</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="3">
         <v>47996600</v>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="C68" s="3">
         <v>8984000</v>
       </c>
-      <c r="D68" s="3" t="n">
+      <c r="D68" s="3">
         <v>66054800</v>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="3">
         <v>2773600</v>
       </c>
-      <c r="F68" s="3" t="n">
+      <c r="F68" s="3">
         <v>77950.3</v>
       </c>
-      <c r="G68" s="18" t="n">
+      <c r="G68" s="10">
         <v>125886950.3</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="17" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
         <v>45030</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="3">
         <v>47949900</v>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="C69" s="3">
         <v>9167200</v>
       </c>
-      <c r="D69" s="3" t="n">
+      <c r="D69" s="3">
         <v>63739800</v>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="3">
         <v>2787600</v>
       </c>
-      <c r="F69" s="3" t="n">
+      <c r="F69" s="3">
         <v>61845.38</v>
       </c>
-      <c r="G69" s="18" t="n">
+      <c r="G69" s="10">
         <v>123706345.38</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="17" t="n">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
         <v>45033</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="3">
         <v>52491600</v>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="C70" s="3">
         <v>8585300</v>
       </c>
-      <c r="D70" s="3" t="n">
+      <c r="D70" s="3">
         <v>59788500</v>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="3">
         <v>2660100</v>
       </c>
-      <c r="F70" s="3" t="n">
+      <c r="F70" s="3">
         <v>72891.27</v>
       </c>
-      <c r="G70" s="18" t="n">
+      <c r="G70" s="10">
         <v>123598391.27</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="17" t="n">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
         <v>45034</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="3">
         <v>47535200</v>
       </c>
-      <c r="C71" s="3" t="n">
+      <c r="C71" s="3">
         <v>8423000</v>
       </c>
-      <c r="D71" s="3" t="n">
+      <c r="D71" s="3">
         <v>58678600</v>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="3">
         <v>2611200</v>
       </c>
-      <c r="F71" s="3" t="n">
+      <c r="F71" s="3">
         <v>73941.36</v>
       </c>
-      <c r="G71" s="18" t="n">
+      <c r="G71" s="10">
         <v>117321941.36</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="17" t="n">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
         <v>45035</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="3">
         <v>47823800</v>
       </c>
-      <c r="C72" s="3" t="n">
+      <c r="C72" s="3">
         <v>14226100</v>
       </c>
-      <c r="D72" s="3" t="n">
+      <c r="D72" s="3">
         <v>60708100</v>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="3">
         <v>2221700</v>
       </c>
-      <c r="F72" s="3" t="n">
+      <c r="F72" s="3">
         <v>81559.7</v>
       </c>
-      <c r="G72" s="18" t="n">
+      <c r="G72" s="10">
         <v>125061259.7</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="17" t="n">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>45036</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="3">
         <v>50267300</v>
       </c>
-      <c r="C73" s="3" t="n">
+      <c r="C73" s="3">
         <v>8439400</v>
       </c>
-      <c r="D73" s="3" t="n">
+      <c r="D73" s="3">
         <v>63967600</v>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="3">
         <v>3155500</v>
       </c>
-      <c r="F73" s="3" t="n">
+      <c r="F73" s="3">
         <v>84685.11</v>
       </c>
-      <c r="G73" s="18" t="n">
+      <c r="G73" s="10">
         <v>125914485.11</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="17" t="n">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
         <v>45037</v>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="3">
         <v>53209400</v>
       </c>
-      <c r="C74" s="3" t="n">
+      <c r="C74" s="3">
         <v>9708900</v>
       </c>
-      <c r="D74" s="3" t="n">
+      <c r="D74" s="3">
         <v>68811500</v>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="3">
         <v>2953500</v>
       </c>
-      <c r="F74" s="3" t="n">
-        <v>96236.99000000001</v>
-      </c>
-      <c r="G74" s="18" t="n">
-        <v>134779536.99</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="17" t="n">
+      <c r="F74" s="3">
+        <v>96236.99</v>
+      </c>
+      <c r="G74" s="10">
+        <v>134779536.99000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
         <v>45040</v>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="3">
         <v>47457800</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="C75" s="3">
         <v>8816500</v>
       </c>
-      <c r="D75" s="3" t="n">
+      <c r="D75" s="3">
         <v>61182000</v>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="3">
         <v>3268100</v>
       </c>
-      <c r="F75" s="3" t="n">
+      <c r="F75" s="3">
         <v>130014.79</v>
       </c>
-      <c r="G75" s="18" t="n">
-        <v>120854414.79</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="17" t="n">
+      <c r="G75" s="10">
+        <v>120854414.79000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
         <v>45041</v>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="3">
         <v>49589200</v>
       </c>
-      <c r="C76" s="3" t="n">
+      <c r="C76" s="3">
         <v>12592600</v>
       </c>
-      <c r="D76" s="3" t="n">
+      <c r="D76" s="3">
         <v>64086800</v>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="3">
         <v>3376700</v>
       </c>
-      <c r="F76" s="3" t="n">
+      <c r="F76" s="3">
         <v>147068.57</v>
       </c>
-      <c r="G76" s="18" t="n">
-        <v>129792368.57</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="17" t="n">
+      <c r="G76" s="10">
+        <v>129792368.56999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
         <v>45042</v>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="3">
         <v>48210600</v>
       </c>
-      <c r="C77" s="3" t="n">
+      <c r="C77" s="3">
         <v>10192600</v>
       </c>
-      <c r="D77" s="3" t="n">
+      <c r="D77" s="3">
         <v>64256100</v>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="3">
         <v>3279300</v>
       </c>
-      <c r="F77" s="3" t="n">
+      <c r="F77" s="3">
         <v>157243.9</v>
       </c>
-      <c r="G77" s="18" t="n">
-        <v>126095843.9</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="17" t="n">
+      <c r="G77" s="10">
+        <v>126095843.90000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
         <v>45043</v>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="3">
         <v>46745500</v>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="C78" s="3">
         <v>9167900</v>
       </c>
-      <c r="D78" s="3" t="n">
+      <c r="D78" s="3">
         <v>58028400</v>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="3">
         <v>2826200</v>
       </c>
-      <c r="F78" s="3" t="n">
+      <c r="F78" s="3">
         <v>163223.51</v>
       </c>
-      <c r="G78" s="18" t="n">
-        <v>116931223.51</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="17" t="n">
+      <c r="G78" s="10">
+        <v>116931223.51000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
         <v>45044</v>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="3">
         <v>51589000</v>
       </c>
-      <c r="C79" s="3" t="n">
+      <c r="C79" s="3">
         <v>10469600</v>
       </c>
-      <c r="D79" s="3" t="n">
+      <c r="D79" s="3">
         <v>60286100</v>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="3">
         <v>2641900</v>
       </c>
-      <c r="F79" s="3" t="n">
-        <v>140937.42</v>
-      </c>
-      <c r="G79" s="18" t="n">
+      <c r="F79" s="3">
+        <v>140937.42000000001</v>
+      </c>
+      <c r="G79" s="10">
         <v>125127537.42</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="17" t="n">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
         <v>45050</v>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="3">
         <v>55109000</v>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="C80" s="3">
         <v>8460500</v>
       </c>
-      <c r="D80" s="3" t="n">
+      <c r="D80" s="3">
         <v>62252700</v>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="3">
         <v>2471000</v>
       </c>
-      <c r="F80" s="3" t="n">
+      <c r="F80" s="3">
         <v>168785.39</v>
       </c>
-      <c r="G80" s="18" t="n">
+      <c r="G80" s="10">
         <v>128461985.39</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="17" t="n">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
         <v>45051</v>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="3">
         <v>49976400</v>
       </c>
-      <c r="C81" s="3" t="n">
+      <c r="C81" s="3">
         <v>7947100</v>
       </c>
-      <c r="D81" s="3" t="n">
+      <c r="D81" s="3">
         <v>57300300</v>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="3">
         <v>2555900</v>
       </c>
-      <c r="F81" s="3" t="n">
-        <v>270980.29</v>
-      </c>
-      <c r="G81" s="18" t="n">
-        <v>118050680.29</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="17" t="n">
+      <c r="F81" s="3">
+        <v>270980.28999999998</v>
+      </c>
+      <c r="G81" s="10">
+        <v>118050680.29000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>45054</v>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="3">
         <v>56574400</v>
       </c>
-      <c r="C82" s="3" t="n">
+      <c r="C82" s="3">
         <v>8056200</v>
       </c>
-      <c r="D82" s="3" t="n">
+      <c r="D82" s="3">
         <v>57316500</v>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="3">
         <v>2540900</v>
       </c>
-      <c r="F82" s="3" t="n">
+      <c r="F82" s="3">
         <v>272975.27</v>
       </c>
-      <c r="G82" s="18" t="n">
+      <c r="G82" s="10">
         <v>124760975.27</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="17" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
         <v>45055</v>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="3">
         <v>62009000</v>
       </c>
-      <c r="C83" s="3" t="n">
+      <c r="C83" s="3">
         <v>8933200</v>
       </c>
-      <c r="D83" s="3" t="n">
+      <c r="D83" s="3">
         <v>60448100</v>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="3">
         <v>2812400</v>
       </c>
-      <c r="F83" s="3" t="n">
+      <c r="F83" s="3">
         <v>249046.68</v>
       </c>
-      <c r="G83" s="18" t="n">
-        <v>134451746.68</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="17" t="n">
+      <c r="G83" s="10">
+        <v>134451746.68000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>45056</v>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="3">
         <v>49091200</v>
       </c>
-      <c r="C84" s="3" t="n">
+      <c r="C84" s="3">
         <v>9307200</v>
       </c>
-      <c r="D84" s="3" t="n">
+      <c r="D84" s="3">
         <v>53232200</v>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="3">
         <v>2795200</v>
       </c>
-      <c r="F84" s="3" t="n">
-        <v>153050.45</v>
-      </c>
-      <c r="G84" s="18" t="n">
+      <c r="F84" s="3">
+        <v>153050.45000000001</v>
+      </c>
+      <c r="G84" s="10">
         <v>114578850.45</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="17" t="n">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
         <v>45057</v>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="3">
         <v>40218700</v>
       </c>
-      <c r="C85" s="3" t="n">
+      <c r="C85" s="3">
         <v>7440400</v>
       </c>
-      <c r="D85" s="3" t="n">
+      <c r="D85" s="3">
         <v>49596900</v>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="E85" s="3">
         <v>2496600</v>
       </c>
-      <c r="F85" s="3" t="n">
+      <c r="F85" s="3">
         <v>164260.34</v>
       </c>
-      <c r="G85" s="18" t="n">
-        <v>99916860.34</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="17" t="n">
+      <c r="G85" s="10">
+        <v>99916860.340000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>45058</v>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="3">
         <v>38854500</v>
       </c>
-      <c r="C86" s="3" t="n">
+      <c r="C86" s="3">
         <v>7978800</v>
       </c>
-      <c r="D86" s="3" t="n">
+      <c r="D86" s="3">
         <v>46262700</v>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="3">
         <v>2593300</v>
       </c>
-      <c r="F86" s="3" t="n">
+      <c r="F86" s="3">
         <v>168517.01</v>
       </c>
-      <c r="G86" s="18" t="n">
-        <v>95857817.01000001</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="17" t="n">
+      <c r="G86" s="10">
+        <v>95857817.010000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
         <v>45061</v>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="3">
         <v>43268200</v>
       </c>
-      <c r="C87" s="3" t="n">
+      <c r="C87" s="3">
         <v>7999600</v>
       </c>
-      <c r="D87" s="3" t="n">
+      <c r="D87" s="3">
         <v>50786300</v>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="3">
         <v>2758600</v>
       </c>
-      <c r="F87" s="3" t="n">
-        <v>167094.08</v>
-      </c>
-      <c r="G87" s="18" t="n">
+      <c r="F87" s="3">
+        <v>167094.07999999999</v>
+      </c>
+      <c r="G87" s="10">
         <v>104979794.08</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="17" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
         <v>45062</v>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="3">
         <v>38674300</v>
       </c>
-      <c r="C88" s="3" t="n">
+      <c r="C88" s="3">
         <v>6853800</v>
       </c>
-      <c r="D88" s="3" t="n">
+      <c r="D88" s="3">
         <v>48297500</v>
       </c>
-      <c r="E88" s="3" t="n">
+      <c r="E88" s="3">
         <v>2318400</v>
       </c>
-      <c r="F88" s="3" t="n">
+      <c r="F88" s="3">
         <v>148532.09</v>
       </c>
-      <c r="G88" s="18" t="n">
-        <v>96292532.09</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="17" t="n">
+      <c r="G88" s="10">
+        <v>96292532.090000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
         <v>45063</v>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="3">
         <v>34252200</v>
       </c>
-      <c r="C89" s="3" t="n">
+      <c r="C89" s="3">
         <v>7512300</v>
       </c>
-      <c r="D89" s="3" t="n">
+      <c r="D89" s="3">
         <v>44211200</v>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="E89" s="3">
         <v>2229300</v>
       </c>
-      <c r="F89" s="3" t="n">
+      <c r="F89" s="3">
         <v>152110.28</v>
       </c>
-      <c r="G89" s="18" t="n">
-        <v>88357110.28</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="17" t="n">
+      <c r="G89" s="10">
+        <v>88357110.280000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
         <v>45064</v>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="3">
         <v>36944300</v>
       </c>
-      <c r="C90" s="3" t="n">
+      <c r="C90" s="3">
         <v>7450300</v>
       </c>
-      <c r="D90" s="3" t="n">
+      <c r="D90" s="3">
         <v>51333100</v>
       </c>
-      <c r="E90" s="3" t="n">
+      <c r="E90" s="3">
         <v>2669500</v>
       </c>
-      <c r="F90" s="3" t="n">
+      <c r="F90" s="3">
         <v>247597.64</v>
       </c>
-      <c r="G90" s="18" t="n">
-        <v>98644797.64</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="17" t="n">
+      <c r="G90" s="10">
+        <v>98644797.640000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
         <v>45065</v>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="3">
         <v>36099600</v>
       </c>
-      <c r="C91" s="3" t="n">
+      <c r="C91" s="3">
         <v>7557300</v>
       </c>
-      <c r="D91" s="3" t="n">
+      <c r="D91" s="3">
         <v>48998600</v>
       </c>
-      <c r="E91" s="3" t="n">
+      <c r="E91" s="3">
         <v>2425700</v>
       </c>
-      <c r="F91" s="3" t="n">
+      <c r="F91" s="3">
         <v>205622.15</v>
       </c>
-      <c r="G91" s="18" t="n">
-        <v>95286822.15000001</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="17" t="n">
+      <c r="G91" s="10">
+        <v>95286822.150000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
         <v>45068</v>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="3">
         <v>34470900</v>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="C92" s="3">
         <v>7840500</v>
       </c>
-      <c r="D92" s="3" t="n">
+      <c r="D92" s="3">
         <v>45453300</v>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="E92" s="3">
         <v>2520600</v>
       </c>
-      <c r="F92" s="3" t="n">
+      <c r="F92" s="3">
         <v>196399.39</v>
       </c>
-      <c r="G92" s="18" t="n">
-        <v>90481699.39</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="17" t="n">
+      <c r="G92" s="10">
+        <v>90481699.390000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
         <v>45069</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="3">
         <v>32558600</v>
       </c>
-      <c r="C93" s="3" t="n">
+      <c r="C93" s="3">
         <v>7220800</v>
       </c>
-      <c r="D93" s="3" t="n">
+      <c r="D93" s="3">
         <v>44178600</v>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="3">
         <v>2293100</v>
       </c>
-      <c r="F93" s="3" t="n">
+      <c r="F93" s="3">
         <v>213074.22</v>
       </c>
-      <c r="G93" s="18" t="n">
-        <v>86464174.22</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="17" t="n">
+      <c r="G93" s="10">
+        <v>86464174.219999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
         <v>45070</v>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="3">
         <v>34359000</v>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="C94" s="3">
         <v>8230600</v>
       </c>
-      <c r="D94" s="3" t="n">
+      <c r="D94" s="3">
         <v>46187900</v>
       </c>
-      <c r="E94" s="3" t="n">
+      <c r="E94" s="3">
         <v>2603500</v>
       </c>
-      <c r="F94" s="3" t="n">
+      <c r="F94" s="3">
         <v>201549.03</v>
       </c>
-      <c r="G94" s="18" t="n">
-        <v>91582549.03</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="17" t="n">
+      <c r="G94" s="10">
+        <v>91582549.030000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
         <v>45071</v>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="3">
         <v>35011100</v>
       </c>
-      <c r="C95" s="3" t="n">
+      <c r="C95" s="3">
         <v>8657600</v>
       </c>
-      <c r="D95" s="3" t="n">
+      <c r="D95" s="3">
         <v>51039800</v>
       </c>
-      <c r="E95" s="3" t="n">
+      <c r="E95" s="3">
         <v>2487100</v>
       </c>
-      <c r="F95" s="3" t="n">
+      <c r="F95" s="3">
         <v>209301.24</v>
       </c>
-      <c r="G95" s="18" t="n">
-        <v>97404901.23999999</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="17" t="n">
+      <c r="G95" s="10">
+        <v>97404901.239999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
         <v>45072</v>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="3">
         <v>33441200</v>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="C96" s="3">
         <v>7596300</v>
       </c>
-      <c r="D96" s="3" t="n">
+      <c r="D96" s="3">
         <v>48817800</v>
       </c>
-      <c r="E96" s="3" t="n">
+      <c r="E96" s="3">
         <v>2283000</v>
       </c>
-      <c r="F96" s="3" t="n">
+      <c r="F96" s="3">
         <v>260301.86</v>
       </c>
-      <c r="G96" s="18" t="n">
-        <v>92398601.86</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="17" t="n">
+      <c r="G96" s="10">
+        <v>92398601.859999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
         <v>45075</v>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="3">
         <v>37972400</v>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="C97" s="3">
         <v>7842200</v>
       </c>
-      <c r="D97" s="3" t="n">
+      <c r="D97" s="3">
         <v>54427000</v>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" s="3">
         <v>2477100</v>
       </c>
-      <c r="F97" s="3" t="n">
+      <c r="F97" s="3">
         <v>208513.2</v>
       </c>
-      <c r="G97" s="18" t="n">
+      <c r="G97" s="10">
         <v>102927213.2</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="17" t="n">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
         <v>45076</v>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="3">
         <v>37798000</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="C98" s="3">
         <v>8352700</v>
       </c>
-      <c r="D98" s="3" t="n">
+      <c r="D98" s="3">
         <v>55837200</v>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" s="3">
         <v>2683700</v>
       </c>
-      <c r="F98" s="3" t="n">
+      <c r="F98" s="3">
         <v>181644.01</v>
       </c>
-      <c r="G98" s="18" t="n">
-        <v>104853244.01</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="17" t="n">
+      <c r="G98" s="10">
+        <v>104853244.01000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
         <v>45077</v>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="3">
         <v>38679200</v>
       </c>
-      <c r="C99" s="3" t="n">
+      <c r="C99" s="3">
         <v>9011200</v>
       </c>
-      <c r="D99" s="3" t="n">
+      <c r="D99" s="3">
         <v>55480400</v>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" s="3">
         <v>2645700</v>
       </c>
-      <c r="F99" s="3" t="n">
+      <c r="F99" s="3">
         <v>215092.21</v>
       </c>
-      <c r="G99" s="18" t="n">
-        <v>106031592.21</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="17" t="n">
+      <c r="G99" s="10">
+        <v>106031592.20999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
         <v>45078</v>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="3">
         <v>40193300</v>
       </c>
-      <c r="C100" s="3" t="n">
+      <c r="C100" s="3">
         <v>8986900</v>
       </c>
-      <c r="D100" s="3" t="n">
+      <c r="D100" s="3">
         <v>58721200</v>
       </c>
-      <c r="E100" s="3" t="n">
+      <c r="E100" s="3">
         <v>2837400</v>
       </c>
-      <c r="F100" s="3" t="n">
+      <c r="F100" s="3">
         <v>187926.65</v>
       </c>
-      <c r="G100" s="18" t="n">
-        <v>110926726.65</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="17" t="n">
+      <c r="G100" s="10">
+        <v>110926726.65000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
         <v>45079</v>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="3">
         <v>37858300</v>
       </c>
-      <c r="C101" s="3" t="n">
+      <c r="C101" s="3">
         <v>8565100</v>
       </c>
-      <c r="D101" s="3" t="n">
+      <c r="D101" s="3">
         <v>56403300</v>
       </c>
-      <c r="E101" s="3" t="n">
+      <c r="E101" s="3">
         <v>2595700</v>
       </c>
-      <c r="F101" s="3" t="n">
+      <c r="F101" s="3">
         <v>162040.53</v>
       </c>
-      <c r="G101" s="18" t="n">
+      <c r="G101" s="10">
         <v>105584440.53</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="17" t="n">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
         <v>45082</v>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="3">
         <v>36021200</v>
       </c>
-      <c r="C102" s="3" t="n">
+      <c r="C102" s="3">
         <v>7386000</v>
       </c>
-      <c r="D102" s="3" t="n">
+      <c r="D102" s="3">
         <v>51712500</v>
       </c>
-      <c r="E102" s="3" t="n">
+      <c r="E102" s="3">
         <v>2572100</v>
       </c>
-      <c r="F102" s="3" t="n">
+      <c r="F102" s="3">
         <v>128196.08</v>
       </c>
-      <c r="G102" s="18" t="n">
-        <v>97819996.08</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="17" t="n">
+      <c r="G102" s="10">
+        <v>97819996.079999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
         <v>45083</v>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="3">
         <v>38862100</v>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="C103" s="3">
         <v>7412500</v>
       </c>
-      <c r="D103" s="3" t="n">
+      <c r="D103" s="3">
         <v>55205500</v>
       </c>
-      <c r="E103" s="3" t="n">
+      <c r="E103" s="3">
         <v>2495000</v>
       </c>
-      <c r="F103" s="3" t="n">
+      <c r="F103" s="3">
         <v>170814.26</v>
       </c>
-      <c r="G103" s="18" t="n">
-        <v>104145914.26</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="17" t="n">
+      <c r="G103" s="10">
+        <v>104145914.26000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
         <v>45084</v>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="3">
         <v>33304200</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="C104" s="3">
         <v>7657200</v>
       </c>
-      <c r="D104" s="3" t="n">
+      <c r="D104" s="3">
         <v>48523200</v>
       </c>
-      <c r="E104" s="3" t="n">
+      <c r="E104" s="3">
         <v>2351200</v>
       </c>
-      <c r="F104" s="3" t="n">
-        <v>142355.2</v>
-      </c>
-      <c r="G104" s="18" t="n">
-        <v>91978155.2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="17" t="n">
+      <c r="F104" s="3">
+        <v>142355.20000000001</v>
+      </c>
+      <c r="G104" s="10">
+        <v>91978155.200000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
         <v>45085</v>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="3">
         <v>35498300</v>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="C105" s="3">
         <v>8160000</v>
       </c>
-      <c r="D105" s="3" t="n">
+      <c r="D105" s="3">
         <v>50699500</v>
       </c>
-      <c r="E105" s="3" t="n">
+      <c r="E105" s="3">
         <v>2623100</v>
       </c>
-      <c r="F105" s="3" t="n">
+      <c r="F105" s="3">
         <v>159168.9</v>
       </c>
-      <c r="G105" s="18" t="n">
-        <v>97140068.90000001</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="17" t="n">
+      <c r="G105" s="10">
+        <v>97140068.900000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
         <v>45086</v>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="3">
         <v>41455300</v>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="C106" s="3">
         <v>8466500</v>
       </c>
-      <c r="D106" s="3" t="n">
+      <c r="D106" s="3">
         <v>57769800</v>
       </c>
-      <c r="E106" s="3" t="n">
+      <c r="E106" s="3">
         <v>2519300</v>
       </c>
-      <c r="F106" s="3" t="n">
+      <c r="F106" s="3">
         <v>136745.75</v>
       </c>
-      <c r="G106" s="18" t="n">
+      <c r="G106" s="10">
         <v>110347645.75</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="17" t="n">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
         <v>45089</v>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="3">
         <v>40433000</v>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="C107" s="3">
         <v>7814000</v>
       </c>
-      <c r="D107" s="3" t="n">
+      <c r="D107" s="3">
         <v>56328800</v>
       </c>
-      <c r="E107" s="3" t="n">
+      <c r="E107" s="3">
         <v>2388100</v>
       </c>
-      <c r="F107" s="3" t="n">
-        <v>132394.39</v>
-      </c>
-      <c r="G107" s="18" t="n">
+      <c r="F107" s="3">
+        <v>132394.39000000001</v>
+      </c>
+      <c r="G107" s="10">
         <v>107096294.39</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="17" t="n">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
         <v>45090</v>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="3">
         <v>38102100</v>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="C108" s="3">
         <v>8363900</v>
       </c>
-      <c r="D108" s="3" t="n">
+      <c r="D108" s="3">
         <v>56644800</v>
       </c>
-      <c r="E108" s="3" t="n">
+      <c r="E108" s="3">
         <v>2386800</v>
       </c>
-      <c r="F108" s="3" t="n">
+      <c r="F108" s="3">
         <v>129472.15</v>
       </c>
-      <c r="G108" s="18" t="n">
-        <v>105627072.15</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="17" t="n">
+      <c r="G108" s="10">
+        <v>105627072.15000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
         <v>45091</v>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="3">
         <v>40545100</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="C109" s="3">
         <v>8746900</v>
       </c>
-      <c r="D109" s="3" t="n">
+      <c r="D109" s="3">
         <v>59773600</v>
       </c>
-      <c r="E109" s="3" t="n">
+      <c r="E109" s="3">
         <v>2576800</v>
       </c>
-      <c r="F109" s="3" t="n">
+      <c r="F109" s="3">
         <v>133888.06</v>
       </c>
-      <c r="G109" s="18" t="n">
+      <c r="G109" s="10">
         <v>111776288.06</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="17" t="n">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
         <v>45092</v>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="3">
         <v>43990800</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="C110" s="3">
         <v>9949500</v>
       </c>
-      <c r="D110" s="3" t="n">
+      <c r="D110" s="3">
         <v>63693200</v>
       </c>
-      <c r="E110" s="3" t="n">
+      <c r="E110" s="3">
         <v>3099700</v>
       </c>
-      <c r="F110" s="3" t="n">
-        <v>147138.45</v>
-      </c>
-      <c r="G110" s="18" t="n">
+      <c r="F110" s="3">
+        <v>147138.45000000001</v>
+      </c>
+      <c r="G110" s="10">
         <v>120880338.45</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="17" t="n">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
         <v>45093</v>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="3">
         <v>44705700</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="3">
         <v>10328700</v>
       </c>
-      <c r="D111" s="3" t="n">
+      <c r="D111" s="3">
         <v>62454900</v>
       </c>
-      <c r="E111" s="3" t="n">
+      <c r="E111" s="3">
         <v>2965400</v>
       </c>
-      <c r="F111" s="3" t="n">
+      <c r="F111" s="3">
         <v>135744.76</v>
       </c>
-      <c r="G111" s="18" t="n">
-        <v>120590444.76</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="17" t="n">
+      <c r="G111" s="10">
+        <v>120590444.76000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
         <v>45096</v>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="3">
         <v>45657200</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="C112" s="3">
         <v>8713700</v>
       </c>
-      <c r="D112" s="3" t="n">
+      <c r="D112" s="3">
         <v>65308200</v>
       </c>
-      <c r="E112" s="3" t="n">
+      <c r="E112" s="3">
         <v>2599300</v>
       </c>
-      <c r="F112" s="3" t="n">
-        <v>156107.58</v>
-      </c>
-      <c r="G112" s="18" t="n">
+      <c r="F112" s="3">
+        <v>156107.57999999999</v>
+      </c>
+      <c r="G112" s="10">
         <v>122434507.58</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="17" t="n">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
         <v>45097</v>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="3">
         <v>43466200</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="C113" s="3">
         <v>9030500</v>
       </c>
-      <c r="D113" s="3" t="n">
+      <c r="D113" s="3">
         <v>65884800</v>
       </c>
-      <c r="E113" s="3" t="n">
+      <c r="E113" s="3">
         <v>2561900</v>
       </c>
-      <c r="F113" s="3" t="n">
+      <c r="F113" s="3">
         <v>180187.9</v>
       </c>
-      <c r="G113" s="18" t="n">
-        <v>121123587.9</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="17" t="n">
+      <c r="G113" s="10">
+        <v>121123587.90000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
         <v>45098</v>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="3">
         <v>40784200</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="C114" s="3">
         <v>9830100</v>
       </c>
-      <c r="D114" s="3" t="n">
+      <c r="D114" s="3">
         <v>61688400</v>
       </c>
-      <c r="E114" s="3" t="n">
+      <c r="E114" s="3">
         <v>2880000</v>
       </c>
-      <c r="F114" s="3" t="n">
+      <c r="F114" s="3">
         <v>210192.41</v>
       </c>
-      <c r="G114" s="18" t="n">
+      <c r="G114" s="10">
         <v>115392892.41</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="17" t="n">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
         <v>45103</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="3">
         <v>39987500</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="C115" s="3">
         <v>9937400</v>
       </c>
-      <c r="D115" s="3" t="n">
+      <c r="D115" s="3">
         <v>58082500</v>
       </c>
-      <c r="E115" s="3" t="n">
+      <c r="E115" s="3">
         <v>2967300</v>
       </c>
-      <c r="F115" s="3" t="n">
+      <c r="F115" s="3">
         <v>205914.96</v>
       </c>
-      <c r="G115" s="18" t="n">
-        <v>111180614.96</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="17" t="n">
+      <c r="G115" s="10">
+        <v>111180614.95999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
         <v>45104</v>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="3">
         <v>35882900</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="C116" s="3">
         <v>8442100</v>
       </c>
-      <c r="D116" s="3" t="n">
+      <c r="D116" s="3">
         <v>48938300</v>
       </c>
-      <c r="E116" s="3" t="n">
+      <c r="E116" s="3">
         <v>2500900</v>
       </c>
-      <c r="F116" s="3" t="n">
-        <v>144969.48</v>
-      </c>
-      <c r="G116" s="18" t="n">
-        <v>95909169.48</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="17" t="n">
+      <c r="F116" s="3">
+        <v>144969.48000000001</v>
+      </c>
+      <c r="G116" s="10">
+        <v>95909169.480000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
         <v>45105</v>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="3">
         <v>36140600</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="C117" s="3">
         <v>8954000</v>
       </c>
-      <c r="D117" s="3" t="n">
+      <c r="D117" s="3">
         <v>53076000</v>
       </c>
-      <c r="E117" s="3" t="n">
+      <c r="E117" s="3">
         <v>2688500</v>
       </c>
-      <c r="F117" s="3" t="n">
+      <c r="F117" s="3">
         <v>162653.87</v>
       </c>
-      <c r="G117" s="18" t="n">
+      <c r="G117" s="10">
         <v>101021753.87</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="17" t="n">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
         <v>45106</v>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="3">
         <v>34405400</v>
       </c>
-      <c r="C118" s="3" t="n">
+      <c r="C118" s="3">
         <v>8562900</v>
       </c>
-      <c r="D118" s="3" t="n">
+      <c r="D118" s="3">
         <v>52583500</v>
       </c>
-      <c r="E118" s="3" t="n">
+      <c r="E118" s="3">
         <v>2428400</v>
       </c>
-      <c r="F118" s="3" t="n">
+      <c r="F118" s="3">
         <v>238234.12</v>
       </c>
-      <c r="G118" s="18" t="n">
-        <v>98218434.12</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="17" t="n">
+      <c r="G118" s="10">
+        <v>98218434.120000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
         <v>45107</v>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="3">
         <v>36041700</v>
       </c>
-      <c r="C119" s="3" t="n">
+      <c r="C119" s="3">
         <v>9716800</v>
       </c>
-      <c r="D119" s="3" t="n">
+      <c r="D119" s="3">
         <v>56052600</v>
       </c>
-      <c r="E119" s="3" t="n">
+      <c r="E119" s="3">
         <v>2721900</v>
       </c>
-      <c r="F119" s="3" t="n">
+      <c r="F119" s="3">
         <v>195233.44</v>
       </c>
-      <c r="G119" s="18" t="n">
+      <c r="G119" s="10">
         <v>104728233.44</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="17" t="n">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
         <v>45110</v>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="3">
         <v>42240500</v>
       </c>
-      <c r="C120" s="3" t="n">
+      <c r="C120" s="3">
         <v>9273300</v>
       </c>
-      <c r="D120" s="3" t="n">
+      <c r="D120" s="3">
         <v>60484300</v>
       </c>
-      <c r="E120" s="3" t="n">
+      <c r="E120" s="3">
         <v>2532500</v>
       </c>
-      <c r="F120" s="3" t="n">
-        <v>166196.73</v>
-      </c>
-      <c r="G120" s="18" t="n">
+      <c r="F120" s="3">
+        <v>166196.73000000001</v>
+      </c>
+      <c r="G120" s="10">
         <v>114696796.73</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="17" t="n">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
         <v>45111</v>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="3">
         <v>38994700</v>
       </c>
-      <c r="C121" s="3" t="n">
+      <c r="C121" s="3">
         <v>7081100</v>
       </c>
-      <c r="D121" s="3" t="n">
+      <c r="D121" s="3">
         <v>54348900</v>
       </c>
-      <c r="E121" s="3" t="n">
+      <c r="E121" s="3">
         <v>2263200</v>
       </c>
-      <c r="F121" s="3" t="n">
+      <c r="F121" s="3">
         <v>183227.81</v>
       </c>
-      <c r="G121" s="18" t="n">
+      <c r="G121" s="10">
         <v>102871127.81</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="17" t="n">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
         <v>45112</v>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="3">
         <v>35219900</v>
       </c>
-      <c r="C122" s="3" t="n">
+      <c r="C122" s="3">
         <v>6520700</v>
       </c>
-      <c r="D122" s="3" t="n">
+      <c r="D122" s="3">
         <v>51814000</v>
       </c>
-      <c r="E122" s="3" t="n">
+      <c r="E122" s="3">
         <v>2308600</v>
       </c>
-      <c r="F122" s="3" t="n">
+      <c r="F122" s="3">
         <v>226296.93</v>
       </c>
-      <c r="G122" s="18" t="n">
-        <v>96089496.93000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="17" t="n">
+      <c r="G122" s="10">
+        <v>96089496.930000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
         <v>45113</v>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="3">
         <v>32549600</v>
       </c>
-      <c r="C123" s="3" t="n">
+      <c r="C123" s="3">
         <v>7159300</v>
       </c>
-      <c r="D123" s="3" t="n">
+      <c r="D123" s="3">
         <v>50002600</v>
       </c>
-      <c r="E123" s="3" t="n">
+      <c r="E123" s="3">
         <v>2394500</v>
       </c>
-      <c r="F123" s="3" t="n">
+      <c r="F123" s="3">
         <v>171054.03</v>
       </c>
-      <c r="G123" s="18" t="n">
-        <v>92277054.03</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="17" t="n">
+      <c r="G123" s="10">
+        <v>92277054.030000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
         <v>45114</v>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="3">
         <v>31528000</v>
       </c>
-      <c r="C124" s="3" t="n">
+      <c r="C124" s="3">
         <v>7555800</v>
       </c>
-      <c r="D124" s="3" t="n">
+      <c r="D124" s="3">
         <v>48753400</v>
       </c>
-      <c r="E124" s="3" t="n">
+      <c r="E124" s="3">
         <v>2456300</v>
       </c>
-      <c r="F124" s="3" t="n">
+      <c r="F124" s="3">
         <v>175260.48</v>
       </c>
-      <c r="G124" s="18" t="n">
-        <v>90468760.48</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="17" t="n">
+      <c r="G124" s="10">
+        <v>90468760.480000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
         <v>45117</v>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="3">
         <v>31249100</v>
       </c>
-      <c r="C125" s="3" t="n">
+      <c r="C125" s="3">
         <v>6814800</v>
       </c>
-      <c r="D125" s="3" t="n">
+      <c r="D125" s="3">
         <v>45076000</v>
       </c>
-      <c r="E125" s="3" t="n">
+      <c r="E125" s="3">
         <v>2322700</v>
       </c>
-      <c r="F125" s="3" t="n">
-        <v>166458.92</v>
-      </c>
-      <c r="G125" s="18" t="n">
-        <v>85629058.92</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="17" t="n">
+      <c r="F125" s="3">
+        <v>166458.92000000001</v>
+      </c>
+      <c r="G125" s="10">
+        <v>85629058.920000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
         <v>45118</v>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="3">
         <v>31314000</v>
       </c>
-      <c r="C126" s="3" t="n">
+      <c r="C126" s="3">
         <v>7266400</v>
       </c>
-      <c r="D126" s="3" t="n">
+      <c r="D126" s="3">
         <v>46532300</v>
       </c>
-      <c r="E126" s="3" t="n">
+      <c r="E126" s="3">
         <v>2133500</v>
       </c>
-      <c r="F126" s="3" t="n">
+      <c r="F126" s="3">
         <v>121832.44</v>
       </c>
-      <c r="G126" s="18" t="n">
-        <v>87368032.44</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="17" t="n">
+      <c r="G126" s="10">
+        <v>87368032.439999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
         <v>45119</v>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="3">
         <v>36683500</v>
       </c>
-      <c r="C127" s="3" t="n">
+      <c r="C127" s="3">
         <v>7252100</v>
       </c>
-      <c r="D127" s="3" t="n">
+      <c r="D127" s="3">
         <v>64750700</v>
       </c>
-      <c r="E127" s="3" t="n">
+      <c r="E127" s="3">
         <v>2241600</v>
       </c>
-      <c r="F127" s="3" t="n">
+      <c r="F127" s="3">
         <v>151932.44</v>
       </c>
-      <c r="G127" s="18" t="n">
+      <c r="G127" s="10">
         <v>111079832.44</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="17" t="n">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
         <v>45120</v>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="3">
         <v>37462700</v>
       </c>
-      <c r="C128" s="3" t="n">
+      <c r="C128" s="3">
         <v>9615800</v>
       </c>
-      <c r="D128" s="3" t="n">
+      <c r="D128" s="3">
         <v>54934800</v>
       </c>
-      <c r="E128" s="3" t="n">
+      <c r="E128" s="3">
         <v>2776600</v>
       </c>
-      <c r="F128" s="3" t="n">
+      <c r="F128" s="3">
         <v>143196.75</v>
       </c>
-      <c r="G128" s="18" t="n">
+      <c r="G128" s="10">
         <v>104933096.75</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="17" t="n">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
         <v>45121</v>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="3">
         <v>36979300</v>
       </c>
-      <c r="C129" s="3" t="n">
+      <c r="C129" s="3">
         <v>7143400</v>
       </c>
-      <c r="D129" s="3" t="n">
+      <c r="D129" s="3">
         <v>55611700</v>
       </c>
-      <c r="E129" s="3" t="n">
+      <c r="E129" s="3">
         <v>2123000</v>
       </c>
-      <c r="F129" s="3" t="n">
+      <c r="F129" s="3">
         <v>179051.14</v>
       </c>
-      <c r="G129" s="18" t="n">
+      <c r="G129" s="10">
         <v>102036451.14</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="17" t="n">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
         <v>45124</v>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="3">
         <v>32340700</v>
       </c>
-      <c r="C130" s="3" t="n">
+      <c r="C130" s="3">
         <v>8485200</v>
       </c>
-      <c r="D130" s="3" t="n">
+      <c r="D130" s="3">
         <v>48297700</v>
       </c>
-      <c r="E130" s="3" t="n">
+      <c r="E130" s="3">
         <v>1874600</v>
       </c>
-      <c r="F130" s="3" t="n">
+      <c r="F130" s="3">
         <v>148182.76</v>
       </c>
-      <c r="G130" s="18" t="n">
-        <v>91146382.76000001</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="17" t="n">
+      <c r="G130" s="10">
+        <v>91146382.760000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
         <v>45125</v>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="3">
         <v>30891900</v>
       </c>
-      <c r="C131" s="3" t="n">
+      <c r="C131" s="3">
         <v>7018500</v>
       </c>
-      <c r="D131" s="3" t="n">
+      <c r="D131" s="3">
         <v>47104200</v>
       </c>
-      <c r="E131" s="3" t="n">
+      <c r="E131" s="3">
         <v>1969100</v>
       </c>
-      <c r="F131" s="3" t="n">
+      <c r="F131" s="3">
         <v>138130.66</v>
       </c>
-      <c r="G131" s="18" t="n">
-        <v>87121830.66</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="17" t="n">
+      <c r="G131" s="10">
+        <v>87121830.659999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
         <v>45126</v>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="3">
         <v>28211500</v>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="C132" s="3">
         <v>7634600</v>
       </c>
-      <c r="D132" s="3" t="n">
+      <c r="D132" s="3">
         <v>42271300</v>
       </c>
-      <c r="E132" s="3" t="n">
+      <c r="E132" s="3">
         <v>2279100</v>
       </c>
-      <c r="F132" s="3" t="n">
+      <c r="F132" s="3">
         <v>130830.64</v>
       </c>
-      <c r="G132" s="18" t="n">
-        <v>80527330.64</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="17" t="n">
+      <c r="G132" s="10">
+        <v>80527330.640000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
         <v>45127</v>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="3">
         <v>30316800</v>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="C133" s="3">
         <v>8092800</v>
       </c>
-      <c r="D133" s="3" t="n">
+      <c r="D133" s="3">
         <v>48444400</v>
       </c>
-      <c r="E133" s="3" t="n">
+      <c r="E133" s="3">
         <v>2675400</v>
       </c>
-      <c r="F133" s="3" t="n">
+      <c r="F133" s="3">
         <v>215916.05</v>
       </c>
-      <c r="G133" s="18" t="n">
-        <v>89745316.05</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="17" t="n">
+      <c r="G133" s="10">
+        <v>89745316.049999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
         <v>45128</v>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="3">
         <v>28188700</v>
       </c>
-      <c r="C134" s="3" t="n">
+      <c r="C134" s="3">
         <v>8084000</v>
       </c>
-      <c r="D134" s="3" t="n">
+      <c r="D134" s="3">
         <v>43122400</v>
       </c>
-      <c r="E134" s="3" t="n">
+      <c r="E134" s="3">
         <v>2413700</v>
       </c>
-      <c r="F134" s="3" t="n">
+      <c r="F134" s="3">
         <v>144560.74</v>
       </c>
-      <c r="G134" s="18" t="n">
-        <v>81953360.73999999</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="17" t="n">
+      <c r="G134" s="10">
+        <v>81953360.739999995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
         <v>45131</v>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="3">
         <v>26122000</v>
       </c>
-      <c r="C135" s="3" t="n">
+      <c r="C135" s="3">
         <v>6868700</v>
       </c>
-      <c r="D135" s="3" t="n">
+      <c r="D135" s="3">
         <v>39979100</v>
       </c>
-      <c r="E135" s="3" t="n">
+      <c r="E135" s="3">
         <v>2181400</v>
       </c>
-      <c r="F135" s="3" t="n">
+      <c r="F135" s="3">
         <v>120970.4</v>
       </c>
-      <c r="G135" s="18" t="n">
-        <v>75272170.40000001</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="17" t="n">
+      <c r="G135" s="10">
+        <v>75272170.400000006</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
         <v>45132</v>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="3">
         <v>41226100</v>
       </c>
-      <c r="C136" s="3" t="n">
+      <c r="C136" s="3">
         <v>11757100</v>
       </c>
-      <c r="D136" s="3" t="n">
+      <c r="D136" s="3">
         <v>54074000</v>
       </c>
-      <c r="E136" s="3" t="n">
+      <c r="E136" s="3">
         <v>3182100</v>
       </c>
-      <c r="F136" s="3" t="n">
+      <c r="F136" s="3">
         <v>119908.9</v>
       </c>
-      <c r="G136" s="18" t="n">
-        <v>110359208.9</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="17" t="n">
+      <c r="G136" s="10">
+        <v>110359208.90000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
         <v>45133</v>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="3">
         <v>33357000</v>
       </c>
-      <c r="C137" s="3" t="n">
+      <c r="C137" s="3">
         <v>8739800</v>
       </c>
-      <c r="D137" s="3" t="n">
+      <c r="D137" s="3">
         <v>46519400</v>
       </c>
-      <c r="E137" s="3" t="n">
+      <c r="E137" s="3">
         <v>2450100</v>
       </c>
-      <c r="F137" s="3" t="n">
+      <c r="F137" s="3">
         <v>111389.65</v>
       </c>
-      <c r="G137" s="18" t="n">
-        <v>91177689.65000001</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="17" t="n">
+      <c r="G137" s="10">
+        <v>91177689.650000006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="9">
         <v>45134</v>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="3">
         <v>33394500</v>
       </c>
-      <c r="C138" s="3" t="n">
+      <c r="C138" s="3">
         <v>9276200</v>
       </c>
-      <c r="D138" s="3" t="n">
+      <c r="D138" s="3">
         <v>44990700</v>
       </c>
-      <c r="E138" s="3" t="n">
+      <c r="E138" s="3">
         <v>2549000</v>
       </c>
-      <c r="F138" s="3" t="n">
+      <c r="F138" s="3">
         <v>116737.39</v>
       </c>
-      <c r="G138" s="18" t="n">
-        <v>90327137.39</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="17" t="n">
+      <c r="G138" s="10">
+        <v>90327137.390000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
         <v>45135</v>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="4">
         <v>43832700</v>
       </c>
-      <c r="C139" s="3" t="n">
+      <c r="C139" s="3">
         <v>12524300</v>
       </c>
-      <c r="D139" s="4" t="n">
+      <c r="D139" s="4">
         <v>51277000</v>
       </c>
-      <c r="E139" s="3" t="n">
+      <c r="E139" s="3">
         <v>3200400</v>
       </c>
-      <c r="F139" s="4" t="n">
+      <c r="F139" s="4">
         <v>133897.9</v>
       </c>
-      <c r="G139" s="18" t="n">
-        <v>110968297.9</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="17" t="n">
+      <c r="G139" s="10">
+        <v>110968297.90000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
         <v>45138</v>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="3">
         <v>51231700</v>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="C140" s="3">
         <v>13567200</v>
       </c>
-      <c r="D140" s="3" t="n">
+      <c r="D140" s="3">
         <v>59460700</v>
       </c>
-      <c r="E140" s="3" t="n">
+      <c r="E140" s="3">
         <v>3239600</v>
       </c>
-      <c r="F140" s="3" t="n">
+      <c r="F140" s="3">
         <v>127873.22</v>
       </c>
-      <c r="G140" s="18" t="n">
+      <c r="G140" s="10">
         <v>127627073.22</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="17" t="n">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="9">
         <v>45139</v>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="3">
         <v>44195400</v>
       </c>
-      <c r="C141" s="3" t="n">
+      <c r="C141" s="3">
         <v>10962600</v>
       </c>
-      <c r="D141" s="3" t="n">
+      <c r="D141" s="3">
         <v>51717600</v>
       </c>
-      <c r="E141" s="3" t="n">
+      <c r="E141" s="3">
         <v>2939000</v>
       </c>
-      <c r="F141" s="3" t="n">
+      <c r="F141" s="3">
         <v>110782.21</v>
       </c>
-      <c r="G141" s="18" t="n">
-        <v>109925382.21</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="17" t="n">
+      <c r="G141" s="10">
+        <v>109925382.20999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
         <v>45140</v>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="3">
         <v>38939000</v>
       </c>
-      <c r="C142" s="3" t="n">
+      <c r="C142" s="3">
         <v>9442200</v>
       </c>
-      <c r="D142" s="3" t="n">
+      <c r="D142" s="3">
         <v>44879400</v>
       </c>
-      <c r="E142" s="3" t="n">
+      <c r="E142" s="3">
         <v>2661200</v>
       </c>
-      <c r="F142" s="3" t="n">
+      <c r="F142" s="3">
         <v>111630.18</v>
       </c>
-      <c r="G142" s="18" t="n">
-        <v>96033430.18000001</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="17" t="n">
+      <c r="G142" s="10">
+        <v>96033430.180000007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
         <v>45141</v>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="3">
         <v>39022100</v>
       </c>
-      <c r="C143" s="3" t="n">
+      <c r="C143" s="3">
         <v>9299600</v>
       </c>
-      <c r="D143" s="3" t="n">
+      <c r="D143" s="3">
         <v>44425500</v>
       </c>
-      <c r="E143" s="3" t="n">
+      <c r="E143" s="3">
         <v>2833200</v>
       </c>
-      <c r="F143" s="3" t="n">
+      <c r="F143" s="3">
         <v>100763.03</v>
       </c>
-      <c r="G143" s="18" t="n">
-        <v>95681163.03</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="17" t="n">
+      <c r="G143" s="10">
+        <v>95681163.030000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
         <v>45142</v>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="3">
         <v>49803200</v>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="C144" s="3">
         <v>11018700</v>
       </c>
-      <c r="D144" s="3" t="n">
+      <c r="D144" s="3">
         <v>55261100</v>
       </c>
-      <c r="E144" s="3" t="n">
+      <c r="E144" s="3">
         <v>3126900</v>
       </c>
-      <c r="F144" s="3" t="n">
+      <c r="F144" s="3">
         <v>109576.21</v>
       </c>
-      <c r="G144" s="18" t="n">
-        <v>119319476.21</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="17" t="n">
+      <c r="G144" s="10">
+        <v>119319476.20999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="9">
         <v>45145</v>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="3">
         <v>39397200</v>
       </c>
-      <c r="C145" s="3" t="n">
+      <c r="C145" s="3">
         <v>8938300</v>
       </c>
-      <c r="D145" s="3" t="n">
+      <c r="D145" s="3">
         <v>49743700</v>
       </c>
-      <c r="E145" s="3" t="n">
+      <c r="E145" s="3">
         <v>2807700</v>
       </c>
-      <c r="F145" s="3" t="n">
+      <c r="F145" s="3">
         <v>107845.49</v>
       </c>
-      <c r="G145" s="18" t="n">
-        <v>100994745.49</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="17" t="n">
+      <c r="G145" s="10">
+        <v>100994745.48999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
         <v>45146</v>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="3">
         <v>35647800</v>
       </c>
-      <c r="C146" s="3" t="n">
+      <c r="C146" s="3">
         <v>8244100</v>
       </c>
-      <c r="D146" s="3" t="n">
+      <c r="D146" s="3">
         <v>44368500</v>
       </c>
-      <c r="E146" s="3" t="n">
+      <c r="E146" s="3">
         <v>2712800</v>
       </c>
-      <c r="F146" s="3" t="n">
+      <c r="F146" s="3">
         <v>98377.11</v>
       </c>
-      <c r="G146" s="18" t="n">
-        <v>91071577.11</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="17" t="n">
+      <c r="G146" s="10">
+        <v>91071577.109999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="9">
         <v>45147</v>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="3">
         <v>31025800</v>
       </c>
-      <c r="C147" s="3" t="n">
+      <c r="C147" s="3">
         <v>8307700</v>
       </c>
-      <c r="D147" s="3" t="n">
+      <c r="D147" s="3">
         <v>42737300</v>
       </c>
-      <c r="E147" s="3" t="n">
+      <c r="E147" s="3">
         <v>2696800</v>
       </c>
-      <c r="F147" s="3" t="n">
+      <c r="F147" s="3">
         <v>97719.06</v>
       </c>
-      <c r="G147" s="18" t="n">
-        <v>84865319.06</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="17" t="n">
+      <c r="G147" s="10">
+        <v>84865319.060000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="9">
         <v>45148</v>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="3">
         <v>30842000</v>
       </c>
-      <c r="C148" s="3" t="n">
+      <c r="C148" s="3">
         <v>8359300</v>
       </c>
-      <c r="D148" s="3" t="n">
+      <c r="D148" s="3">
         <v>38778500</v>
       </c>
-      <c r="E148" s="3" t="n">
+      <c r="E148" s="3">
         <v>2382200</v>
       </c>
-      <c r="F148" s="3" t="n">
+      <c r="F148" s="3">
         <v>106797.19</v>
       </c>
-      <c r="G148" s="18" t="n">
-        <v>80468797.19</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="17" t="n">
+      <c r="G148" s="10">
+        <v>80468797.189999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
         <v>45149</v>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="3">
         <v>33978600</v>
       </c>
-      <c r="C149" s="3" t="n">
+      <c r="C149" s="3">
         <v>9412500</v>
       </c>
-      <c r="D149" s="3" t="n">
+      <c r="D149" s="3">
         <v>42469700</v>
       </c>
-      <c r="E149" s="3" t="n">
+      <c r="E149" s="3">
         <v>3083300</v>
       </c>
-      <c r="F149" s="3" t="n">
-        <v>95115.67999999999</v>
-      </c>
-      <c r="G149" s="18" t="n">
-        <v>89039215.68000001</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="17" t="n">
+      <c r="F149" s="3">
+        <v>95115.68</v>
+      </c>
+      <c r="G149" s="10">
+        <v>89039215.680000007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="9">
         <v>45152</v>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="3">
         <v>32410700</v>
       </c>
-      <c r="C150" s="3" t="n">
+      <c r="C150" s="3">
         <v>8909200</v>
       </c>
-      <c r="D150" s="3" t="n">
+      <c r="D150" s="3">
         <v>42268500</v>
       </c>
-      <c r="E150" s="3" t="n">
+      <c r="E150" s="3">
         <v>2805400</v>
       </c>
-      <c r="F150" s="3" t="n">
+      <c r="F150" s="3">
         <v>76219.8</v>
       </c>
-      <c r="G150" s="18" t="n">
-        <v>86470019.8</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="17" t="n">
+      <c r="G150" s="10">
+        <v>86470019.799999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
         <v>45153</v>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="3">
         <v>30182400</v>
       </c>
-      <c r="C151" s="3" t="n">
+      <c r="C151" s="3">
         <v>8716000</v>
       </c>
-      <c r="D151" s="3" t="n">
+      <c r="D151" s="3">
         <v>40654600</v>
       </c>
-      <c r="E151" s="3" t="n">
+      <c r="E151" s="3">
         <v>2553100</v>
       </c>
-      <c r="F151" s="3" t="n">
+      <c r="F151" s="3">
         <v>65901.64</v>
       </c>
-      <c r="G151" s="18" t="n">
-        <v>82172001.64</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="17" t="n">
+      <c r="G151" s="10">
+        <v>82172001.640000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
         <v>45154</v>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="3">
         <v>30418600</v>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="C152" s="3">
         <v>8067300</v>
       </c>
-      <c r="D152" s="3" t="n">
+      <c r="D152" s="3">
         <v>40198900</v>
       </c>
-      <c r="E152" s="3" t="n">
+      <c r="E152" s="3">
         <v>2422000</v>
       </c>
-      <c r="F152" s="3" t="n">
-        <v>95567.89999999999</v>
-      </c>
-      <c r="G152" s="18" t="n">
-        <v>81202367.90000001</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="17" t="n">
+      <c r="F152" s="3">
+        <v>95567.9</v>
+      </c>
+      <c r="G152" s="10">
+        <v>81202367.900000006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="9">
         <v>45155</v>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="3">
         <v>32302800</v>
       </c>
-      <c r="C153" s="3" t="n">
+      <c r="C153" s="3">
         <v>10525600</v>
       </c>
-      <c r="D153" s="3" t="n">
+      <c r="D153" s="3">
         <v>42039100</v>
       </c>
-      <c r="E153" s="3" t="n">
+      <c r="E153" s="3">
         <v>2983800</v>
       </c>
-      <c r="F153" s="3" t="n">
+      <c r="F153" s="3">
         <v>103399.41</v>
       </c>
-      <c r="G153" s="18" t="n">
-        <v>87954699.41</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="17" t="n">
+      <c r="G153" s="10">
+        <v>87954699.409999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="9">
         <v>45156</v>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="3">
         <v>32234800</v>
       </c>
-      <c r="C154" s="3" t="n">
+      <c r="C154" s="3">
         <v>9726600</v>
       </c>
-      <c r="D154" s="3" t="n">
+      <c r="D154" s="3">
         <v>42539300</v>
       </c>
-      <c r="E154" s="3" t="n">
+      <c r="E154" s="3">
         <v>2485900</v>
       </c>
-      <c r="F154" s="3" t="n">
+      <c r="F154" s="3">
         <v>101529.2</v>
       </c>
-      <c r="G154" s="18" t="n">
-        <v>87088129.2</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="17" t="n">
+      <c r="G154" s="10">
+        <v>87088129.200000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="9">
         <v>45159</v>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="3">
         <v>29476600</v>
       </c>
-      <c r="C155" s="3" t="n">
+      <c r="C155" s="3">
         <v>9436100</v>
       </c>
-      <c r="D155" s="3" t="n">
+      <c r="D155" s="3">
         <v>38576600</v>
       </c>
-      <c r="E155" s="3" t="n">
+      <c r="E155" s="3">
         <v>2485100</v>
       </c>
-      <c r="F155" s="3" t="n">
+      <c r="F155" s="3">
         <v>83964.47</v>
       </c>
-      <c r="G155" s="18" t="n">
-        <v>80058364.47</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="17" t="n">
+      <c r="G155" s="10">
+        <v>80058364.469999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="9">
         <v>45160</v>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="3">
         <v>35029200</v>
       </c>
-      <c r="C156" s="3" t="n">
+      <c r="C156" s="3">
         <v>10772800</v>
       </c>
-      <c r="D156" s="3" t="n">
+      <c r="D156" s="3">
         <v>47088400</v>
       </c>
-      <c r="E156" s="3" t="n">
+      <c r="E156" s="3">
         <v>3128200</v>
       </c>
-      <c r="F156" s="3" t="n">
+      <c r="F156" s="3">
         <v>108474.43</v>
       </c>
-      <c r="G156" s="18" t="n">
-        <v>96127074.43000001</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="17" t="n">
+      <c r="G156" s="10">
+        <v>96127074.430000007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="9">
         <v>45161</v>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="3">
         <v>29928800</v>
       </c>
-      <c r="C157" s="3" t="n">
+      <c r="C157" s="3">
         <v>9216600</v>
       </c>
-      <c r="D157" s="3" t="n">
+      <c r="D157" s="3">
         <v>40841900</v>
       </c>
-      <c r="E157" s="3" t="n">
+      <c r="E157" s="3">
         <v>2789200</v>
       </c>
-      <c r="F157" s="3" t="n">
+      <c r="F157" s="3">
         <v>119635.21</v>
       </c>
-      <c r="G157" s="18" t="n">
-        <v>82896135.20999999</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="17" t="n">
+      <c r="G157" s="10">
+        <v>82896135.209999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="9">
         <v>45162</v>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="3">
         <v>33425200</v>
       </c>
-      <c r="C158" s="3" t="n">
+      <c r="C158" s="3">
         <v>10813000</v>
       </c>
-      <c r="D158" s="3" t="n">
+      <c r="D158" s="3">
         <v>45390500</v>
       </c>
-      <c r="E158" s="3" t="n">
+      <c r="E158" s="3">
         <v>3113800</v>
       </c>
-      <c r="F158" s="3" t="n">
+      <c r="F158" s="3">
         <v>117065.35</v>
       </c>
-      <c r="G158" s="18" t="n">
-        <v>92859565.34999999</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="17" t="n">
+      <c r="G158" s="10">
+        <v>92859565.349999994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="9">
         <v>45163</v>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="3">
         <v>31925500</v>
       </c>
-      <c r="C159" s="3" t="n">
+      <c r="C159" s="3">
         <v>10476100</v>
       </c>
-      <c r="D159" s="3" t="n">
+      <c r="D159" s="3">
         <v>44892000</v>
       </c>
-      <c r="E159" s="3" t="n">
+      <c r="E159" s="3">
         <v>2715300</v>
       </c>
-      <c r="F159" s="3" t="n">
+      <c r="F159" s="3">
         <v>129840.89</v>
       </c>
-      <c r="G159" s="18" t="n">
-        <v>90138740.89</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="17" t="n">
+      <c r="G159" s="10">
+        <v>90138740.890000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
         <v>45166</v>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="3">
         <v>51831900</v>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="C160" s="3">
         <v>16644400</v>
       </c>
-      <c r="D160" s="3" t="n">
+      <c r="D160" s="3">
         <v>61045800</v>
       </c>
-      <c r="E160" s="3" t="n">
+      <c r="E160" s="3">
         <v>3751400</v>
       </c>
-      <c r="F160" s="3" t="n">
+      <c r="F160" s="3">
         <v>145330.38</v>
       </c>
-      <c r="G160" s="18" t="n">
+      <c r="G160" s="10">
         <v>133418830.38</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="17" t="n">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="9">
         <v>45167</v>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="3">
         <v>44548800</v>
       </c>
-      <c r="C161" s="3" t="n">
+      <c r="C161" s="3">
         <v>14708400</v>
       </c>
-      <c r="D161" s="3" t="n">
+      <c r="D161" s="3">
         <v>59479200</v>
       </c>
-      <c r="E161" s="3" t="n">
+      <c r="E161" s="3">
         <v>3268000</v>
       </c>
-      <c r="F161" s="3" t="n">
+      <c r="F161" s="3">
         <v>126736.6</v>
       </c>
-      <c r="G161" s="18" t="n">
-        <v>122131136.6</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="17" t="n">
+      <c r="G161" s="10">
+        <v>122131136.59999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
         <v>45168</v>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="3">
         <v>41579100</v>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="C162" s="3">
         <v>11898600</v>
       </c>
-      <c r="D162" s="3" t="n">
+      <c r="D162" s="3">
         <v>57248100</v>
       </c>
-      <c r="E162" s="3" t="n">
+      <c r="E162" s="3">
         <v>2931800</v>
       </c>
-      <c r="F162" s="3" t="n">
+      <c r="F162" s="3">
         <v>115721.3</v>
       </c>
-      <c r="G162" s="18" t="n">
+      <c r="G162" s="10">
         <v>113773321.3</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="17" t="n">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
         <v>45169</v>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="3">
         <v>36392900</v>
       </c>
-      <c r="C163" s="3" t="n">
+      <c r="C163" s="3">
         <v>10340800</v>
       </c>
-      <c r="D163" s="3" t="n">
+      <c r="D163" s="3">
         <v>46775400</v>
       </c>
-      <c r="E163" s="3" t="n">
+      <c r="E163" s="3">
         <v>2483500</v>
       </c>
-      <c r="F163" s="3" t="n">
+      <c r="F163" s="3">
         <v>100325.96</v>
       </c>
-      <c r="G163" s="18" t="n">
-        <v>96092925.95999999</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="17" t="n">
+      <c r="G163" s="10">
+        <v>96092925.959999993</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
         <v>45170</v>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="3">
         <v>33517500</v>
       </c>
-      <c r="C164" s="3" t="n">
+      <c r="C164" s="3">
         <v>8145200</v>
       </c>
-      <c r="D164" s="3" t="n">
+      <c r="D164" s="3">
         <v>41163600</v>
       </c>
-      <c r="E164" s="3" t="n">
+      <c r="E164" s="3">
         <v>2038100</v>
       </c>
-      <c r="F164" s="3" t="n">
+      <c r="F164" s="3">
         <v>192688.35</v>
       </c>
-      <c r="G164" s="18" t="n">
-        <v>85057088.34999999</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="17" t="n">
+      <c r="G164" s="10">
+        <v>85057088.349999994</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
         <v>45173</v>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="3">
         <v>40498300</v>
       </c>
-      <c r="C165" s="3" t="n">
+      <c r="C165" s="3">
         <v>9195900</v>
       </c>
-      <c r="D165" s="3" t="n">
+      <c r="D165" s="3">
         <v>48188700</v>
       </c>
-      <c r="E165" s="3" t="n">
+      <c r="E165" s="3">
         <v>2684200</v>
       </c>
-      <c r="F165" s="3" t="n">
+      <c r="F165" s="3">
         <v>351261.87</v>
       </c>
-      <c r="G165" s="18" t="n">
+      <c r="G165" s="10">
         <v>100918361.87</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="17" t="n">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
         <v>45174</v>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="3">
         <v>34342900</v>
       </c>
-      <c r="C166" s="3" t="n">
+      <c r="C166" s="3">
         <v>8277100</v>
       </c>
-      <c r="D166" s="3" t="n">
+      <c r="D166" s="3">
         <v>46235600</v>
       </c>
-      <c r="E166" s="3" t="n">
+      <c r="E166" s="3">
         <v>2365700</v>
       </c>
-      <c r="F166" s="3" t="n">
+      <c r="F166" s="3">
         <v>212964.97</v>
       </c>
-      <c r="G166" s="18" t="n">
-        <v>91434264.97</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="17" t="n">
+      <c r="G166" s="10">
+        <v>91434264.969999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
         <v>45175</v>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="3">
         <v>32434800</v>
       </c>
-      <c r="C167" s="3" t="n">
+      <c r="C167" s="3">
         <v>8819400</v>
       </c>
-      <c r="D167" s="3" t="n">
+      <c r="D167" s="3">
         <v>44810500</v>
       </c>
-      <c r="E167" s="3" t="n">
+      <c r="E167" s="3">
         <v>2406200</v>
       </c>
-      <c r="F167" s="3" t="n">
+      <c r="F167" s="3">
         <v>152495.25</v>
       </c>
-      <c r="G167" s="18" t="n">
+      <c r="G167" s="10">
         <v>88623395.25</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="17" t="n">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
         <v>45176</v>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="3">
         <v>31808200</v>
       </c>
-      <c r="C168" s="3" t="n">
+      <c r="C168" s="3">
         <v>8455700</v>
       </c>
-      <c r="D168" s="3" t="n">
+      <c r="D168" s="3">
         <v>45035500</v>
       </c>
-      <c r="E168" s="3" t="n">
+      <c r="E168" s="3">
         <v>2588900</v>
       </c>
-      <c r="F168" s="3" t="n">
-        <v>154416.95</v>
-      </c>
-      <c r="G168" s="18" t="n">
-        <v>88042716.95</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="17" t="n">
+      <c r="F168" s="3">
+        <v>154416.95000000001</v>
+      </c>
+      <c r="G168" s="10">
+        <v>88042716.950000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
         <v>45177</v>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="3">
         <v>27090300</v>
       </c>
-      <c r="C169" s="3" t="n">
+      <c r="C169" s="3">
         <v>8791200</v>
       </c>
-      <c r="D169" s="3" t="n">
+      <c r="D169" s="3">
         <v>41259700</v>
       </c>
-      <c r="E169" s="3" t="n">
+      <c r="E169" s="3">
         <v>2365900</v>
       </c>
-      <c r="F169" s="3" t="n">
+      <c r="F169" s="3">
         <v>121697.28</v>
       </c>
-      <c r="G169" s="18" t="n">
-        <v>79628797.28</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="17" t="n">
+      <c r="G169" s="10">
+        <v>79628797.280000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="9">
         <v>45180</v>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="3">
         <v>35267500</v>
       </c>
-      <c r="C170" s="3" t="n">
+      <c r="C170" s="3">
         <v>9289500</v>
       </c>
-      <c r="D170" s="3" t="n">
+      <c r="D170" s="3">
         <v>49016700</v>
       </c>
-      <c r="E170" s="3" t="n">
+      <c r="E170" s="3">
         <v>2571500</v>
       </c>
-      <c r="F170" s="3" t="n">
+      <c r="F170" s="3">
         <v>95659.45</v>
       </c>
-      <c r="G170" s="18" t="n">
-        <v>96240859.45</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="17" t="n">
+      <c r="G170" s="10">
+        <v>96240859.450000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="9">
         <v>45181</v>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="3">
         <v>28285800</v>
       </c>
-      <c r="C171" s="3" t="n">
+      <c r="C171" s="3">
         <v>7221500</v>
       </c>
-      <c r="D171" s="3" t="n">
+      <c r="D171" s="3">
         <v>42727800</v>
       </c>
-      <c r="E171" s="3" t="n">
+      <c r="E171" s="3">
         <v>2095200</v>
       </c>
-      <c r="F171" s="3" t="n">
+      <c r="F171" s="3">
         <v>94282.37</v>
       </c>
-      <c r="G171" s="18" t="n">
-        <v>80424582.37</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="17" t="n">
+      <c r="G171" s="10">
+        <v>80424582.370000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="9">
         <v>45182</v>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="3">
         <v>28297100</v>
       </c>
-      <c r="C172" s="3" t="n">
+      <c r="C172" s="3">
         <v>8581500</v>
       </c>
-      <c r="D172" s="3" t="n">
+      <c r="D172" s="3">
         <v>41709800</v>
       </c>
-      <c r="E172" s="3" t="n">
+      <c r="E172" s="3">
         <v>2347000</v>
       </c>
-      <c r="F172" s="3" t="n">
+      <c r="F172" s="3">
         <v>99764.36</v>
       </c>
-      <c r="G172" s="18" t="n">
-        <v>81035164.36</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="17" t="n">
+      <c r="G172" s="10">
+        <v>81035164.359999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="9">
         <v>45183</v>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="3">
         <v>28244600</v>
       </c>
-      <c r="C173" s="3" t="n">
+      <c r="C173" s="3">
         <v>8842200</v>
       </c>
-      <c r="D173" s="3" t="n">
+      <c r="D173" s="3">
         <v>38458200</v>
       </c>
-      <c r="E173" s="3" t="n">
+      <c r="E173" s="3">
         <v>2248900</v>
       </c>
-      <c r="F173" s="3" t="n">
+      <c r="F173" s="3">
         <v>88810.02</v>
       </c>
-      <c r="G173" s="18" t="n">
-        <v>77882710.02</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="17" t="n">
+      <c r="G173" s="10">
+        <v>77882710.019999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="9">
         <v>45184</v>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="3">
         <v>32782800</v>
       </c>
-      <c r="C174" s="3" t="n">
+      <c r="C174" s="3">
         <v>9392900</v>
       </c>
-      <c r="D174" s="3" t="n">
+      <c r="D174" s="3">
         <v>39646500</v>
       </c>
-      <c r="E174" s="3" t="n">
+      <c r="E174" s="3">
         <v>2559100</v>
       </c>
-      <c r="F174" s="3" t="n">
+      <c r="F174" s="3">
         <v>90134.37</v>
       </c>
-      <c r="G174" s="18" t="n">
-        <v>84471434.37</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="17" t="n">
+      <c r="G174" s="10">
+        <v>84471434.370000005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="9">
         <v>45187</v>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="3">
         <v>30034400</v>
       </c>
-      <c r="C175" s="3" t="n">
+      <c r="C175" s="3">
         <v>8361200</v>
       </c>
-      <c r="D175" s="3" t="n">
+      <c r="D175" s="3">
         <v>39960700</v>
       </c>
-      <c r="E175" s="3" t="n">
+      <c r="E175" s="3">
         <v>2624100</v>
       </c>
-      <c r="F175" s="3" t="n">
+      <c r="F175" s="3">
         <v>91570.33</v>
       </c>
-      <c r="G175" s="18" t="n">
-        <v>81071970.33</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="17" t="n">
+      <c r="G175" s="10">
+        <v>81071970.329999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="9">
         <v>45188</v>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="3">
         <v>27449900</v>
       </c>
-      <c r="C176" s="3" t="n">
+      <c r="C176" s="3">
         <v>7725100</v>
       </c>
-      <c r="D176" s="3" t="n">
+      <c r="D176" s="3">
         <v>36153500</v>
       </c>
-      <c r="E176" s="3" t="n">
+      <c r="E176" s="3">
         <v>2197200</v>
       </c>
-      <c r="F176" s="3" t="n">
+      <c r="F176" s="3">
         <v>97668.34</v>
       </c>
-      <c r="G176" s="18" t="n">
-        <v>73623368.34</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="17" t="n">
+      <c r="G176" s="10">
+        <v>73623368.340000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
         <v>45189</v>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="3">
         <v>24370100</v>
       </c>
-      <c r="C177" s="3" t="n">
+      <c r="C177" s="3">
         <v>7262800</v>
       </c>
-      <c r="D177" s="3" t="n">
+      <c r="D177" s="3">
         <v>33154800</v>
       </c>
-      <c r="E177" s="3" t="n">
+      <c r="E177" s="3">
         <v>2093000</v>
       </c>
-      <c r="F177" s="3" t="n">
-        <v>83988.39999999999</v>
-      </c>
-      <c r="G177" s="18" t="n">
-        <v>66964688.4</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="17" t="n">
+      <c r="F177" s="3">
+        <v>83988.4</v>
+      </c>
+      <c r="G177" s="10">
+        <v>66964688.399999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="9">
         <v>45190</v>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="3">
         <v>24433200</v>
       </c>
-      <c r="C178" s="3" t="n">
+      <c r="C178" s="3">
         <v>8112800</v>
       </c>
-      <c r="D178" s="3" t="n">
+      <c r="D178" s="3">
         <v>33637600</v>
       </c>
-      <c r="E178" s="3" t="n">
+      <c r="E178" s="3">
         <v>2141100</v>
       </c>
-      <c r="F178" s="3" t="n">
-        <v>79144.16</v>
-      </c>
-      <c r="G178" s="18" t="n">
-        <v>68403844.16</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="17" t="n">
+      <c r="F178" s="3">
+        <v>79144.160000000003</v>
+      </c>
+      <c r="G178" s="10">
+        <v>68403844.159999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="9">
         <v>45191</v>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="3">
         <v>32210300</v>
       </c>
-      <c r="C179" s="3" t="n">
+      <c r="C179" s="3">
         <v>11159200</v>
       </c>
-      <c r="D179" s="3" t="n">
+      <c r="D179" s="3">
         <v>44615700</v>
       </c>
-      <c r="E179" s="3" t="n">
+      <c r="E179" s="3">
         <v>2848100</v>
       </c>
-      <c r="F179" s="3" t="n">
+      <c r="F179" s="3">
         <v>114765.26</v>
       </c>
-      <c r="G179" s="18" t="n">
-        <v>90948065.26000001</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="17" t="n">
+      <c r="G179" s="10">
+        <v>90948065.260000005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="9">
         <v>45194</v>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="3">
         <v>29576700</v>
       </c>
-      <c r="C180" s="3" t="n">
+      <c r="C180" s="3">
         <v>9108000</v>
       </c>
-      <c r="D180" s="3" t="n">
+      <c r="D180" s="3">
         <v>42494600</v>
       </c>
-      <c r="E180" s="3" t="n">
+      <c r="E180" s="3">
         <v>2124100</v>
       </c>
-      <c r="F180" s="3" t="n">
-        <v>85460.25999999999</v>
-      </c>
-      <c r="G180" s="18" t="n">
-        <v>83388860.26000001</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="17" t="n">
+      <c r="F180" s="3">
+        <v>85460.26</v>
+      </c>
+      <c r="G180" s="10">
+        <v>83388860.260000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="9">
         <v>45195</v>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="3">
         <v>27130200</v>
       </c>
-      <c r="C181" s="3" t="n">
+      <c r="C181" s="3">
         <v>8334900</v>
       </c>
-      <c r="D181" s="3" t="n">
+      <c r="D181" s="3">
         <v>39677200</v>
       </c>
-      <c r="E181" s="3" t="n">
+      <c r="E181" s="3">
         <v>2070300</v>
       </c>
-      <c r="F181" s="3" t="n">
+      <c r="F181" s="3">
         <v>88994.53</v>
       </c>
-      <c r="G181" s="18" t="n">
-        <v>77301594.53</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="17" t="n">
+      <c r="G181" s="10">
+        <v>77301594.530000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="9">
         <v>45196</v>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="3">
         <v>29450300</v>
       </c>
-      <c r="C182" s="3" t="n">
+      <c r="C182" s="3">
         <v>10212500</v>
       </c>
-      <c r="D182" s="3" t="n">
+      <c r="D182" s="3">
         <v>42391400</v>
       </c>
-      <c r="E182" s="3" t="n">
+      <c r="E182" s="3">
         <v>2210500</v>
       </c>
-      <c r="F182" s="3" t="n">
+      <c r="F182" s="3">
         <v>80454.89</v>
       </c>
-      <c r="G182" s="18" t="n">
-        <v>84345154.89</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="17" t="n">
+      <c r="G182" s="10">
+        <v>84345154.890000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="9">
         <v>45197</v>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="3">
         <v>28948200</v>
       </c>
-      <c r="C183" s="3" t="n">
+      <c r="C183" s="3">
         <v>9527400</v>
       </c>
-      <c r="D183" s="3" t="n">
+      <c r="D183" s="3">
         <v>42917300</v>
       </c>
-      <c r="E183" s="3" t="n">
+      <c r="E183" s="3">
         <v>2364900</v>
       </c>
-      <c r="F183" s="3" t="n">
-        <v>93991.39999999999</v>
-      </c>
-      <c r="G183" s="18" t="n">
-        <v>83851791.40000001</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="17" t="n">
+      <c r="F183" s="3">
+        <v>93991.4</v>
+      </c>
+      <c r="G183" s="10">
+        <v>83851791.400000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="9">
         <v>45208</v>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="3">
         <v>30309000</v>
       </c>
-      <c r="C184" s="3" t="n">
+      <c r="C184" s="3">
         <v>9291300</v>
       </c>
-      <c r="D184" s="3" t="n">
+      <c r="D184" s="3">
         <v>46818200</v>
       </c>
-      <c r="E184" s="3" t="n">
+      <c r="E184" s="3">
         <v>2370500</v>
       </c>
-      <c r="F184" s="3" t="n">
+      <c r="F184" s="3">
         <v>83915.34</v>
       </c>
-      <c r="G184" s="18" t="n">
-        <v>88872915.34</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="17" t="n">
+      <c r="G184" s="10">
+        <v>88872915.340000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="9">
         <v>45209</v>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="3">
         <v>29423400</v>
       </c>
-      <c r="C185" s="3" t="n">
+      <c r="C185" s="3">
         <v>8984100</v>
       </c>
-      <c r="D185" s="3" t="n">
+      <c r="D185" s="3">
         <v>48169500</v>
       </c>
-      <c r="E185" s="3" t="n">
+      <c r="E185" s="3">
         <v>2292500</v>
       </c>
-      <c r="F185" s="3" t="n">
+      <c r="F185" s="3">
         <v>74167.48</v>
       </c>
-      <c r="G185" s="18" t="n">
-        <v>88943667.48</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="17" t="n">
+      <c r="G185" s="10">
+        <v>88943667.480000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="9">
         <v>45210</v>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="3">
         <v>32717500</v>
       </c>
-      <c r="C186" s="3" t="n">
+      <c r="C186" s="3">
         <v>9013200</v>
       </c>
-      <c r="D186" s="3" t="n">
+      <c r="D186" s="3">
         <v>51289600</v>
       </c>
-      <c r="E186" s="3" t="n">
+      <c r="E186" s="3">
         <v>2480800</v>
       </c>
-      <c r="F186" s="3" t="n">
-        <v>66143.71000000001</v>
-      </c>
-      <c r="G186" s="18" t="n">
-        <v>95567243.70999999</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="17" t="n">
+      <c r="F186" s="3">
+        <v>66143.710000000006</v>
+      </c>
+      <c r="G186" s="10">
+        <v>95567243.709999993</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="9">
         <v>45211</v>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="3">
         <v>32640100</v>
       </c>
-      <c r="C187" s="3" t="n">
+      <c r="C187" s="3">
         <v>8223900</v>
       </c>
-      <c r="D187" s="3" t="n">
+      <c r="D187" s="3">
         <v>50636000</v>
       </c>
-      <c r="E187" s="3" t="n">
+      <c r="E187" s="3">
         <v>2193700</v>
       </c>
-      <c r="F187" s="3" t="n">
+      <c r="F187" s="3">
         <v>63919.79</v>
       </c>
-      <c r="G187" s="18" t="n">
-        <v>93757619.79000001</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="17" t="n">
+      <c r="G187" s="10">
+        <v>93757619.790000007</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="9">
         <v>45212</v>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="3">
         <v>31063800</v>
       </c>
-      <c r="C188" s="3" t="n">
+      <c r="C188" s="3">
         <v>7949000</v>
       </c>
-      <c r="D188" s="3" t="n">
+      <c r="D188" s="3">
         <v>49974200</v>
       </c>
-      <c r="E188" s="3" t="n">
+      <c r="E188" s="3">
         <v>2002000</v>
       </c>
-      <c r="F188" s="3" t="n">
+      <c r="F188" s="3">
         <v>81174.86</v>
       </c>
-      <c r="G188" s="18" t="n">
-        <v>91070174.86</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="17" t="n">
+      <c r="G188" s="10">
+        <v>91070174.859999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="9">
         <v>45215</v>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="3">
         <v>31460300</v>
       </c>
-      <c r="C189" s="3" t="n">
+      <c r="C189" s="3">
         <v>7469000</v>
       </c>
-      <c r="D189" s="3" t="n">
+      <c r="D189" s="3">
         <v>49893400</v>
       </c>
-      <c r="E189" s="3" t="n">
+      <c r="E189" s="3">
         <v>2268200</v>
       </c>
-      <c r="F189" s="3" t="n">
+      <c r="F189" s="3">
         <v>88166.28</v>
       </c>
-      <c r="G189" s="18" t="n">
-        <v>91179066.28</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="17" t="n">
+      <c r="G189" s="10">
+        <v>91179066.280000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="9">
         <v>45216</v>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="3">
         <v>30102400</v>
       </c>
-      <c r="C190" s="3" t="n">
+      <c r="C190" s="3">
         <v>7326600</v>
       </c>
-      <c r="D190" s="3" t="n">
+      <c r="D190" s="3">
         <v>43596500</v>
       </c>
-      <c r="E190" s="3" t="n">
+      <c r="E190" s="3">
         <v>1977200</v>
       </c>
-      <c r="F190" s="3" t="n">
+      <c r="F190" s="3">
         <v>68965.09</v>
       </c>
-      <c r="G190" s="18" t="n">
-        <v>83071665.09</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="17" t="n">
+      <c r="G190" s="10">
+        <v>83071665.090000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="9">
         <v>45217</v>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="3">
         <v>31119400</v>
       </c>
-      <c r="C191" s="3" t="n">
+      <c r="C191" s="3">
         <v>8110600</v>
       </c>
-      <c r="D191" s="3" t="n">
+      <c r="D191" s="3">
         <v>45709100</v>
       </c>
-      <c r="E191" s="3" t="n">
+      <c r="E191" s="3">
         <v>2072300</v>
       </c>
-      <c r="F191" s="3" t="n">
+      <c r="F191" s="3">
         <v>57987.62</v>
       </c>
-      <c r="G191" s="18" t="n">
-        <v>87069387.62</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="17" t="n">
+      <c r="G191" s="10">
+        <v>87069387.620000005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="9">
         <v>45218</v>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="4">
         <v>35575700</v>
       </c>
-      <c r="C192" s="3" t="n">
+      <c r="C192" s="3">
         <v>9360400</v>
       </c>
-      <c r="D192" s="3" t="n">
+      <c r="D192" s="3">
         <v>45796000</v>
       </c>
-      <c r="E192" s="3" t="n">
+      <c r="E192" s="3">
         <v>2259500</v>
       </c>
-      <c r="F192" s="3" t="n">
+      <c r="F192" s="3">
         <v>77356.56</v>
       </c>
-      <c r="G192" s="18" t="n">
-        <v>93068956.56</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="17" t="n">
+      <c r="G192" s="10">
+        <v>93068956.560000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="9">
         <v>45219</v>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="3">
         <v>30816300</v>
       </c>
-      <c r="C193" s="3" t="n">
+      <c r="C193" s="3">
         <v>8790100</v>
       </c>
-      <c r="D193" s="3" t="n">
+      <c r="D193" s="3">
         <v>42589000</v>
       </c>
-      <c r="E193" s="3" t="n">
+      <c r="E193" s="3">
         <v>2154000</v>
       </c>
-      <c r="F193" s="3" t="n">
+      <c r="F193" s="3">
         <v>59058.71</v>
       </c>
-      <c r="G193" s="18" t="n">
-        <v>84408458.70999999</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="17" t="n">
+      <c r="G193" s="10">
+        <v>84408458.709999993</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="9">
         <v>45222</v>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="3">
         <v>30467500</v>
       </c>
-      <c r="C194" s="3" t="n">
+      <c r="C194" s="3">
         <v>8992600</v>
       </c>
-      <c r="D194" s="3" t="n">
+      <c r="D194" s="3">
         <v>41855600</v>
       </c>
-      <c r="E194" s="3" t="n">
+      <c r="E194" s="3">
         <v>2085700</v>
       </c>
-      <c r="F194" s="3" t="n">
+      <c r="F194" s="3">
         <v>68660</v>
       </c>
-      <c r="G194" s="18" t="n">
+      <c r="G194" s="10">
         <v>83470060</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="17" t="n">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="9">
         <v>45223</v>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="3">
         <v>34082300</v>
       </c>
-      <c r="C195" s="3" t="n">
+      <c r="C195" s="3">
         <v>10146400</v>
       </c>
-      <c r="D195" s="3" t="n">
+      <c r="D195" s="3">
         <v>46553900</v>
       </c>
-      <c r="E195" s="3" t="n">
+      <c r="E195" s="3">
         <v>2592000</v>
       </c>
-      <c r="F195" s="3" t="n">
+      <c r="F195" s="3">
         <v>65231.75</v>
       </c>
-      <c r="G195" s="18" t="n">
+      <c r="G195" s="10">
         <v>93439831.75</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="17" t="n">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="9">
         <v>45224</v>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="3">
         <v>36354300</v>
       </c>
-      <c r="C196" s="3" t="n">
+      <c r="C196" s="3">
         <v>10556600</v>
       </c>
-      <c r="D196" s="3" t="n">
+      <c r="D196" s="3">
         <v>51174300</v>
       </c>
-      <c r="E196" s="3" t="n">
+      <c r="E196" s="3">
         <v>2424500</v>
       </c>
-      <c r="F196" s="3" t="n">
+      <c r="F196" s="3">
         <v>66120.12</v>
       </c>
-      <c r="G196" s="18" t="n">
+      <c r="G196" s="10">
         <v>100575820.12</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="17" t="n">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="9">
         <v>45225</v>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="3">
         <v>33336900</v>
       </c>
-      <c r="C197" s="3" t="n">
+      <c r="C197" s="3">
         <v>8888000</v>
       </c>
-      <c r="D197" s="3" t="n">
+      <c r="D197" s="3">
         <v>51112200</v>
       </c>
-      <c r="E197" s="3" t="n">
+      <c r="E197" s="3">
         <v>2177000</v>
       </c>
-      <c r="F197" s="3" t="n">
+      <c r="F197" s="3">
         <v>59534.63</v>
       </c>
-      <c r="G197" s="18" t="n">
-        <v>95573634.63</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="17" t="n">
+      <c r="G197" s="10">
+        <v>95573634.629999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="9">
         <v>45226</v>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="3">
         <v>38642000</v>
       </c>
-      <c r="C198" s="3" t="n">
+      <c r="C198" s="3">
         <v>10951700</v>
       </c>
-      <c r="D198" s="3" t="n">
+      <c r="D198" s="3">
         <v>57923400</v>
       </c>
-      <c r="E198" s="3" t="n">
+      <c r="E198" s="3">
         <v>2675200</v>
       </c>
-      <c r="F198" s="3" t="n">
+      <c r="F198" s="3">
         <v>178505.71</v>
       </c>
-      <c r="G198" s="18" t="n">
-        <v>110370805.71</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="17" t="n">
+      <c r="G198" s="10">
+        <v>110370805.70999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="9">
         <v>45229</v>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="3">
         <v>44123400</v>
       </c>
-      <c r="C199" s="3" t="n">
+      <c r="C199" s="3">
         <v>10665300</v>
       </c>
-      <c r="D199" s="3" t="n">
+      <c r="D199" s="3">
         <v>59922400</v>
       </c>
-      <c r="E199" s="3" t="n">
+      <c r="E199" s="3">
         <v>2659800</v>
       </c>
-      <c r="F199" s="3" t="n">
+      <c r="F199" s="3">
         <v>127388.09</v>
       </c>
-      <c r="G199" s="18" t="n">
+      <c r="G199" s="10">
         <v>117498288.09</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="17" t="n">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="9">
         <v>45230</v>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="3">
         <v>38669300</v>
       </c>
-      <c r="C200" s="3" t="n">
+      <c r="C200" s="3">
         <v>8708100</v>
       </c>
-      <c r="D200" s="3" t="n">
+      <c r="D200" s="3">
         <v>53310300</v>
       </c>
-      <c r="E200" s="3" t="n">
+      <c r="E200" s="3">
         <v>2021200</v>
       </c>
-      <c r="F200" s="3" t="n">
+      <c r="F200" s="3">
         <v>112917.52</v>
       </c>
-      <c r="G200" s="18" t="n">
+      <c r="G200" s="10">
         <v>102821817.52</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="17" t="n">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="9">
         <v>45231</v>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="3">
         <v>34804300</v>
       </c>
-      <c r="C201" s="3" t="n">
+      <c r="C201" s="3">
         <v>9144600</v>
       </c>
-      <c r="D201" s="3" t="n">
+      <c r="D201" s="3">
         <v>46535300</v>
       </c>
-      <c r="E201" s="3" t="n">
+      <c r="E201" s="3">
         <v>1998300</v>
       </c>
-      <c r="F201" s="3" t="n">
+      <c r="F201" s="3">
         <v>162095.21</v>
       </c>
-      <c r="G201" s="18" t="n">
-        <v>92644595.20999999</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="13" t="n">
+      <c r="G201" s="10">
+        <v>92644595.209999993</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
         <v>45232</v>
       </c>
-      <c r="B202" s="2" t="n">
+      <c r="B202" s="2">
         <v>31277900</v>
       </c>
-      <c r="C202" s="2" t="n">
+      <c r="C202" s="2">
         <v>8146300</v>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" s="2">
         <v>45554200</v>
       </c>
-      <c r="E202" s="2" t="n">
+      <c r="E202" s="2">
         <v>1886300</v>
       </c>
-      <c r="F202" s="2" t="n">
+      <c r="F202" s="2">
         <v>147158.44</v>
       </c>
-      <c r="G202" s="14" t="n">
-        <v>87011858.44</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="13" t="n">
+      <c r="G202" s="6">
+        <v>87011858.439999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
         <v>45233</v>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="2">
         <v>33018200</v>
       </c>
-      <c r="C203" s="2" t="n">
+      <c r="C203" s="2">
         <v>10683400</v>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" s="2">
         <v>48076200</v>
       </c>
-      <c r="E203" s="2" t="n">
+      <c r="E203" s="2">
         <v>2117700</v>
       </c>
-      <c r="F203" s="2" t="n">
-        <v>164766.11</v>
-      </c>
-      <c r="G203" s="14" t="n">
-        <v>94060266.11</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="13" t="n">
+      <c r="F203" s="2">
+        <v>164766.10999999999</v>
+      </c>
+      <c r="G203" s="6">
+        <v>94060266.109999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
         <v>45236</v>
       </c>
-      <c r="B204" s="2" t="n">
+      <c r="B204" s="2">
         <v>44827200</v>
       </c>
-      <c r="C204" s="2" t="n">
+      <c r="C204" s="2">
         <v>12634900</v>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" s="2">
         <v>61793000</v>
       </c>
-      <c r="E204" s="2" t="n">
+      <c r="E204" s="2">
         <v>2826400</v>
       </c>
-      <c r="F204" s="2" t="n">
+      <c r="F204" s="2">
         <v>185765.87</v>
       </c>
-      <c r="G204" s="14" t="n">
+      <c r="G204" s="6">
         <v>122267265.87</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="13" t="n">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
         <v>45237</v>
       </c>
-      <c r="B205" s="2" t="n">
+      <c r="B205" s="2">
         <v>40159000</v>
       </c>
-      <c r="C205" s="2" t="n">
+      <c r="C205" s="2">
         <v>8866800</v>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" s="2">
         <v>59242300</v>
       </c>
-      <c r="E205" s="2" t="n">
+      <c r="E205" s="2">
         <v>2155800</v>
       </c>
-      <c r="F205" s="2" t="n">
+      <c r="F205" s="2">
         <v>202356.18</v>
       </c>
-      <c r="G205" s="14" t="n">
-        <v>110626256.18</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="13" t="n">
+      <c r="G205" s="6">
+        <v>110626256.18000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
         <v>45238</v>
       </c>
-      <c r="B206" s="2" t="n">
+      <c r="B206" s="2">
         <v>41696000</v>
       </c>
-      <c r="C206" s="2" t="n">
+      <c r="C206" s="2">
         <v>9653800</v>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" s="2">
         <v>62215400</v>
       </c>
-      <c r="E206" s="2" t="n">
+      <c r="E206" s="2">
         <v>2376000</v>
       </c>
-      <c r="F206" s="2" t="n">
+      <c r="F206" s="2">
         <v>330706.31</v>
       </c>
-      <c r="G206" s="19" t="n">
+      <c r="G206" s="11">
         <v>116271906.31</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="13" t="n">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
         <v>45239</v>
       </c>
-      <c r="B207" s="2" t="n">
+      <c r="B207" s="2">
         <v>38942400</v>
       </c>
-      <c r="C207" s="2" t="n">
+      <c r="C207" s="2">
         <v>8282900</v>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" s="2">
         <v>57614000</v>
       </c>
-      <c r="E207" s="2" t="n">
+      <c r="E207" s="2">
         <v>2035600</v>
       </c>
-      <c r="F207" s="2" t="n">
-        <v>263859.9</v>
-      </c>
-      <c r="G207" s="2" t="n">
-        <v>107138759.9</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="13" t="n">
+      <c r="F207" s="2">
+        <v>263859.90000000002</v>
+      </c>
+      <c r="G207" s="2">
+        <v>107138759.90000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
         <v>45240</v>
       </c>
-      <c r="B208" s="2" t="n">
+      <c r="B208" s="2">
         <v>34762300</v>
       </c>
-      <c r="C208" s="2" t="n">
+      <c r="C208" s="2">
         <v>8198400</v>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" s="2">
         <v>48126400</v>
       </c>
-      <c r="E208" s="2" t="n">
+      <c r="E208" s="2">
         <v>1779700</v>
       </c>
-      <c r="F208" s="2" t="n">
+      <c r="F208" s="2">
         <v>244105.91</v>
       </c>
-      <c r="G208" s="2" t="n">
-        <v>93110905.91</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="13" t="n">
+      <c r="G208" s="2">
+        <v>93110905.909999996</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
         <v>45243</v>
       </c>
-      <c r="B209" s="2" t="n">
+      <c r="B209" s="2">
         <v>34485000</v>
       </c>
-      <c r="C209" s="2" t="n">
+      <c r="C209" s="2">
         <v>7591600</v>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" s="2">
         <v>52500300</v>
       </c>
-      <c r="E209" s="2" t="n">
+      <c r="E209" s="2">
         <v>1886800</v>
       </c>
-      <c r="F209" s="2" t="n">
+      <c r="F209" s="2">
         <v>220916.71</v>
       </c>
-      <c r="G209" s="2" t="n">
-        <v>96684616.70999999</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="13" t="n">
+      <c r="G209" s="2">
+        <v>96684616.709999993</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
         <v>45244</v>
       </c>
-      <c r="B210" s="2" t="n">
+      <c r="B210" s="2">
         <v>35991700</v>
       </c>
-      <c r="C210" s="2" t="n">
+      <c r="C210" s="2">
         <v>8216900</v>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" s="2">
         <v>53608100</v>
       </c>
-      <c r="E210" s="2" t="n">
+      <c r="E210" s="2">
         <v>1851400</v>
       </c>
-      <c r="F210" s="2" t="n">
+      <c r="F210" s="2">
         <v>273748.3</v>
       </c>
-      <c r="G210" s="2" t="n">
-        <v>99941848.3</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="13" t="n">
+      <c r="G210" s="2">
+        <v>99941848.299999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
         <v>45245</v>
       </c>
-      <c r="B211" s="2" t="n">
+      <c r="B211" s="2">
         <v>39049300</v>
       </c>
-      <c r="C211" s="2" t="n">
+      <c r="C211" s="2">
         <v>8807300</v>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" s="2">
         <v>60118100</v>
       </c>
-      <c r="E211" s="2" t="n">
+      <c r="E211" s="2">
         <v>2331900</v>
       </c>
-      <c r="F211" s="2" t="n">
-        <v>328186.66</v>
-      </c>
-      <c r="G211" s="14" t="n">
+      <c r="F211" s="2">
+        <v>328186.65999999997</v>
+      </c>
+      <c r="G211" s="6">
         <v>110634786.66</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="13" t="n">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
         <v>45246</v>
       </c>
-      <c r="B212" s="2" t="n">
+      <c r="B212" s="2">
         <v>32986600</v>
       </c>
-      <c r="C212" s="2" t="n">
+      <c r="C212" s="2">
         <v>8463100</v>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" s="2">
         <v>52199600</v>
       </c>
-      <c r="E212" s="2" t="n">
+      <c r="E212" s="2">
         <v>2174300</v>
       </c>
-      <c r="F212" s="2" t="n">
+      <c r="F212" s="2">
         <v>299299.87</v>
       </c>
-      <c r="G212" s="2" t="n">
-        <v>96122899.87</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="13" t="n">
+      <c r="G212" s="2">
+        <v>96122899.870000005</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
         <v>45247</v>
       </c>
-      <c r="B213" s="2" t="n">
+      <c r="B213" s="2">
         <v>32933400</v>
       </c>
-      <c r="C213" s="2" t="n">
+      <c r="C213" s="2">
         <v>8731300</v>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" s="2">
         <v>49902000</v>
       </c>
-      <c r="E213" s="2" t="n">
+      <c r="E213" s="2">
         <v>1992800</v>
       </c>
-      <c r="F213" s="2" t="n">
+      <c r="F213" s="2">
         <v>226866.14</v>
       </c>
-      <c r="G213" s="2" t="n">
-        <v>93786366.14</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="13" t="n">
+      <c r="G213" s="2">
+        <v>93786366.140000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
         <v>45250</v>
       </c>
-      <c r="B214" s="2" t="n">
+      <c r="B214" s="2">
         <v>36802600</v>
       </c>
-      <c r="C214" s="2" t="n">
+      <c r="C214" s="2">
         <v>8535500</v>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" s="2">
         <v>56235500</v>
       </c>
-      <c r="E214" s="2" t="n">
+      <c r="E214" s="2">
         <v>2119600</v>
       </c>
-      <c r="F214" s="2" t="n">
+      <c r="F214" s="2">
         <v>379415.83</v>
       </c>
-      <c r="G214" s="2" t="n">
+      <c r="G214" s="2">
         <v>104072615.83</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="13" t="n">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="5">
         <v>45251</v>
       </c>
-      <c r="B215" s="2" t="n">
+      <c r="B215" s="2">
         <v>39220600</v>
       </c>
-      <c r="C215" s="2" t="n">
+      <c r="C215" s="2">
         <v>8466200</v>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" s="2">
         <v>60759000</v>
       </c>
-      <c r="E215" s="2" t="n">
+      <c r="E215" s="2">
         <v>2235900</v>
       </c>
-      <c r="F215" s="2" t="n">
+      <c r="F215" s="2">
         <v>1027214.4</v>
       </c>
-      <c r="G215" s="2" t="n">
-        <v>111708914.4</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="20" t="n">
-        <v>45245</v>
-      </c>
-      <c r="B216" s="2" t="n">
-        <v>39049300</v>
-      </c>
-      <c r="C216" s="2" t="n">
-        <v>8807300</v>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>60118100</v>
-      </c>
-      <c r="E216" s="2" t="n">
-        <v>2331900</v>
-      </c>
-      <c r="F216" s="2" t="n">
-        <v>328186.66</v>
-      </c>
-      <c r="G216" s="2" t="n">
-        <v>110634786.66</v>
+      <c r="G215" s="2">
+        <v>111708914.40000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -1,119 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21381\AppData\Local\Temp\MicrosoftEdgeDownloads\fc251534-a9d0-4d49-b0b0-986c4a16250e\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1CD81-396B-4B41-8F76-1758ABBBEE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>交易日期</t>
-  </si>
-  <si>
-    <t>上交所（股票）</t>
-  </si>
-  <si>
-    <t>上交所（基金）</t>
-  </si>
-  <si>
-    <t>深交所（股票）</t>
-  </si>
-  <si>
-    <t>深交所（基金）</t>
-  </si>
-  <si>
-    <t>北交所（股票）</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -144,87 +112,170 @@
     </border>
   </borders>
   <cellStyleXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 4 2 2 17" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="千位分隔 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="千位分隔 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="千位分隔 2" xfId="4"/>
+    <cellStyle name="常规 2 2" xfId="5"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="千位分隔 3" xfId="7"/>
+    <cellStyle name="常规 5" xfId="8"/>
+    <cellStyle name="常规 4 2 2 17" xfId="9"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -512,4971 +563,5011 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="5" customWidth="1"/>
-    <col min="2" max="6" width="16.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="6" customWidth="1"/>
-    <col min="8" max="25" width="8.88671875" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col width="16.77734375" customWidth="1" style="12" min="1" max="1"/>
+    <col width="16.77734375" customWidth="1" style="2" min="2" max="6"/>
+    <col width="16.77734375" customWidth="1" style="13" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="2" min="8" max="25"/>
+    <col width="8.88671875" customWidth="1" style="2" min="26" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>交易日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>上交所（股票）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>上交所（基金）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>深交所（股票）</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>深交所（基金）</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>北交所（股票）</t>
+        </is>
+      </c>
+      <c r="G1" s="15" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="n">
         <v>44929</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="n">
         <v>33247700</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="n">
         <v>9087600</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3" t="n">
         <v>45816300</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="3" t="n">
         <v>3266400</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="n">
         <v>39630.22</v>
       </c>
-      <c r="G2" s="10">
-        <v>91457630.219999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="G2" s="17" t="n">
+        <v>91457630.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="n">
         <v>44930</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="3" t="n">
         <v>31739400</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>8946100</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>46989600</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>2546500</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>35688.83</v>
       </c>
-      <c r="G3" s="10">
-        <v>90257288.829999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="G3" s="17" t="n">
+        <v>90257288.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="n">
         <v>44931</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="n">
         <v>33725900</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>9593500</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>50872600</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>3315800</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>35382.75</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="17" t="n">
         <v>97543182.75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5">
+      <c r="A5" s="16" t="n">
         <v>44932</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="n">
         <v>33966500</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>9139800</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>50092400</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>2762000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>34854.46</v>
       </c>
-      <c r="G5" s="10">
-        <v>95995554.459999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="G5" s="17" t="n">
+        <v>95995554.45999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="n">
         <v>44935</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>34470800</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>8448400</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>46737600</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>2455400</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>32031.88</v>
       </c>
-      <c r="G6" s="10">
-        <v>92144231.879999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="G6" s="17" t="n">
+        <v>92144231.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n">
         <v>44936</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>31281100</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>7795000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="n">
         <v>43808100</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="n">
         <v>2213600</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>28034.86</v>
       </c>
-      <c r="G7" s="10">
-        <v>85125834.859999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="G7" s="17" t="n">
+        <v>85125834.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="n">
         <v>44937</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="n">
         <v>31162900</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="n">
         <v>8520400</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="n">
         <v>43383100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="n">
         <v>2285900</v>
       </c>
-      <c r="F8" s="3">
-        <v>33621.519999999997</v>
-      </c>
-      <c r="G8" s="10">
-        <v>85385921.519999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="F8" s="3" t="n">
+        <v>33621.52</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>85385921.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="n">
         <v>44938</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="n">
         <v>27643000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="n">
         <v>7954600</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="n">
         <v>40721100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="n">
         <v>2994300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="n">
         <v>27405.26</v>
       </c>
-      <c r="G9" s="10">
-        <v>79340405.260000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="G9" s="17" t="n">
+        <v>79340405.26000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="n">
         <v>44939</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="3" t="n">
         <v>29124300</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="3" t="n">
         <v>8114300</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="n">
         <v>41523200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="n">
         <v>2534200</v>
       </c>
-      <c r="F10" s="3">
-        <v>27849.919999999998</v>
-      </c>
-      <c r="G10" s="10">
-        <v>81323849.920000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="F10" s="3" t="n">
+        <v>27849.92</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>81323849.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="n">
         <v>44942</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="n">
         <v>41596700</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="3" t="n">
         <v>10919800</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="3" t="n">
         <v>50512800</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="3" t="n">
         <v>3024200</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="n">
         <v>36491.33</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="17" t="n">
         <v>106089991.33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12">
+      <c r="A12" s="16" t="n">
         <v>44943</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="3" t="n">
         <v>30443900</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="3" t="n">
         <v>8257900</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="n">
         <v>40577600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="n">
         <v>2604000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="n">
         <v>29528.34</v>
       </c>
-      <c r="G12" s="10">
-        <v>81912928.340000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="G12" s="17" t="n">
+        <v>81912928.34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="n">
         <v>44944</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="3" t="n">
         <v>26877800</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="3" t="n">
         <v>7273800</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="3" t="n">
         <v>37119400</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="n">
         <v>1953900</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="n">
         <v>55061.54</v>
       </c>
-      <c r="G13" s="10">
-        <v>73279961.540000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="G13" s="17" t="n">
+        <v>73279961.54000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="n">
         <v>44945</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="3" t="n">
         <v>29819300</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="3" t="n">
         <v>8658900</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="n">
         <v>39111100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="n">
         <v>2117200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="n">
         <v>47324.27</v>
       </c>
-      <c r="G14" s="10">
-        <v>79753824.269999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="G14" s="17" t="n">
+        <v>79753824.27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="n">
         <v>44946</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="3" t="n">
         <v>32950400</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3" t="n">
         <v>10075600</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="n">
         <v>42080500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="n">
         <v>2955900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="n">
         <v>48795.87</v>
       </c>
-      <c r="G15" s="10">
-        <v>88111195.870000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="G15" s="17" t="n">
+        <v>88111195.87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="n">
         <v>44956</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="3" t="n">
         <v>45434700</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="3" t="n">
         <v>11801700</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3" t="n">
         <v>61046300</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="3" t="n">
         <v>2859000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="3" t="n">
         <v>78060.52</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="17" t="n">
         <v>121219760.52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17">
+      <c r="A17" s="16" t="n">
         <v>44957</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="3" t="n">
         <v>37667000</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="3" t="n">
         <v>8804700</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="n">
         <v>52666300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="n">
         <v>2427400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="n">
         <v>239527.27</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="17" t="n">
         <v>101804927.27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18">
+      <c r="A18" s="16" t="n">
         <v>44958</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="3" t="n">
         <v>41502300</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="3" t="n">
         <v>8902600</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="n">
         <v>59264500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="n">
         <v>2767700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="n">
         <v>217055.69</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="17" t="n">
         <v>112654155.69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+    <row r="19">
+      <c r="A19" s="16" t="n">
         <v>44959</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="3" t="n">
         <v>43144800</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="3" t="n">
         <v>8995500</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="3" t="n">
         <v>59694600</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="3" t="n">
         <v>2596400</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="3" t="n">
         <v>161987.49</v>
       </c>
-      <c r="G19" s="10">
-        <v>114593287.48999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="G19" s="17" t="n">
+        <v>114593287.49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="n">
         <v>44960</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="3" t="n">
         <v>37972300</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="3" t="n">
         <v>9082900</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="n">
         <v>53680400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="n">
         <v>2825000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="n">
         <v>109366.97</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="17" t="n">
         <v>103669966.97</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21">
+      <c r="A21" s="16" t="n">
         <v>44963</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="3" t="n">
         <v>34966800</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="3" t="n">
         <v>8262400</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="n">
         <v>52668800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="n">
         <v>2463600</v>
       </c>
-      <c r="F21" s="3">
-        <v>92464.04</v>
-      </c>
-      <c r="G21" s="10">
-        <v>98454064.040000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="F21" s="3" t="n">
+        <v>92464.03999999999</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>98454064.04000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="n">
         <v>44964</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="3" t="n">
         <v>32226500</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="3" t="n">
         <v>8442400</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="n">
         <v>52564500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="n">
         <v>2672700</v>
       </c>
-      <c r="F22" s="3">
-        <v>75532.960000000006</v>
-      </c>
-      <c r="G22" s="10">
-        <v>95981632.959999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="F22" s="3" t="n">
+        <v>75532.96000000001</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>95981632.95999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="n">
         <v>44965</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="3" t="n">
         <v>29451800</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="3" t="n">
         <v>7198000</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="n">
         <v>51239000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="n">
         <v>2360700</v>
       </c>
-      <c r="F23" s="3">
-        <v>75681.039999999994</v>
-      </c>
-      <c r="G23" s="10">
-        <v>90325181.040000007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="F23" s="3" t="n">
+        <v>75681.03999999999</v>
+      </c>
+      <c r="G23" s="17" t="n">
+        <v>90325181.04000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="n">
         <v>44966</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="3" t="n">
         <v>35353300</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="3" t="n">
         <v>9689900</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="n">
         <v>55174600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="n">
         <v>2688900</v>
       </c>
-      <c r="F24" s="3">
-        <v>97412.07</v>
-      </c>
-      <c r="G24" s="10">
-        <v>103004112.06999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="F24" s="3" t="n">
+        <v>97412.07000000001</v>
+      </c>
+      <c r="G24" s="17" t="n">
+        <v>103004112.07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="n">
         <v>44967</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="3" t="n">
         <v>34322700</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="3" t="n">
         <v>8932600</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="3" t="n">
         <v>55210600</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="3" t="n">
         <v>2782200</v>
       </c>
-      <c r="F25" s="3">
-        <v>69673.399999999994</v>
-      </c>
-      <c r="G25" s="10">
-        <v>101317773.40000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="F25" s="3" t="n">
+        <v>69673.39999999999</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <v>101317773.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="n">
         <v>44970</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="3" t="n">
         <v>39900800</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="3" t="n">
         <v>8173300</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="n">
         <v>58350300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="n">
         <v>2745400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="n">
         <v>112003.74</v>
       </c>
-      <c r="G26" s="10">
-        <v>109281803.73999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="G26" s="17" t="n">
+        <v>109281803.74</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="n">
         <v>44971</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="3" t="n">
         <v>35716200</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="3" t="n">
         <v>6503100</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="n">
         <v>56004400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="n">
         <v>2013800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="n">
         <v>7792705</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="17" t="n">
         <v>108030205</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+    <row r="28">
+      <c r="A28" s="16" t="n">
         <v>44972</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="3" t="n">
         <v>35858600</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="3" t="n">
         <v>6841300</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="3" t="n">
         <v>58116800</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="3" t="n">
         <v>2272300</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="3" t="n">
         <v>85374.78</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="17" t="n">
         <v>103174374.78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="29">
+      <c r="A29" s="16" t="n">
         <v>44973</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="3" t="n">
         <v>46929500</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="3" t="n">
         <v>11003500</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="n">
         <v>72579400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="n">
         <v>2902900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="n">
         <v>115270.94</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="17" t="n">
         <v>133530570.94</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="30">
+      <c r="A30" s="16" t="n">
         <v>44974</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="3" t="n">
         <v>35609400</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="3" t="n">
         <v>8828800</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="3" t="n">
         <v>55944200</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="3" t="n">
         <v>2748500</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="3" t="n">
         <v>105310.48</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="17" t="n">
         <v>103236210.48</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+    <row r="31">
+      <c r="A31" s="16" t="n">
         <v>44977</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="3" t="n">
         <v>39891300</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="3" t="n">
         <v>9224500</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="3" t="n">
         <v>55440200</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="3" t="n">
         <v>2874800</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="3" t="n">
         <v>85853.63</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="17" t="n">
         <v>107516653.63</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+    <row r="32">
+      <c r="A32" s="16" t="n">
         <v>44978</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="3" t="n">
         <v>39158000</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="3" t="n">
         <v>7907000</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="n">
         <v>53148600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="n">
         <v>2208100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="n">
         <v>84903.45</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="17" t="n">
         <v>102506603.45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+    <row r="33">
+      <c r="A33" s="16" t="n">
         <v>44979</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="3" t="n">
         <v>32138900</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="3" t="n">
         <v>6767400</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="n">
         <v>46426400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="n">
         <v>2186300</v>
       </c>
-      <c r="F33" s="3">
-        <v>78382.789999999994</v>
-      </c>
-      <c r="G33" s="10">
-        <v>87597382.790000007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="F33" s="3" t="n">
+        <v>78382.78999999999</v>
+      </c>
+      <c r="G33" s="17" t="n">
+        <v>87597382.79000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="n">
         <v>44980</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="3" t="n">
         <v>33528400</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="3" t="n">
         <v>7310300</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="3" t="n">
         <v>47432600</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="3" t="n">
         <v>2000700</v>
       </c>
-      <c r="F34" s="3">
-        <v>85071.93</v>
-      </c>
-      <c r="G34" s="10">
-        <v>90357071.930000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="F34" s="3" t="n">
+        <v>85071.92999999999</v>
+      </c>
+      <c r="G34" s="17" t="n">
+        <v>90357071.93000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="16" t="n">
         <v>44981</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="3" t="n">
         <v>30873600</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="3" t="n">
         <v>7207700</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="n">
         <v>41874800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="n">
         <v>2032700</v>
       </c>
-      <c r="F35" s="3">
-        <v>69609.490000000005</v>
-      </c>
-      <c r="G35" s="10">
-        <v>82058409.489999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="F35" s="3" t="n">
+        <v>69609.49000000001</v>
+      </c>
+      <c r="G35" s="17" t="n">
+        <v>82058409.48999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="n">
         <v>44984</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="3" t="n">
         <v>32537700</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="3" t="n">
         <v>7660500</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="3" t="n">
         <v>43084400</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="3" t="n">
         <v>2444500</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="3" t="n">
         <v>65562.27</v>
       </c>
-      <c r="G36" s="10">
-        <v>85792662.269999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="G36" s="17" t="n">
+        <v>85792662.27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="n">
         <v>44985</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="3" t="n">
         <v>31955400</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="3" t="n">
         <v>7817900</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="3" t="n">
         <v>44041200</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="3" t="n">
         <v>2090000</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="3" t="n">
         <v>90971.61</v>
       </c>
-      <c r="G37" s="10">
-        <v>85995471.609999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="G37" s="17" t="n">
+        <v>85995471.61</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="n">
         <v>44986</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="3" t="n">
         <v>38632500</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="3" t="n">
         <v>9767500</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="3" t="n">
         <v>53709100</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="3" t="n">
         <v>2524700</v>
       </c>
-      <c r="F38" s="3">
-        <v>89553.919999999998</v>
-      </c>
-      <c r="G38" s="10">
+      <c r="F38" s="3" t="n">
+        <v>89553.92</v>
+      </c>
+      <c r="G38" s="17" t="n">
         <v>104723353.92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+    <row r="39">
+      <c r="A39" s="16" t="n">
         <v>44987</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="3" t="n">
         <v>39134300</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="3" t="n">
         <v>7884500</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="3" t="n">
         <v>54613300</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="3" t="n">
         <v>2207000</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="3" t="n">
         <v>73701.45</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="17" t="n">
         <v>103912801.45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+    <row r="40">
+      <c r="A40" s="16" t="n">
         <v>44988</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="3" t="n">
         <v>38961500</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="3" t="n">
         <v>8475400</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="3" t="n">
         <v>48141100</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="3" t="n">
         <v>2486000</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="3" t="n">
         <v>61732.75</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="17" t="n">
         <v>98125732.75</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+    <row r="41">
+      <c r="A41" s="16" t="n">
         <v>44991</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="3" t="n">
         <v>43322900</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="3" t="n">
         <v>8060000</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="n">
         <v>52017600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="3" t="n">
         <v>2411500</v>
       </c>
-      <c r="F41" s="3">
-        <v>52797.120000000003</v>
-      </c>
-      <c r="G41" s="10">
+      <c r="F41" s="3" t="n">
+        <v>52797.12</v>
+      </c>
+      <c r="G41" s="17" t="n">
         <v>105864797.12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+    <row r="42">
+      <c r="A42" s="16" t="n">
         <v>44992</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="3" t="n">
         <v>43086600</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="3" t="n">
         <v>8341300</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="n">
         <v>50367900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="n">
         <v>2805500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="n">
         <v>54126.8</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="17" t="n">
         <v>104655426.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+    <row r="43">
+      <c r="A43" s="16" t="n">
         <v>44993</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="3" t="n">
         <v>31367100</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="3" t="n">
         <v>7134400</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="n">
         <v>40686700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="n">
         <v>2216500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="n">
         <v>51300.95</v>
       </c>
-      <c r="G43" s="10">
-        <v>81456000.950000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="G43" s="17" t="n">
+        <v>81456000.95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="16" t="n">
         <v>44994</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="3" t="n">
         <v>32987000</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="3" t="n">
         <v>6741800</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="n">
         <v>42900300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="n">
         <v>2079700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="n">
         <v>42901.19</v>
       </c>
-      <c r="G44" s="10">
-        <v>84751701.189999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="G44" s="17" t="n">
+        <v>84751701.19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="n">
         <v>44995</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="3" t="n">
         <v>34306300</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="3" t="n">
         <v>8374600</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="n">
         <v>46810600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="n">
         <v>2476800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="n">
         <v>63165.73</v>
       </c>
-      <c r="G45" s="10">
-        <v>92031465.730000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="G45" s="17" t="n">
+        <v>92031465.73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="16" t="n">
         <v>44998</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="3" t="n">
         <v>36664800</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="3" t="n">
         <v>8209600</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="n">
         <v>47587200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="3" t="n">
         <v>2532600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="3" t="n">
         <v>56328.75</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="17" t="n">
         <v>95050528.75</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+    <row r="47">
+      <c r="A47" s="16" t="n">
         <v>44999</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="3" t="n">
         <v>41067800</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="3" t="n">
         <v>7848500</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="n">
         <v>52312700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="n">
         <v>2704000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="n">
         <v>62370.43</v>
       </c>
-      <c r="G47" s="10">
-        <v>103995370.43000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="G47" s="17" t="n">
+        <v>103995370.43</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="n">
         <v>45000</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="3" t="n">
         <v>37485700</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="3" t="n">
         <v>8266500</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="n">
         <v>44649800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="n">
         <v>2531400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="n">
         <v>75618.63</v>
       </c>
-      <c r="G48" s="10">
-        <v>93009018.629999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="G48" s="17" t="n">
+        <v>93009018.63</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="16" t="n">
         <v>45001</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="3" t="n">
         <v>39368100</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="3" t="n">
         <v>7843500</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="n">
         <v>45393000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="n">
         <v>2948100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="n">
         <v>56989.48</v>
       </c>
-      <c r="G49" s="10">
-        <v>95609689.480000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="G49" s="17" t="n">
+        <v>95609689.48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="16" t="n">
         <v>45002</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="3" t="n">
         <v>43389100</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="3" t="n">
         <v>10678800</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="3" t="n">
         <v>54284900</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="3" t="n">
         <v>3005700</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="3" t="n">
         <v>54401.69</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="17" t="n">
         <v>111412901.69</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+    <row r="51">
+      <c r="A51" s="16" t="n">
         <v>45005</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="3" t="n">
         <v>48171000</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="3" t="n">
         <v>8673100</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="3" t="n">
         <v>57810800</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="3" t="n">
         <v>2698400</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="3" t="n">
         <v>49016.88</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="17" t="n">
         <v>117402316.88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+    <row r="52">
+      <c r="A52" s="16" t="n">
         <v>45006</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="3" t="n">
         <v>39092400</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="3" t="n">
         <v>7855500</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="n">
         <v>50660300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="n">
         <v>2775400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="n">
         <v>52452.4</v>
       </c>
-      <c r="G52" s="10">
-        <v>100436052.40000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="G52" s="17" t="n">
+        <v>100436052.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="n">
         <v>45007</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="3" t="n">
         <v>38362400</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="3" t="n">
         <v>7306500</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="3" t="n">
         <v>57654000</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="3" t="n">
         <v>2456300</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="3" t="n">
         <v>62263.33</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="17" t="n">
         <v>105841463.33</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+    <row r="54">
+      <c r="A54" s="16" t="n">
         <v>45008</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="3" t="n">
         <v>42833700</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="3" t="n">
         <v>9177900</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="n">
         <v>59535800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="3" t="n">
         <v>2824500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="n">
         <v>88372.06</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="17" t="n">
         <v>114460272.06</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+    <row r="55">
+      <c r="A55" s="16" t="n">
         <v>45009</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="3" t="n">
         <v>43187100</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="3" t="n">
         <v>8117000</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="3" t="n">
         <v>64505700</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="3" t="n">
         <v>2613800</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="3" t="n">
         <v>104735.23</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="17" t="n">
         <v>118528335.23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+    <row r="56">
+      <c r="A56" s="16" t="n">
         <v>45012</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="3" t="n">
         <v>45653000</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="3" t="n">
         <v>8621400</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="3" t="n">
         <v>68831700</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="3" t="n">
         <v>3242200</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="3" t="n">
         <v>86091.44</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="17" t="n">
         <v>126434391.44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+    <row r="57">
+      <c r="A57" s="16" t="n">
         <v>45013</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="3" t="n">
         <v>39812400</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="3" t="n">
         <v>7889100</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="n">
         <v>60875500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="n">
         <v>2879300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="n">
         <v>68089.98</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="17" t="n">
         <v>111524389.98</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+    <row r="58">
+      <c r="A58" s="16" t="n">
         <v>45014</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="3" t="n">
         <v>40680400</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="3" t="n">
         <v>9314500</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="n">
         <v>57650800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="n">
         <v>2983600</v>
       </c>
-      <c r="F58" s="3">
-        <v>70892.350000000006</v>
-      </c>
-      <c r="G58" s="10">
-        <v>110700192.34999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="F58" s="3" t="n">
+        <v>70892.35000000001</v>
+      </c>
+      <c r="G58" s="17" t="n">
+        <v>110700192.35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="16" t="n">
         <v>45015</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="3" t="n">
         <v>40274200</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="3" t="n">
         <v>8545800</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="n">
         <v>54392700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="n">
         <v>2635900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="n">
         <v>58148.28</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="17" t="n">
         <v>105906748.28</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="60">
+      <c r="A60" s="16" t="n">
         <v>45016</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="3" t="n">
         <v>39758700</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="3" t="n">
         <v>8910100</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="n">
         <v>55826700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="3" t="n">
         <v>2562900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="n">
         <v>50455.85</v>
       </c>
-      <c r="G60" s="10">
-        <v>107108855.84999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="G60" s="17" t="n">
+        <v>107108855.85</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="16" t="n">
         <v>45019</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="3" t="n">
         <v>51453000</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="3" t="n">
         <v>12706000</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="3" t="n">
         <v>74056400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="3" t="n">
         <v>3078000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="3" t="n">
         <v>70155.41</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="17" t="n">
         <v>141363555.41</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+    <row r="62">
+      <c r="A62" s="16" t="n">
         <v>45020</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="3" t="n">
         <v>55643400</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="3" t="n">
         <v>9936000</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="n">
         <v>76969400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="n">
         <v>3091800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="n">
         <v>65641.95</v>
       </c>
-      <c r="G62" s="10">
-        <v>145706241.94999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="G62" s="17" t="n">
+        <v>145706241.95</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="16" t="n">
         <v>45022</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="3" t="n">
         <v>50778000</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="3" t="n">
         <v>9625500</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="3" t="n">
         <v>68781100</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="3" t="n">
         <v>2829900</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="3" t="n">
         <v>58892.98</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="17" t="n">
         <v>132073392.98</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+    <row r="64">
+      <c r="A64" s="16" t="n">
         <v>45023</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="3" t="n">
         <v>43739000</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="3" t="n">
         <v>8827600</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="3" t="n">
         <v>61870200</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="3" t="n">
         <v>2762700</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="3" t="n">
         <v>42873.27</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="17" t="n">
         <v>117242373.27</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+    <row r="65">
+      <c r="A65" s="16" t="n">
         <v>45026</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="3" t="n">
         <v>51777100</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="3" t="n">
         <v>12346700</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="3" t="n">
         <v>70993000</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="3" t="n">
         <v>2528100</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="3" t="n">
         <v>52538.29</v>
       </c>
-      <c r="G65" s="10">
-        <v>137697438.28999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="G65" s="17" t="n">
+        <v>137697438.29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="16" t="n">
         <v>45027</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="3" t="n">
         <v>46800400</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="3" t="n">
         <v>9335400</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="n">
         <v>61715400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="n">
         <v>2726100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="n">
         <v>42228.5</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="17" t="n">
         <v>120619528.5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+    <row r="67">
+      <c r="A67" s="16" t="n">
         <v>45028</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="3" t="n">
         <v>48342700</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="3" t="n">
         <v>8575900</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="3" t="n">
         <v>65090800</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="3" t="n">
         <v>2868900</v>
       </c>
-      <c r="F67" s="3">
-        <v>43343.199999999997</v>
-      </c>
-      <c r="G67" s="10">
+      <c r="F67" s="3" t="n">
+        <v>43343.2</v>
+      </c>
+      <c r="G67" s="17" t="n">
         <v>124921643.2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+    <row r="68">
+      <c r="A68" s="16" t="n">
         <v>45029</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="3" t="n">
         <v>47996600</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="3" t="n">
         <v>8984000</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="3" t="n">
         <v>66054800</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="3" t="n">
         <v>2773600</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="3" t="n">
         <v>77950.3</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="17" t="n">
         <v>125886950.3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+    <row r="69">
+      <c r="A69" s="16" t="n">
         <v>45030</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="3" t="n">
         <v>47949900</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="3" t="n">
         <v>9167200</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="3" t="n">
         <v>63739800</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="3" t="n">
         <v>2787600</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="3" t="n">
         <v>61845.38</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="17" t="n">
         <v>123706345.38</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+    <row r="70">
+      <c r="A70" s="16" t="n">
         <v>45033</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="3" t="n">
         <v>52491600</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="3" t="n">
         <v>8585300</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="3" t="n">
         <v>59788500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="3" t="n">
         <v>2660100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="3" t="n">
         <v>72891.27</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="17" t="n">
         <v>123598391.27</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+    <row r="71">
+      <c r="A71" s="16" t="n">
         <v>45034</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="3" t="n">
         <v>47535200</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="3" t="n">
         <v>8423000</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="3" t="n">
         <v>58678600</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="3" t="n">
         <v>2611200</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="3" t="n">
         <v>73941.36</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="17" t="n">
         <v>117321941.36</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+    <row r="72">
+      <c r="A72" s="16" t="n">
         <v>45035</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="3" t="n">
         <v>47823800</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="3" t="n">
         <v>14226100</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="n">
         <v>60708100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="n">
         <v>2221700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="n">
         <v>81559.7</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="17" t="n">
         <v>125061259.7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+    <row r="73">
+      <c r="A73" s="16" t="n">
         <v>45036</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="3" t="n">
         <v>50267300</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="3" t="n">
         <v>8439400</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="3" t="n">
         <v>63967600</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="3" t="n">
         <v>3155500</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="3" t="n">
         <v>84685.11</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="17" t="n">
         <v>125914485.11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+    <row r="74">
+      <c r="A74" s="16" t="n">
         <v>45037</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="3" t="n">
         <v>53209400</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="3" t="n">
         <v>9708900</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="3" t="n">
         <v>68811500</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="3" t="n">
         <v>2953500</v>
       </c>
-      <c r="F74" s="3">
-        <v>96236.99</v>
-      </c>
-      <c r="G74" s="10">
-        <v>134779536.99000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="F74" s="3" t="n">
+        <v>96236.99000000001</v>
+      </c>
+      <c r="G74" s="17" t="n">
+        <v>134779536.99</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="16" t="n">
         <v>45040</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="3" t="n">
         <v>47457800</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="3" t="n">
         <v>8816500</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="3" t="n">
         <v>61182000</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="3" t="n">
         <v>3268100</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="3" t="n">
         <v>130014.79</v>
       </c>
-      <c r="G75" s="10">
-        <v>120854414.79000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="G75" s="17" t="n">
+        <v>120854414.79</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="16" t="n">
         <v>45041</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="3" t="n">
         <v>49589200</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="3" t="n">
         <v>12592600</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="n">
         <v>64086800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="3" t="n">
         <v>3376700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="n">
         <v>147068.57</v>
       </c>
-      <c r="G76" s="10">
-        <v>129792368.56999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="G76" s="17" t="n">
+        <v>129792368.57</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="16" t="n">
         <v>45042</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="3" t="n">
         <v>48210600</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="3" t="n">
         <v>10192600</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="3" t="n">
         <v>64256100</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="3" t="n">
         <v>3279300</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="3" t="n">
         <v>157243.9</v>
       </c>
-      <c r="G77" s="10">
-        <v>126095843.90000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="G77" s="17" t="n">
+        <v>126095843.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="16" t="n">
         <v>45043</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="3" t="n">
         <v>46745500</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="3" t="n">
         <v>9167900</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="3" t="n">
         <v>58028400</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="3" t="n">
         <v>2826200</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="3" t="n">
         <v>163223.51</v>
       </c>
-      <c r="G78" s="10">
-        <v>116931223.51000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="G78" s="17" t="n">
+        <v>116931223.51</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="16" t="n">
         <v>45044</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="3" t="n">
         <v>51589000</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="3" t="n">
         <v>10469600</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="3" t="n">
         <v>60286100</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="3" t="n">
         <v>2641900</v>
       </c>
-      <c r="F79" s="3">
-        <v>140937.42000000001</v>
-      </c>
-      <c r="G79" s="10">
+      <c r="F79" s="3" t="n">
+        <v>140937.42</v>
+      </c>
+      <c r="G79" s="17" t="n">
         <v>125127537.42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+    <row r="80">
+      <c r="A80" s="16" t="n">
         <v>45050</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="3" t="n">
         <v>55109000</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="3" t="n">
         <v>8460500</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="3" t="n">
         <v>62252700</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="3" t="n">
         <v>2471000</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="3" t="n">
         <v>168785.39</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="17" t="n">
         <v>128461985.39</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+    <row r="81">
+      <c r="A81" s="16" t="n">
         <v>45051</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="3" t="n">
         <v>49976400</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="3" t="n">
         <v>7947100</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="n">
         <v>57300300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="n">
         <v>2555900</v>
       </c>
-      <c r="F81" s="3">
-        <v>270980.28999999998</v>
-      </c>
-      <c r="G81" s="10">
-        <v>118050680.29000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="F81" s="3" t="n">
+        <v>270980.29</v>
+      </c>
+      <c r="G81" s="17" t="n">
+        <v>118050680.29</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="16" t="n">
         <v>45054</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="3" t="n">
         <v>56574400</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="3" t="n">
         <v>8056200</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="3" t="n">
         <v>57316500</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="3" t="n">
         <v>2540900</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="3" t="n">
         <v>272975.27</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="17" t="n">
         <v>124760975.27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+    <row r="83">
+      <c r="A83" s="16" t="n">
         <v>45055</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="3" t="n">
         <v>62009000</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="3" t="n">
         <v>8933200</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="n">
         <v>60448100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="n">
         <v>2812400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="n">
         <v>249046.68</v>
       </c>
-      <c r="G83" s="10">
-        <v>134451746.68000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="G83" s="17" t="n">
+        <v>134451746.68</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="16" t="n">
         <v>45056</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="3" t="n">
         <v>49091200</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="3" t="n">
         <v>9307200</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="3" t="n">
         <v>53232200</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="3" t="n">
         <v>2795200</v>
       </c>
-      <c r="F84" s="3">
-        <v>153050.45000000001</v>
-      </c>
-      <c r="G84" s="10">
+      <c r="F84" s="3" t="n">
+        <v>153050.45</v>
+      </c>
+      <c r="G84" s="17" t="n">
         <v>114578850.45</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+    <row r="85">
+      <c r="A85" s="16" t="n">
         <v>45057</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="3" t="n">
         <v>40218700</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="3" t="n">
         <v>7440400</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="3" t="n">
         <v>49596900</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="3" t="n">
         <v>2496600</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="3" t="n">
         <v>164260.34</v>
       </c>
-      <c r="G85" s="10">
-        <v>99916860.340000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="G85" s="17" t="n">
+        <v>99916860.34</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="16" t="n">
         <v>45058</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="3" t="n">
         <v>38854500</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="3" t="n">
         <v>7978800</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="3" t="n">
         <v>46262700</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="3" t="n">
         <v>2593300</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="3" t="n">
         <v>168517.01</v>
       </c>
-      <c r="G86" s="10">
-        <v>95857817.010000005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="G86" s="17" t="n">
+        <v>95857817.01000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="16" t="n">
         <v>45061</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="3" t="n">
         <v>43268200</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="3" t="n">
         <v>7999600</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="3" t="n">
         <v>50786300</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="3" t="n">
         <v>2758600</v>
       </c>
-      <c r="F87" s="3">
-        <v>167094.07999999999</v>
-      </c>
-      <c r="G87" s="10">
+      <c r="F87" s="3" t="n">
+        <v>167094.08</v>
+      </c>
+      <c r="G87" s="17" t="n">
         <v>104979794.08</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+    <row r="88">
+      <c r="A88" s="16" t="n">
         <v>45062</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="3" t="n">
         <v>38674300</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="3" t="n">
         <v>6853800</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="3" t="n">
         <v>48297500</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="3" t="n">
         <v>2318400</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="3" t="n">
         <v>148532.09</v>
       </c>
-      <c r="G88" s="10">
-        <v>96292532.090000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+      <c r="G88" s="17" t="n">
+        <v>96292532.09</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="16" t="n">
         <v>45063</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="3" t="n">
         <v>34252200</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="3" t="n">
         <v>7512300</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="n">
         <v>44211200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="n">
         <v>2229300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="n">
         <v>152110.28</v>
       </c>
-      <c r="G89" s="10">
-        <v>88357110.280000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="G89" s="17" t="n">
+        <v>88357110.28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="16" t="n">
         <v>45064</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="3" t="n">
         <v>36944300</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="3" t="n">
         <v>7450300</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="3" t="n">
         <v>51333100</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="3" t="n">
         <v>2669500</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="3" t="n">
         <v>247597.64</v>
       </c>
-      <c r="G90" s="10">
-        <v>98644797.640000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="G90" s="17" t="n">
+        <v>98644797.64</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="16" t="n">
         <v>45065</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="3" t="n">
         <v>36099600</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="3" t="n">
         <v>7557300</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="n">
         <v>48998600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="n">
         <v>2425700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="n">
         <v>205622.15</v>
       </c>
-      <c r="G91" s="10">
-        <v>95286822.150000006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="G91" s="17" t="n">
+        <v>95286822.15000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="16" t="n">
         <v>45068</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="3" t="n">
         <v>34470900</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="3" t="n">
         <v>7840500</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="3" t="n">
         <v>45453300</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="3" t="n">
         <v>2520600</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="3" t="n">
         <v>196399.39</v>
       </c>
-      <c r="G92" s="10">
-        <v>90481699.390000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="G92" s="17" t="n">
+        <v>90481699.39</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="16" t="n">
         <v>45069</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="3" t="n">
         <v>32558600</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="3" t="n">
         <v>7220800</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="3" t="n">
         <v>44178600</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="3" t="n">
         <v>2293100</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="3" t="n">
         <v>213074.22</v>
       </c>
-      <c r="G93" s="10">
-        <v>86464174.219999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="G93" s="17" t="n">
+        <v>86464174.22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="16" t="n">
         <v>45070</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="3" t="n">
         <v>34359000</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="3" t="n">
         <v>8230600</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="n">
         <v>46187900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="n">
         <v>2603500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="n">
         <v>201549.03</v>
       </c>
-      <c r="G94" s="10">
-        <v>91582549.030000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
+      <c r="G94" s="17" t="n">
+        <v>91582549.03</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="16" t="n">
         <v>45071</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="3" t="n">
         <v>35011100</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="3" t="n">
         <v>8657600</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="3" t="n">
         <v>51039800</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="3" t="n">
         <v>2487100</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="3" t="n">
         <v>209301.24</v>
       </c>
-      <c r="G95" s="10">
-        <v>97404901.239999995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+      <c r="G95" s="17" t="n">
+        <v>97404901.23999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="16" t="n">
         <v>45072</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="3" t="n">
         <v>33441200</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="3" t="n">
         <v>7596300</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="3" t="n">
         <v>48817800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="3" t="n">
         <v>2283000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="3" t="n">
         <v>260301.86</v>
       </c>
-      <c r="G96" s="10">
-        <v>92398601.859999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
+      <c r="G96" s="17" t="n">
+        <v>92398601.86</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="16" t="n">
         <v>45075</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="3" t="n">
         <v>37972400</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="3" t="n">
         <v>7842200</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="3" t="n">
         <v>54427000</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="3" t="n">
         <v>2477100</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="3" t="n">
         <v>208513.2</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="17" t="n">
         <v>102927213.2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
+    <row r="98">
+      <c r="A98" s="16" t="n">
         <v>45076</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="3" t="n">
         <v>37798000</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="3" t="n">
         <v>8352700</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="3" t="n">
         <v>55837200</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="3" t="n">
         <v>2683700</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="3" t="n">
         <v>181644.01</v>
       </c>
-      <c r="G98" s="10">
-        <v>104853244.01000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
+      <c r="G98" s="17" t="n">
+        <v>104853244.01</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="16" t="n">
         <v>45077</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="3" t="n">
         <v>38679200</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="3" t="n">
         <v>9011200</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="3" t="n">
         <v>55480400</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="3" t="n">
         <v>2645700</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="3" t="n">
         <v>215092.21</v>
       </c>
-      <c r="G99" s="10">
-        <v>106031592.20999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+      <c r="G99" s="17" t="n">
+        <v>106031592.21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="16" t="n">
         <v>45078</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="3" t="n">
         <v>40193300</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="3" t="n">
         <v>8986900</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="n">
         <v>58721200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="n">
         <v>2837400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="n">
         <v>187926.65</v>
       </c>
-      <c r="G100" s="10">
-        <v>110926726.65000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+      <c r="G100" s="17" t="n">
+        <v>110926726.65</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="16" t="n">
         <v>45079</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="3" t="n">
         <v>37858300</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="3" t="n">
         <v>8565100</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="n">
         <v>56403300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="n">
         <v>2595700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="n">
         <v>162040.53</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="17" t="n">
         <v>105584440.53</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+    <row r="102">
+      <c r="A102" s="16" t="n">
         <v>45082</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="3" t="n">
         <v>36021200</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="3" t="n">
         <v>7386000</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="n">
         <v>51712500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="n">
         <v>2572100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="n">
         <v>128196.08</v>
       </c>
-      <c r="G102" s="10">
-        <v>97819996.079999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="G102" s="17" t="n">
+        <v>97819996.08</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="16" t="n">
         <v>45083</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="3" t="n">
         <v>38862100</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="3" t="n">
         <v>7412500</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="3" t="n">
         <v>55205500</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="3" t="n">
         <v>2495000</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="3" t="n">
         <v>170814.26</v>
       </c>
-      <c r="G103" s="10">
-        <v>104145914.26000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="G103" s="17" t="n">
+        <v>104145914.26</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="16" t="n">
         <v>45084</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="3" t="n">
         <v>33304200</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="3" t="n">
         <v>7657200</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="3" t="n">
         <v>48523200</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="3" t="n">
         <v>2351200</v>
       </c>
-      <c r="F104" s="3">
-        <v>142355.20000000001</v>
-      </c>
-      <c r="G104" s="10">
-        <v>91978155.200000003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="F104" s="3" t="n">
+        <v>142355.2</v>
+      </c>
+      <c r="G104" s="17" t="n">
+        <v>91978155.2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="16" t="n">
         <v>45085</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="3" t="n">
         <v>35498300</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="3" t="n">
         <v>8160000</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="3" t="n">
         <v>50699500</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="3" t="n">
         <v>2623100</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="3" t="n">
         <v>159168.9</v>
       </c>
-      <c r="G105" s="10">
-        <v>97140068.900000006</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
+      <c r="G105" s="17" t="n">
+        <v>97140068.90000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="16" t="n">
         <v>45086</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="3" t="n">
         <v>41455300</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="3" t="n">
         <v>8466500</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="3" t="n">
         <v>57769800</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="3" t="n">
         <v>2519300</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="3" t="n">
         <v>136745.75</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="17" t="n">
         <v>110347645.75</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
+    <row r="107">
+      <c r="A107" s="16" t="n">
         <v>45089</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="3" t="n">
         <v>40433000</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="3" t="n">
         <v>7814000</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="3" t="n">
         <v>56328800</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="3" t="n">
         <v>2388100</v>
       </c>
-      <c r="F107" s="3">
-        <v>132394.39000000001</v>
-      </c>
-      <c r="G107" s="10">
+      <c r="F107" s="3" t="n">
+        <v>132394.39</v>
+      </c>
+      <c r="G107" s="17" t="n">
         <v>107096294.39</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
+    <row r="108">
+      <c r="A108" s="16" t="n">
         <v>45090</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="3" t="n">
         <v>38102100</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="3" t="n">
         <v>8363900</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="3" t="n">
         <v>56644800</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="3" t="n">
         <v>2386800</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="3" t="n">
         <v>129472.15</v>
       </c>
-      <c r="G108" s="10">
-        <v>105627072.15000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
+      <c r="G108" s="17" t="n">
+        <v>105627072.15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="16" t="n">
         <v>45091</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="3" t="n">
         <v>40545100</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="3" t="n">
         <v>8746900</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="3" t="n">
         <v>59773600</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="3" t="n">
         <v>2576800</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="3" t="n">
         <v>133888.06</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="17" t="n">
         <v>111776288.06</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+    <row r="110">
+      <c r="A110" s="16" t="n">
         <v>45092</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="3" t="n">
         <v>43990800</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="3" t="n">
         <v>9949500</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="3" t="n">
         <v>63693200</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="3" t="n">
         <v>3099700</v>
       </c>
-      <c r="F110" s="3">
-        <v>147138.45000000001</v>
-      </c>
-      <c r="G110" s="10">
+      <c r="F110" s="3" t="n">
+        <v>147138.45</v>
+      </c>
+      <c r="G110" s="17" t="n">
         <v>120880338.45</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+    <row r="111">
+      <c r="A111" s="16" t="n">
         <v>45093</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="3" t="n">
         <v>44705700</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="3" t="n">
         <v>10328700</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="3" t="n">
         <v>62454900</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="3" t="n">
         <v>2965400</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="3" t="n">
         <v>135744.76</v>
       </c>
-      <c r="G111" s="10">
-        <v>120590444.76000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
+      <c r="G111" s="17" t="n">
+        <v>120590444.76</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="16" t="n">
         <v>45096</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="3" t="n">
         <v>45657200</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="3" t="n">
         <v>8713700</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="3" t="n">
         <v>65308200</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="3" t="n">
         <v>2599300</v>
       </c>
-      <c r="F112" s="3">
-        <v>156107.57999999999</v>
-      </c>
-      <c r="G112" s="10">
+      <c r="F112" s="3" t="n">
+        <v>156107.58</v>
+      </c>
+      <c r="G112" s="17" t="n">
         <v>122434507.58</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
+    <row r="113">
+      <c r="A113" s="16" t="n">
         <v>45097</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="3" t="n">
         <v>43466200</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="3" t="n">
         <v>9030500</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="3" t="n">
         <v>65884800</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="3" t="n">
         <v>2561900</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="3" t="n">
         <v>180187.9</v>
       </c>
-      <c r="G113" s="10">
-        <v>121123587.90000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
+      <c r="G113" s="17" t="n">
+        <v>121123587.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="16" t="n">
         <v>45098</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="3" t="n">
         <v>40784200</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="3" t="n">
         <v>9830100</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="3" t="n">
         <v>61688400</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="3" t="n">
         <v>2880000</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="3" t="n">
         <v>210192.41</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="17" t="n">
         <v>115392892.41</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
+    <row r="115">
+      <c r="A115" s="16" t="n">
         <v>45103</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="3" t="n">
         <v>39987500</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="3" t="n">
         <v>9937400</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="3" t="n">
         <v>58082500</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="3" t="n">
         <v>2967300</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="3" t="n">
         <v>205914.96</v>
       </c>
-      <c r="G115" s="10">
-        <v>111180614.95999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
+      <c r="G115" s="17" t="n">
+        <v>111180614.96</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="16" t="n">
         <v>45104</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="3" t="n">
         <v>35882900</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="3" t="n">
         <v>8442100</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="3" t="n">
         <v>48938300</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="3" t="n">
         <v>2500900</v>
       </c>
-      <c r="F116" s="3">
-        <v>144969.48000000001</v>
-      </c>
-      <c r="G116" s="10">
-        <v>95909169.480000004</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
+      <c r="F116" s="3" t="n">
+        <v>144969.48</v>
+      </c>
+      <c r="G116" s="17" t="n">
+        <v>95909169.48</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="16" t="n">
         <v>45105</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="3" t="n">
         <v>36140600</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="3" t="n">
         <v>8954000</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="3" t="n">
         <v>53076000</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="3" t="n">
         <v>2688500</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="3" t="n">
         <v>162653.87</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="17" t="n">
         <v>101021753.87</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
+    <row r="118">
+      <c r="A118" s="16" t="n">
         <v>45106</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="3" t="n">
         <v>34405400</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="3" t="n">
         <v>8562900</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="3" t="n">
         <v>52583500</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="3" t="n">
         <v>2428400</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="3" t="n">
         <v>238234.12</v>
       </c>
-      <c r="G118" s="10">
-        <v>98218434.120000005</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
+      <c r="G118" s="17" t="n">
+        <v>98218434.12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="16" t="n">
         <v>45107</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="3" t="n">
         <v>36041700</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="3" t="n">
         <v>9716800</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="3" t="n">
         <v>56052600</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="3" t="n">
         <v>2721900</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="3" t="n">
         <v>195233.44</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="17" t="n">
         <v>104728233.44</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
+    <row r="120">
+      <c r="A120" s="16" t="n">
         <v>45110</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="3" t="n">
         <v>42240500</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="3" t="n">
         <v>9273300</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="3" t="n">
         <v>60484300</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="3" t="n">
         <v>2532500</v>
       </c>
-      <c r="F120" s="3">
-        <v>166196.73000000001</v>
-      </c>
-      <c r="G120" s="10">
+      <c r="F120" s="3" t="n">
+        <v>166196.73</v>
+      </c>
+      <c r="G120" s="17" t="n">
         <v>114696796.73</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
+    <row r="121">
+      <c r="A121" s="16" t="n">
         <v>45111</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="3" t="n">
         <v>38994700</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="3" t="n">
         <v>7081100</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="3" t="n">
         <v>54348900</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="3" t="n">
         <v>2263200</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="3" t="n">
         <v>183227.81</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="17" t="n">
         <v>102871127.81</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
+    <row r="122">
+      <c r="A122" s="16" t="n">
         <v>45112</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="3" t="n">
         <v>35219900</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="3" t="n">
         <v>6520700</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="3" t="n">
         <v>51814000</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="3" t="n">
         <v>2308600</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="3" t="n">
         <v>226296.93</v>
       </c>
-      <c r="G122" s="10">
-        <v>96089496.930000007</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
+      <c r="G122" s="17" t="n">
+        <v>96089496.93000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="16" t="n">
         <v>45113</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="3" t="n">
         <v>32549600</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="3" t="n">
         <v>7159300</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="3" t="n">
         <v>50002600</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="3" t="n">
         <v>2394500</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="3" t="n">
         <v>171054.03</v>
       </c>
-      <c r="G123" s="10">
-        <v>92277054.030000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
+      <c r="G123" s="17" t="n">
+        <v>92277054.03</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="16" t="n">
         <v>45114</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="3" t="n">
         <v>31528000</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="3" t="n">
         <v>7555800</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="3" t="n">
         <v>48753400</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="3" t="n">
         <v>2456300</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="3" t="n">
         <v>175260.48</v>
       </c>
-      <c r="G124" s="10">
-        <v>90468760.480000004</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
+      <c r="G124" s="17" t="n">
+        <v>90468760.48</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="16" t="n">
         <v>45117</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="3" t="n">
         <v>31249100</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="3" t="n">
         <v>6814800</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="3" t="n">
         <v>45076000</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="3" t="n">
         <v>2322700</v>
       </c>
-      <c r="F125" s="3">
-        <v>166458.92000000001</v>
-      </c>
-      <c r="G125" s="10">
-        <v>85629058.920000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
+      <c r="F125" s="3" t="n">
+        <v>166458.92</v>
+      </c>
+      <c r="G125" s="17" t="n">
+        <v>85629058.92</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="16" t="n">
         <v>45118</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="3" t="n">
         <v>31314000</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="3" t="n">
         <v>7266400</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="3" t="n">
         <v>46532300</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="3" t="n">
         <v>2133500</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="3" t="n">
         <v>121832.44</v>
       </c>
-      <c r="G126" s="10">
-        <v>87368032.439999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
+      <c r="G126" s="17" t="n">
+        <v>87368032.44</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="16" t="n">
         <v>45119</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="3" t="n">
         <v>36683500</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="3" t="n">
         <v>7252100</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="3" t="n">
         <v>64750700</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="3" t="n">
         <v>2241600</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="3" t="n">
         <v>151932.44</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="17" t="n">
         <v>111079832.44</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
+    <row r="128">
+      <c r="A128" s="16" t="n">
         <v>45120</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="3" t="n">
         <v>37462700</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="3" t="n">
         <v>9615800</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="3" t="n">
         <v>54934800</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="3" t="n">
         <v>2776600</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="3" t="n">
         <v>143196.75</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G128" s="17" t="n">
         <v>104933096.75</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
+    <row r="129">
+      <c r="A129" s="16" t="n">
         <v>45121</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="3" t="n">
         <v>36979300</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="3" t="n">
         <v>7143400</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="3" t="n">
         <v>55611700</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="3" t="n">
         <v>2123000</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="3" t="n">
         <v>179051.14</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="17" t="n">
         <v>102036451.14</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
+    <row r="130">
+      <c r="A130" s="16" t="n">
         <v>45124</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="3" t="n">
         <v>32340700</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="3" t="n">
         <v>8485200</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="3" t="n">
         <v>48297700</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="3" t="n">
         <v>1874600</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="3" t="n">
         <v>148182.76</v>
       </c>
-      <c r="G130" s="10">
-        <v>91146382.760000005</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
+      <c r="G130" s="17" t="n">
+        <v>91146382.76000001</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="16" t="n">
         <v>45125</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="3" t="n">
         <v>30891900</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="3" t="n">
         <v>7018500</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="3" t="n">
         <v>47104200</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="3" t="n">
         <v>1969100</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="3" t="n">
         <v>138130.66</v>
       </c>
-      <c r="G131" s="10">
-        <v>87121830.659999996</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
+      <c r="G131" s="17" t="n">
+        <v>87121830.66</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="16" t="n">
         <v>45126</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="3" t="n">
         <v>28211500</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="3" t="n">
         <v>7634600</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="3" t="n">
         <v>42271300</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="3" t="n">
         <v>2279100</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="3" t="n">
         <v>130830.64</v>
       </c>
-      <c r="G132" s="10">
-        <v>80527330.640000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
+      <c r="G132" s="17" t="n">
+        <v>80527330.64</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="16" t="n">
         <v>45127</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="3" t="n">
         <v>30316800</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="3" t="n">
         <v>8092800</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="3" t="n">
         <v>48444400</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="3" t="n">
         <v>2675400</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="3" t="n">
         <v>215916.05</v>
       </c>
-      <c r="G133" s="10">
-        <v>89745316.049999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
+      <c r="G133" s="17" t="n">
+        <v>89745316.05</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="16" t="n">
         <v>45128</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="3" t="n">
         <v>28188700</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="3" t="n">
         <v>8084000</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="3" t="n">
         <v>43122400</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="3" t="n">
         <v>2413700</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="3" t="n">
         <v>144560.74</v>
       </c>
-      <c r="G134" s="10">
-        <v>81953360.739999995</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
+      <c r="G134" s="17" t="n">
+        <v>81953360.73999999</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="16" t="n">
         <v>45131</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="3" t="n">
         <v>26122000</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="3" t="n">
         <v>6868700</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="3" t="n">
         <v>39979100</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="3" t="n">
         <v>2181400</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="3" t="n">
         <v>120970.4</v>
       </c>
-      <c r="G135" s="10">
-        <v>75272170.400000006</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
+      <c r="G135" s="17" t="n">
+        <v>75272170.40000001</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="16" t="n">
         <v>45132</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="3" t="n">
         <v>41226100</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="3" t="n">
         <v>11757100</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="3" t="n">
         <v>54074000</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="3" t="n">
         <v>3182100</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="3" t="n">
         <v>119908.9</v>
       </c>
-      <c r="G136" s="10">
-        <v>110359208.90000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
+      <c r="G136" s="17" t="n">
+        <v>110359208.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="16" t="n">
         <v>45133</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="3" t="n">
         <v>33357000</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="3" t="n">
         <v>8739800</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="3" t="n">
         <v>46519400</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="3" t="n">
         <v>2450100</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="3" t="n">
         <v>111389.65</v>
       </c>
-      <c r="G137" s="10">
-        <v>91177689.650000006</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
+      <c r="G137" s="17" t="n">
+        <v>91177689.65000001</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="16" t="n">
         <v>45134</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="3" t="n">
         <v>33394500</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="3" t="n">
         <v>9276200</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="3" t="n">
         <v>44990700</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="3" t="n">
         <v>2549000</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="3" t="n">
         <v>116737.39</v>
       </c>
-      <c r="G138" s="10">
-        <v>90327137.390000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
+      <c r="G138" s="17" t="n">
+        <v>90327137.39</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="16" t="n">
         <v>45135</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="4" t="n">
         <v>43832700</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="3" t="n">
         <v>12524300</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="4" t="n">
         <v>51277000</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="3" t="n">
         <v>3200400</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="4" t="n">
         <v>133897.9</v>
       </c>
-      <c r="G139" s="10">
-        <v>110968297.90000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
+      <c r="G139" s="17" t="n">
+        <v>110968297.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="16" t="n">
         <v>45138</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="3" t="n">
         <v>51231700</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="3" t="n">
         <v>13567200</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="3" t="n">
         <v>59460700</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="3" t="n">
         <v>3239600</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="3" t="n">
         <v>127873.22</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="17" t="n">
         <v>127627073.22</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
+    <row r="141">
+      <c r="A141" s="16" t="n">
         <v>45139</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="3" t="n">
         <v>44195400</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="3" t="n">
         <v>10962600</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="3" t="n">
         <v>51717600</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="3" t="n">
         <v>2939000</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="3" t="n">
         <v>110782.21</v>
       </c>
-      <c r="G141" s="10">
-        <v>109925382.20999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
+      <c r="G141" s="17" t="n">
+        <v>109925382.21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="16" t="n">
         <v>45140</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="3" t="n">
         <v>38939000</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="3" t="n">
         <v>9442200</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="3" t="n">
         <v>44879400</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="3" t="n">
         <v>2661200</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="3" t="n">
         <v>111630.18</v>
       </c>
-      <c r="G142" s="10">
-        <v>96033430.180000007</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
+      <c r="G142" s="17" t="n">
+        <v>96033430.18000001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="16" t="n">
         <v>45141</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="3" t="n">
         <v>39022100</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="3" t="n">
         <v>9299600</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="3" t="n">
         <v>44425500</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="3" t="n">
         <v>2833200</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="3" t="n">
         <v>100763.03</v>
       </c>
-      <c r="G143" s="10">
-        <v>95681163.030000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
+      <c r="G143" s="17" t="n">
+        <v>95681163.03</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="16" t="n">
         <v>45142</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="3" t="n">
         <v>49803200</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="3" t="n">
         <v>11018700</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="3" t="n">
         <v>55261100</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="3" t="n">
         <v>3126900</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="3" t="n">
         <v>109576.21</v>
       </c>
-      <c r="G144" s="10">
-        <v>119319476.20999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
+      <c r="G144" s="17" t="n">
+        <v>119319476.21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="16" t="n">
         <v>45145</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="3" t="n">
         <v>39397200</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="3" t="n">
         <v>8938300</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="3" t="n">
         <v>49743700</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="3" t="n">
         <v>2807700</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="3" t="n">
         <v>107845.49</v>
       </c>
-      <c r="G145" s="10">
-        <v>100994745.48999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
+      <c r="G145" s="17" t="n">
+        <v>100994745.49</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="16" t="n">
         <v>45146</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="3" t="n">
         <v>35647800</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="3" t="n">
         <v>8244100</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="3" t="n">
         <v>44368500</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="3" t="n">
         <v>2712800</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="3" t="n">
         <v>98377.11</v>
       </c>
-      <c r="G146" s="10">
-        <v>91071577.109999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
+      <c r="G146" s="17" t="n">
+        <v>91071577.11</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="16" t="n">
         <v>45147</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="3" t="n">
         <v>31025800</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="3" t="n">
         <v>8307700</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="3" t="n">
         <v>42737300</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="3" t="n">
         <v>2696800</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="3" t="n">
         <v>97719.06</v>
       </c>
-      <c r="G147" s="10">
-        <v>84865319.060000002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
+      <c r="G147" s="17" t="n">
+        <v>84865319.06</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="16" t="n">
         <v>45148</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="3" t="n">
         <v>30842000</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="3" t="n">
         <v>8359300</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="3" t="n">
         <v>38778500</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="3" t="n">
         <v>2382200</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="3" t="n">
         <v>106797.19</v>
       </c>
-      <c r="G148" s="10">
-        <v>80468797.189999998</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
+      <c r="G148" s="17" t="n">
+        <v>80468797.19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="16" t="n">
         <v>45149</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="3" t="n">
         <v>33978600</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="3" t="n">
         <v>9412500</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="3" t="n">
         <v>42469700</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="3" t="n">
         <v>3083300</v>
       </c>
-      <c r="F149" s="3">
-        <v>95115.68</v>
-      </c>
-      <c r="G149" s="10">
-        <v>89039215.680000007</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
+      <c r="F149" s="3" t="n">
+        <v>95115.67999999999</v>
+      </c>
+      <c r="G149" s="17" t="n">
+        <v>89039215.68000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="16" t="n">
         <v>45152</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="3" t="n">
         <v>32410700</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="3" t="n">
         <v>8909200</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="3" t="n">
         <v>42268500</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="3" t="n">
         <v>2805400</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="3" t="n">
         <v>76219.8</v>
       </c>
-      <c r="G150" s="10">
-        <v>86470019.799999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
+      <c r="G150" s="17" t="n">
+        <v>86470019.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="16" t="n">
         <v>45153</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="3" t="n">
         <v>30182400</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="3" t="n">
         <v>8716000</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="3" t="n">
         <v>40654600</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="3" t="n">
         <v>2553100</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="3" t="n">
         <v>65901.64</v>
       </c>
-      <c r="G151" s="10">
-        <v>82172001.640000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
+      <c r="G151" s="17" t="n">
+        <v>82172001.64</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="16" t="n">
         <v>45154</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="3" t="n">
         <v>30418600</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="3" t="n">
         <v>8067300</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="3" t="n">
         <v>40198900</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="3" t="n">
         <v>2422000</v>
       </c>
-      <c r="F152" s="3">
-        <v>95567.9</v>
-      </c>
-      <c r="G152" s="10">
-        <v>81202367.900000006</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
+      <c r="F152" s="3" t="n">
+        <v>95567.89999999999</v>
+      </c>
+      <c r="G152" s="17" t="n">
+        <v>81202367.90000001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="16" t="n">
         <v>45155</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="3" t="n">
         <v>32302800</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="3" t="n">
         <v>10525600</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="3" t="n">
         <v>42039100</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="3" t="n">
         <v>2983800</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="3" t="n">
         <v>103399.41</v>
       </c>
-      <c r="G153" s="10">
-        <v>87954699.409999996</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="9">
+      <c r="G153" s="17" t="n">
+        <v>87954699.41</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="16" t="n">
         <v>45156</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="3" t="n">
         <v>32234800</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="3" t="n">
         <v>9726600</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="3" t="n">
         <v>42539300</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="3" t="n">
         <v>2485900</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="3" t="n">
         <v>101529.2</v>
       </c>
-      <c r="G154" s="10">
-        <v>87088129.200000003</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
+      <c r="G154" s="17" t="n">
+        <v>87088129.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="16" t="n">
         <v>45159</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="3" t="n">
         <v>29476600</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="3" t="n">
         <v>9436100</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="3" t="n">
         <v>38576600</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="3" t="n">
         <v>2485100</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="3" t="n">
         <v>83964.47</v>
       </c>
-      <c r="G155" s="10">
-        <v>80058364.469999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
+      <c r="G155" s="17" t="n">
+        <v>80058364.47</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="16" t="n">
         <v>45160</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="3" t="n">
         <v>35029200</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="3" t="n">
         <v>10772800</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="3" t="n">
         <v>47088400</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="3" t="n">
         <v>3128200</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="3" t="n">
         <v>108474.43</v>
       </c>
-      <c r="G156" s="10">
-        <v>96127074.430000007</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
+      <c r="G156" s="17" t="n">
+        <v>96127074.43000001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="16" t="n">
         <v>45161</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="3" t="n">
         <v>29928800</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="3" t="n">
         <v>9216600</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="3" t="n">
         <v>40841900</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="3" t="n">
         <v>2789200</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="3" t="n">
         <v>119635.21</v>
       </c>
-      <c r="G157" s="10">
-        <v>82896135.209999993</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
+      <c r="G157" s="17" t="n">
+        <v>82896135.20999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="16" t="n">
         <v>45162</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="3" t="n">
         <v>33425200</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="3" t="n">
         <v>10813000</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="3" t="n">
         <v>45390500</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="3" t="n">
         <v>3113800</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="3" t="n">
         <v>117065.35</v>
       </c>
-      <c r="G158" s="10">
-        <v>92859565.349999994</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
+      <c r="G158" s="17" t="n">
+        <v>92859565.34999999</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="16" t="n">
         <v>45163</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="3" t="n">
         <v>31925500</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="3" t="n">
         <v>10476100</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="3" t="n">
         <v>44892000</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="3" t="n">
         <v>2715300</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="3" t="n">
         <v>129840.89</v>
       </c>
-      <c r="G159" s="10">
-        <v>90138740.890000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="9">
+      <c r="G159" s="17" t="n">
+        <v>90138740.89</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="16" t="n">
         <v>45166</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="3" t="n">
         <v>51831900</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="3" t="n">
         <v>16644400</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="3" t="n">
         <v>61045800</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="3" t="n">
         <v>3751400</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="3" t="n">
         <v>145330.38</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="17" t="n">
         <v>133418830.38</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="9">
+    <row r="161">
+      <c r="A161" s="16" t="n">
         <v>45167</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="3" t="n">
         <v>44548800</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="3" t="n">
         <v>14708400</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="3" t="n">
         <v>59479200</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="3" t="n">
         <v>3268000</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="3" t="n">
         <v>126736.6</v>
       </c>
-      <c r="G161" s="10">
-        <v>122131136.59999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="9">
+      <c r="G161" s="17" t="n">
+        <v>122131136.6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="16" t="n">
         <v>45168</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="3" t="n">
         <v>41579100</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="3" t="n">
         <v>11898600</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="3" t="n">
         <v>57248100</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="3" t="n">
         <v>2931800</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="3" t="n">
         <v>115721.3</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="17" t="n">
         <v>113773321.3</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="9">
+    <row r="163">
+      <c r="A163" s="16" t="n">
         <v>45169</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="3" t="n">
         <v>36392900</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="3" t="n">
         <v>10340800</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="3" t="n">
         <v>46775400</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="3" t="n">
         <v>2483500</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="3" t="n">
         <v>100325.96</v>
       </c>
-      <c r="G163" s="10">
-        <v>96092925.959999993</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="9">
+      <c r="G163" s="17" t="n">
+        <v>96092925.95999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="16" t="n">
         <v>45170</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="3" t="n">
         <v>33517500</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="3" t="n">
         <v>8145200</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="3" t="n">
         <v>41163600</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="3" t="n">
         <v>2038100</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="3" t="n">
         <v>192688.35</v>
       </c>
-      <c r="G164" s="10">
-        <v>85057088.349999994</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="9">
+      <c r="G164" s="17" t="n">
+        <v>85057088.34999999</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="16" t="n">
         <v>45173</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="3" t="n">
         <v>40498300</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="3" t="n">
         <v>9195900</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="3" t="n">
         <v>48188700</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="3" t="n">
         <v>2684200</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="3" t="n">
         <v>351261.87</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="17" t="n">
         <v>100918361.87</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
+    <row r="166">
+      <c r="A166" s="16" t="n">
         <v>45174</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="3" t="n">
         <v>34342900</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="3" t="n">
         <v>8277100</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="3" t="n">
         <v>46235600</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="3" t="n">
         <v>2365700</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="3" t="n">
         <v>212964.97</v>
       </c>
-      <c r="G166" s="10">
-        <v>91434264.969999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="9">
+      <c r="G166" s="17" t="n">
+        <v>91434264.97</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="16" t="n">
         <v>45175</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="3" t="n">
         <v>32434800</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="3" t="n">
         <v>8819400</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="3" t="n">
         <v>44810500</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="3" t="n">
         <v>2406200</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="3" t="n">
         <v>152495.25</v>
       </c>
-      <c r="G167" s="10">
+      <c r="G167" s="17" t="n">
         <v>88623395.25</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="9">
+    <row r="168">
+      <c r="A168" s="16" t="n">
         <v>45176</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="3" t="n">
         <v>31808200</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="3" t="n">
         <v>8455700</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="3" t="n">
         <v>45035500</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="3" t="n">
         <v>2588900</v>
       </c>
-      <c r="F168" s="3">
-        <v>154416.95000000001</v>
-      </c>
-      <c r="G168" s="10">
-        <v>88042716.950000003</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="9">
+      <c r="F168" s="3" t="n">
+        <v>154416.95</v>
+      </c>
+      <c r="G168" s="17" t="n">
+        <v>88042716.95</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="16" t="n">
         <v>45177</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="3" t="n">
         <v>27090300</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="3" t="n">
         <v>8791200</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="3" t="n">
         <v>41259700</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="3" t="n">
         <v>2365900</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="3" t="n">
         <v>121697.28</v>
       </c>
-      <c r="G169" s="10">
-        <v>79628797.280000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
+      <c r="G169" s="17" t="n">
+        <v>79628797.28</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="16" t="n">
         <v>45180</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="3" t="n">
         <v>35267500</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="3" t="n">
         <v>9289500</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="3" t="n">
         <v>49016700</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="3" t="n">
         <v>2571500</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="3" t="n">
         <v>95659.45</v>
       </c>
-      <c r="G170" s="10">
-        <v>96240859.450000003</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="9">
+      <c r="G170" s="17" t="n">
+        <v>96240859.45</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="16" t="n">
         <v>45181</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="3" t="n">
         <v>28285800</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="3" t="n">
         <v>7221500</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="3" t="n">
         <v>42727800</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="3" t="n">
         <v>2095200</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="3" t="n">
         <v>94282.37</v>
       </c>
-      <c r="G171" s="10">
-        <v>80424582.370000005</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
+      <c r="G171" s="17" t="n">
+        <v>80424582.37</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="16" t="n">
         <v>45182</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="3" t="n">
         <v>28297100</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="3" t="n">
         <v>8581500</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="3" t="n">
         <v>41709800</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="3" t="n">
         <v>2347000</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="3" t="n">
         <v>99764.36</v>
       </c>
-      <c r="G172" s="10">
-        <v>81035164.359999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="9">
+      <c r="G172" s="17" t="n">
+        <v>81035164.36</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="16" t="n">
         <v>45183</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="3" t="n">
         <v>28244600</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="3" t="n">
         <v>8842200</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="3" t="n">
         <v>38458200</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="3" t="n">
         <v>2248900</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="3" t="n">
         <v>88810.02</v>
       </c>
-      <c r="G173" s="10">
-        <v>77882710.019999996</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
+      <c r="G173" s="17" t="n">
+        <v>77882710.02</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="16" t="n">
         <v>45184</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="3" t="n">
         <v>32782800</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="3" t="n">
         <v>9392900</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="3" t="n">
         <v>39646500</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="3" t="n">
         <v>2559100</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="3" t="n">
         <v>90134.37</v>
       </c>
-      <c r="G174" s="10">
-        <v>84471434.370000005</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
+      <c r="G174" s="17" t="n">
+        <v>84471434.37</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="16" t="n">
         <v>45187</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="3" t="n">
         <v>30034400</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="3" t="n">
         <v>8361200</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="3" t="n">
         <v>39960700</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="3" t="n">
         <v>2624100</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="3" t="n">
         <v>91570.33</v>
       </c>
-      <c r="G175" s="10">
-        <v>81071970.329999998</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
+      <c r="G175" s="17" t="n">
+        <v>81071970.33</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="16" t="n">
         <v>45188</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="3" t="n">
         <v>27449900</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="3" t="n">
         <v>7725100</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="3" t="n">
         <v>36153500</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="3" t="n">
         <v>2197200</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F176" s="3" t="n">
         <v>97668.34</v>
       </c>
-      <c r="G176" s="10">
-        <v>73623368.340000004</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="9">
+      <c r="G176" s="17" t="n">
+        <v>73623368.34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="16" t="n">
         <v>45189</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="3" t="n">
         <v>24370100</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="3" t="n">
         <v>7262800</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="3" t="n">
         <v>33154800</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="3" t="n">
         <v>2093000</v>
       </c>
-      <c r="F177" s="3">
-        <v>83988.4</v>
-      </c>
-      <c r="G177" s="10">
-        <v>66964688.399999999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
+      <c r="F177" s="3" t="n">
+        <v>83988.39999999999</v>
+      </c>
+      <c r="G177" s="17" t="n">
+        <v>66964688.4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="16" t="n">
         <v>45190</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="3" t="n">
         <v>24433200</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="3" t="n">
         <v>8112800</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="3" t="n">
         <v>33637600</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="3" t="n">
         <v>2141100</v>
       </c>
-      <c r="F178" s="3">
-        <v>79144.160000000003</v>
-      </c>
-      <c r="G178" s="10">
-        <v>68403844.159999996</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="9">
+      <c r="F178" s="3" t="n">
+        <v>79144.16</v>
+      </c>
+      <c r="G178" s="17" t="n">
+        <v>68403844.16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="16" t="n">
         <v>45191</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="3" t="n">
         <v>32210300</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="3" t="n">
         <v>11159200</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="3" t="n">
         <v>44615700</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="3" t="n">
         <v>2848100</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="3" t="n">
         <v>114765.26</v>
       </c>
-      <c r="G179" s="10">
-        <v>90948065.260000005</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
+      <c r="G179" s="17" t="n">
+        <v>90948065.26000001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="16" t="n">
         <v>45194</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="3" t="n">
         <v>29576700</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="3" t="n">
         <v>9108000</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="3" t="n">
         <v>42494600</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="3" t="n">
         <v>2124100</v>
       </c>
-      <c r="F180" s="3">
-        <v>85460.26</v>
-      </c>
-      <c r="G180" s="10">
-        <v>83388860.260000005</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="9">
+      <c r="F180" s="3" t="n">
+        <v>85460.25999999999</v>
+      </c>
+      <c r="G180" s="17" t="n">
+        <v>83388860.26000001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="16" t="n">
         <v>45195</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="3" t="n">
         <v>27130200</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="3" t="n">
         <v>8334900</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="3" t="n">
         <v>39677200</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="3" t="n">
         <v>2070300</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="3" t="n">
         <v>88994.53</v>
       </c>
-      <c r="G181" s="10">
-        <v>77301594.530000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
+      <c r="G181" s="17" t="n">
+        <v>77301594.53</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="16" t="n">
         <v>45196</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="3" t="n">
         <v>29450300</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="3" t="n">
         <v>10212500</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="3" t="n">
         <v>42391400</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="3" t="n">
         <v>2210500</v>
       </c>
-      <c r="F182" s="3">
+      <c r="F182" s="3" t="n">
         <v>80454.89</v>
       </c>
-      <c r="G182" s="10">
-        <v>84345154.890000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="9">
+      <c r="G182" s="17" t="n">
+        <v>84345154.89</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="16" t="n">
         <v>45197</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="3" t="n">
         <v>28948200</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="3" t="n">
         <v>9527400</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="3" t="n">
         <v>42917300</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="3" t="n">
         <v>2364900</v>
       </c>
-      <c r="F183" s="3">
-        <v>93991.4</v>
-      </c>
-      <c r="G183" s="10">
-        <v>83851791.400000006</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
+      <c r="F183" s="3" t="n">
+        <v>93991.39999999999</v>
+      </c>
+      <c r="G183" s="17" t="n">
+        <v>83851791.40000001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="16" t="n">
         <v>45208</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="3" t="n">
         <v>30309000</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="3" t="n">
         <v>9291300</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="3" t="n">
         <v>46818200</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="3" t="n">
         <v>2370500</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="3" t="n">
         <v>83915.34</v>
       </c>
-      <c r="G184" s="10">
-        <v>88872915.340000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="9">
+      <c r="G184" s="17" t="n">
+        <v>88872915.34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="16" t="n">
         <v>45209</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="3" t="n">
         <v>29423400</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="3" t="n">
         <v>8984100</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="3" t="n">
         <v>48169500</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="3" t="n">
         <v>2292500</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="3" t="n">
         <v>74167.48</v>
       </c>
-      <c r="G185" s="10">
-        <v>88943667.480000004</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
+      <c r="G185" s="17" t="n">
+        <v>88943667.48</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="16" t="n">
         <v>45210</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="3" t="n">
         <v>32717500</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="3" t="n">
         <v>9013200</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="3" t="n">
         <v>51289600</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="3" t="n">
         <v>2480800</v>
       </c>
-      <c r="F186" s="3">
-        <v>66143.710000000006</v>
-      </c>
-      <c r="G186" s="10">
-        <v>95567243.709999993</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="9">
+      <c r="F186" s="3" t="n">
+        <v>66143.71000000001</v>
+      </c>
+      <c r="G186" s="17" t="n">
+        <v>95567243.70999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="16" t="n">
         <v>45211</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="3" t="n">
         <v>32640100</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="3" t="n">
         <v>8223900</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="3" t="n">
         <v>50636000</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="3" t="n">
         <v>2193700</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="3" t="n">
         <v>63919.79</v>
       </c>
-      <c r="G187" s="10">
-        <v>93757619.790000007</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
+      <c r="G187" s="17" t="n">
+        <v>93757619.79000001</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="16" t="n">
         <v>45212</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="3" t="n">
         <v>31063800</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="3" t="n">
         <v>7949000</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="3" t="n">
         <v>49974200</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="3" t="n">
         <v>2002000</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="3" t="n">
         <v>81174.86</v>
       </c>
-      <c r="G188" s="10">
-        <v>91070174.859999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="9">
+      <c r="G188" s="17" t="n">
+        <v>91070174.86</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="16" t="n">
         <v>45215</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="3" t="n">
         <v>31460300</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="3" t="n">
         <v>7469000</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="3" t="n">
         <v>49893400</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="3" t="n">
         <v>2268200</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="3" t="n">
         <v>88166.28</v>
       </c>
-      <c r="G189" s="10">
-        <v>91179066.280000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
+      <c r="G189" s="17" t="n">
+        <v>91179066.28</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="16" t="n">
         <v>45216</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="3" t="n">
         <v>30102400</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="3" t="n">
         <v>7326600</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="3" t="n">
         <v>43596500</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="3" t="n">
         <v>1977200</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="3" t="n">
         <v>68965.09</v>
       </c>
-      <c r="G190" s="10">
-        <v>83071665.090000004</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="9">
+      <c r="G190" s="17" t="n">
+        <v>83071665.09</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="16" t="n">
         <v>45217</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="3" t="n">
         <v>31119400</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="3" t="n">
         <v>8110600</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="3" t="n">
         <v>45709100</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="3" t="n">
         <v>2072300</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="3" t="n">
         <v>57987.62</v>
       </c>
-      <c r="G191" s="10">
-        <v>87069387.620000005</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="9">
+      <c r="G191" s="17" t="n">
+        <v>87069387.62</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="16" t="n">
         <v>45218</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="4" t="n">
         <v>35575700</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="3" t="n">
         <v>9360400</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="3" t="n">
         <v>45796000</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="3" t="n">
         <v>2259500</v>
       </c>
-      <c r="F192" s="3">
+      <c r="F192" s="3" t="n">
         <v>77356.56</v>
       </c>
-      <c r="G192" s="10">
-        <v>93068956.560000002</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="9">
+      <c r="G192" s="17" t="n">
+        <v>93068956.56</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="16" t="n">
         <v>45219</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="3" t="n">
         <v>30816300</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="3" t="n">
         <v>8790100</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="3" t="n">
         <v>42589000</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="3" t="n">
         <v>2154000</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="3" t="n">
         <v>59058.71</v>
       </c>
-      <c r="G193" s="10">
-        <v>84408458.709999993</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="9">
+      <c r="G193" s="17" t="n">
+        <v>84408458.70999999</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="16" t="n">
         <v>45222</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="3" t="n">
         <v>30467500</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="3" t="n">
         <v>8992600</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="3" t="n">
         <v>41855600</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="3" t="n">
         <v>2085700</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="3" t="n">
         <v>68660</v>
       </c>
-      <c r="G194" s="10">
+      <c r="G194" s="17" t="n">
         <v>83470060</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="9">
+    <row r="195">
+      <c r="A195" s="16" t="n">
         <v>45223</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="3" t="n">
         <v>34082300</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="3" t="n">
         <v>10146400</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="3" t="n">
         <v>46553900</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="3" t="n">
         <v>2592000</v>
       </c>
-      <c r="F195" s="3">
+      <c r="F195" s="3" t="n">
         <v>65231.75</v>
       </c>
-      <c r="G195" s="10">
+      <c r="G195" s="17" t="n">
         <v>93439831.75</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="9">
+    <row r="196">
+      <c r="A196" s="16" t="n">
         <v>45224</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="3" t="n">
         <v>36354300</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="3" t="n">
         <v>10556600</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="3" t="n">
         <v>51174300</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="3" t="n">
         <v>2424500</v>
       </c>
-      <c r="F196" s="3">
+      <c r="F196" s="3" t="n">
         <v>66120.12</v>
       </c>
-      <c r="G196" s="10">
+      <c r="G196" s="17" t="n">
         <v>100575820.12</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="9">
+    <row r="197">
+      <c r="A197" s="16" t="n">
         <v>45225</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="3" t="n">
         <v>33336900</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="3" t="n">
         <v>8888000</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="3" t="n">
         <v>51112200</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="3" t="n">
         <v>2177000</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="3" t="n">
         <v>59534.63</v>
       </c>
-      <c r="G197" s="10">
-        <v>95573634.629999995</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="9">
+      <c r="G197" s="17" t="n">
+        <v>95573634.63</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="16" t="n">
         <v>45226</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="3" t="n">
         <v>38642000</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="3" t="n">
         <v>10951700</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="3" t="n">
         <v>57923400</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="3" t="n">
         <v>2675200</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="3" t="n">
         <v>178505.71</v>
       </c>
-      <c r="G198" s="10">
-        <v>110370805.70999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="9">
+      <c r="G198" s="17" t="n">
+        <v>110370805.71</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="16" t="n">
         <v>45229</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="3" t="n">
         <v>44123400</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="3" t="n">
         <v>10665300</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="3" t="n">
         <v>59922400</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="3" t="n">
         <v>2659800</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="3" t="n">
         <v>127388.09</v>
       </c>
-      <c r="G199" s="10">
+      <c r="G199" s="17" t="n">
         <v>117498288.09</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="9">
+    <row r="200">
+      <c r="A200" s="16" t="n">
         <v>45230</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="3" t="n">
         <v>38669300</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="3" t="n">
         <v>8708100</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="3" t="n">
         <v>53310300</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="3" t="n">
         <v>2021200</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="3" t="n">
         <v>112917.52</v>
       </c>
-      <c r="G200" s="10">
+      <c r="G200" s="17" t="n">
         <v>102821817.52</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="9">
+    <row r="201">
+      <c r="A201" s="16" t="n">
         <v>45231</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="3" t="n">
         <v>34804300</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="3" t="n">
         <v>9144600</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="3" t="n">
         <v>46535300</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="3" t="n">
         <v>1998300</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="3" t="n">
         <v>162095.21</v>
       </c>
-      <c r="G201" s="10">
-        <v>92644595.209999993</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="5">
+      <c r="G201" s="17" t="n">
+        <v>92644595.20999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="12" t="n">
         <v>45232</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="2" t="n">
         <v>31277900</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="2" t="n">
         <v>8146300</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="2" t="n">
         <v>45554200</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="2" t="n">
         <v>1886300</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202" s="2" t="n">
         <v>147158.44</v>
       </c>
-      <c r="G202" s="6">
-        <v>87011858.439999998</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="5">
+      <c r="G202" s="13" t="n">
+        <v>87011858.44</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="12" t="n">
         <v>45233</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="2" t="n">
         <v>33018200</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="2" t="n">
         <v>10683400</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="2" t="n">
         <v>48076200</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="2" t="n">
         <v>2117700</v>
       </c>
-      <c r="F203" s="2">
-        <v>164766.10999999999</v>
-      </c>
-      <c r="G203" s="6">
-        <v>94060266.109999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="5">
+      <c r="F203" s="2" t="n">
+        <v>164766.11</v>
+      </c>
+      <c r="G203" s="13" t="n">
+        <v>94060266.11</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="12" t="n">
         <v>45236</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="2" t="n">
         <v>44827200</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="2" t="n">
         <v>12634900</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="2" t="n">
         <v>61793000</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="2" t="n">
         <v>2826400</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204" s="2" t="n">
         <v>185765.87</v>
       </c>
-      <c r="G204" s="6">
+      <c r="G204" s="13" t="n">
         <v>122267265.87</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
+    <row r="205">
+      <c r="A205" s="12" t="n">
         <v>45237</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="2" t="n">
         <v>40159000</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="2" t="n">
         <v>8866800</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="2" t="n">
         <v>59242300</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="2" t="n">
         <v>2155800</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205" s="2" t="n">
         <v>202356.18</v>
       </c>
-      <c r="G205" s="6">
-        <v>110626256.18000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="5">
+      <c r="G205" s="13" t="n">
+        <v>110626256.18</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="12" t="n">
         <v>45238</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="2" t="n">
         <v>41696000</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="2" t="n">
         <v>9653800</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="2" t="n">
         <v>62215400</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="2" t="n">
         <v>2376000</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206" s="2" t="n">
         <v>330706.31</v>
       </c>
-      <c r="G206" s="11">
+      <c r="G206" s="18" t="n">
         <v>116271906.31</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="5">
+    <row r="207">
+      <c r="A207" s="12" t="n">
         <v>45239</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="2" t="n">
         <v>38942400</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="2" t="n">
         <v>8282900</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="2" t="n">
         <v>57614000</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="2" t="n">
         <v>2035600</v>
       </c>
-      <c r="F207" s="2">
-        <v>263859.90000000002</v>
-      </c>
-      <c r="G207" s="2">
-        <v>107138759.90000001</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="5">
+      <c r="F207" s="2" t="n">
+        <v>263859.9</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>107138759.9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="12" t="n">
         <v>45240</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="2" t="n">
         <v>34762300</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="2" t="n">
         <v>8198400</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="2" t="n">
         <v>48126400</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="2" t="n">
         <v>1779700</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208" s="2" t="n">
         <v>244105.91</v>
       </c>
-      <c r="G208" s="2">
-        <v>93110905.909999996</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
+      <c r="G208" s="2" t="n">
+        <v>93110905.91</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="12" t="n">
         <v>45243</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="2" t="n">
         <v>34485000</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="2" t="n">
         <v>7591600</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="2" t="n">
         <v>52500300</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="2" t="n">
         <v>1886800</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209" s="2" t="n">
         <v>220916.71</v>
       </c>
-      <c r="G209" s="2">
-        <v>96684616.709999993</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
+      <c r="G209" s="2" t="n">
+        <v>96684616.70999999</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="12" t="n">
         <v>45244</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="2" t="n">
         <v>35991700</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="2" t="n">
         <v>8216900</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="2" t="n">
         <v>53608100</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="2" t="n">
         <v>1851400</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210" s="2" t="n">
         <v>273748.3</v>
       </c>
-      <c r="G210" s="2">
-        <v>99941848.299999997</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
+      <c r="G210" s="2" t="n">
+        <v>99941848.3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="12" t="n">
         <v>45245</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="2" t="n">
         <v>39049300</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="2" t="n">
         <v>8807300</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="2" t="n">
         <v>60118100</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="2" t="n">
         <v>2331900</v>
       </c>
-      <c r="F211" s="2">
-        <v>328186.65999999997</v>
-      </c>
-      <c r="G211" s="6">
+      <c r="F211" s="2" t="n">
+        <v>328186.66</v>
+      </c>
+      <c r="G211" s="13" t="n">
         <v>110634786.66</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="5">
+    <row r="212">
+      <c r="A212" s="12" t="n">
         <v>45246</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="2" t="n">
         <v>32986600</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="2" t="n">
         <v>8463100</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="2" t="n">
         <v>52199600</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="2" t="n">
         <v>2174300</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212" s="2" t="n">
         <v>299299.87</v>
       </c>
-      <c r="G212" s="2">
-        <v>96122899.870000005</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
+      <c r="G212" s="2" t="n">
+        <v>96122899.87</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="12" t="n">
         <v>45247</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="2" t="n">
         <v>32933400</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="2" t="n">
         <v>8731300</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="2" t="n">
         <v>49902000</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="2" t="n">
         <v>1992800</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213" s="2" t="n">
         <v>226866.14</v>
       </c>
-      <c r="G213" s="2">
-        <v>93786366.140000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="5">
+      <c r="G213" s="2" t="n">
+        <v>93786366.14</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="12" t="n">
         <v>45250</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="2" t="n">
         <v>36802600</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="2" t="n">
         <v>8535500</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="2" t="n">
         <v>56235500</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="2" t="n">
         <v>2119600</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="2" t="n">
         <v>379415.83</v>
       </c>
-      <c r="G214" s="2">
+      <c r="G214" s="2" t="n">
         <v>104072615.83</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="5">
+    <row r="215">
+      <c r="A215" s="12" t="n">
         <v>45251</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="2" t="n">
         <v>39220600</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="2" t="n">
         <v>8466200</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="2" t="n">
         <v>60759000</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="2" t="n">
         <v>2235900</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215" s="2" t="n">
         <v>1027214.4</v>
       </c>
-      <c r="G215" s="2">
-        <v>111708914.40000001</v>
+      <c r="G215" s="2" t="n">
+        <v>111708914.4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="19" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>33097300</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>7993000</v>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>54587300</v>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>2183500</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>1313751.86</v>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>99174851.86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -568,7 +568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
@@ -5566,6 +5566,29 @@
         <v>99174851.86</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" s="19" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>33097300</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>7993000</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>54587300</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>2183500</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>1313751.86</v>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>99174851.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5569,6 +5569,29 @@
         <v>99174851.86</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" s="20" t="n">
+        <v>45253</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>31613800</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>8275500</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>50924300</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>1676100</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>1560670.91</v>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>94050370.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5592,6 +5592,29 @@
         <v>94050370.91</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" s="20" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>31194100</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>8025800</v>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>50229300</v>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>1890400</v>
+      </c>
+      <c r="F218" s="2" t="n">
+        <v>1735216.26</v>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>93074816.26000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5615,6 +5615,29 @@
         <v>93074816.26000001</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="20" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>35124600</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>7576700</v>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>47893300</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>1831400</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>3038636.34</v>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>95464636.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5638,6 +5638,29 @@
         <v>95464636.34</v>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" s="20" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>31843100</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>7672800</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>45618800</v>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>1641000</v>
+      </c>
+      <c r="F220" s="2" t="n">
+        <v>2306902.07</v>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>89082602.06999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5661,6 +5661,29 @@
         <v>89082602.06999999</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="20" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>32322100</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>9165000</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>45372100</v>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>1821400</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>1786992.18</v>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>90467592.18000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5684,6 +5684,29 @@
         <v>90467592.18000001</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" s="20" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>32720100</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>8616300</v>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>44743600</v>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>2105100</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>1243660.79</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>89428760.79000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5707,6 +5707,29 @@
         <v>89428760.79000001</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" s="20" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>33648300</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>10093900</v>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>49939300</v>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>2149400</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>1062174.17</v>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>96893074.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5730,6 +5730,29 @@
         <v>96893074.17</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="20" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>34539400</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>9392100</v>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>50767400</v>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>1894900</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>797081.8100000001</v>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>97390881.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5753,6 +5753,29 @@
         <v>97390881.81</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="20" t="n">
+        <v>45265</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>34102800</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>9402500</v>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>48267100</v>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>2251100</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>1601625.62</v>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>95625125.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5776,6 +5776,29 @@
         <v>95625125.62</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="20" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>33755400</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>10138600</v>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>48174100</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>2111700</v>
+      </c>
+      <c r="F226" s="2" t="n">
+        <v>1462402.05</v>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>95642202.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5799,6 +5799,29 @@
         <v>95642202.05</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="20" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>34890800</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>9199700</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>47265600</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>1939200</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>1408382.59</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>94703682.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5822,6 +5822,29 @@
         <v>94703682.59</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="20" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>42429900</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>10723400</v>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>53961400</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>1937300</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>1432122.35</v>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>110484122.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5845,6 +5845,29 @@
         <v>110484122.35</v>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" s="20" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>40575200</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>11985300</v>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>50692200</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>2615700</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>1140683.17</v>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>107009083.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5868,6 +5868,29 @@
         <v>107009083.17</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="20" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>33412900</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>9860300</v>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>45507500</v>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>2123400</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>1074029.01</v>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>91978129.01000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5891,6 +5891,29 @@
         <v>91978129.01000001</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="20" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>33223800</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>9298300</v>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>43822300</v>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>2041900</v>
+      </c>
+      <c r="F231" s="2" t="n">
+        <v>1632487.09</v>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>90018787.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5914,6 +5914,29 @@
         <v>90018787.09</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="20" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>31366100</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>10705800</v>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>42513700</v>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>2026800</v>
+      </c>
+      <c r="F232" s="2" t="n">
+        <v>2099004.6</v>
+      </c>
+      <c r="G232" s="2" t="n">
+        <v>88711404.59999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5937,6 +5937,29 @@
         <v>88711404.59999999</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" s="20" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>32355900</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>12733700</v>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>41223400</v>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>2288000</v>
+      </c>
+      <c r="F233" s="2" t="n">
+        <v>1533050.02</v>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>90134050.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5960,6 +5960,29 @@
         <v>90134050.02</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="20" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>30633200</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>10412200</v>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>38844400</v>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>2114600</v>
+      </c>
+      <c r="F234" s="2" t="n">
+        <v>1654058.47</v>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>83658458.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -5983,6 +5983,29 @@
         <v>83658458.47</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="20" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>28447800</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>10957100</v>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>36047900</v>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>2216600</v>
+      </c>
+      <c r="F235" s="2" t="n">
+        <v>1564243.84</v>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>79233643.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6006,6 +6006,29 @@
         <v>79233643.84</v>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="20" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>29416200</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>11895300</v>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>37367500</v>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>1949300</v>
+      </c>
+      <c r="F236" s="2" t="n">
+        <v>1830017.84</v>
+      </c>
+      <c r="G236" s="2" t="n">
+        <v>82458317.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6029,6 +6029,29 @@
         <v>82458317.84</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="20" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>31864700</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>12887000</v>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>41745600</v>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>2373600</v>
+      </c>
+      <c r="F237" s="2" t="n">
+        <v>2272890.19</v>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>91143790.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6052,6 +6052,29 @@
         <v>91143790.19</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="20" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>32834400</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>14038300</v>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>45264400</v>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>2834500</v>
+      </c>
+      <c r="F238" s="2" t="n">
+        <v>1312914.62</v>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>96284514.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6075,6 +6075,29 @@
         <v>96284514.62</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="20" t="n">
+        <v>45285</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>26482100</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>9960600</v>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>34746300</v>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>1811900</v>
+      </c>
+      <c r="F239" s="2" t="n">
+        <v>1537202.07</v>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>74538102.06999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6098,6 +6098,29 @@
         <v>74538102.06999999</v>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="20" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>26208000</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>9970600</v>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>35037500</v>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>1855500</v>
+      </c>
+      <c r="F240" s="2" t="n">
+        <v>1823046.32</v>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>74894646.31999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/市场交易量.xlsx
+++ b/市场交易量.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
@@ -6121,6 +6121,29 @@
         <v>74894646.31999999</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" s="20" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>28068700</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>10467800</v>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>35918800</v>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>2036500</v>
+      </c>
+      <c r="F241" s="2" t="n">
+        <v>1595544.17</v>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>78087344.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
